--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1728114.088509214</v>
+        <v>1728114.088509215</v>
       </c>
       <c r="C2">
-        <v>3151057.040901108</v>
+        <v>3151057.040901111</v>
       </c>
       <c r="D2">
-        <v>5727733.7745402</v>
+        <v>5727733.774540196</v>
       </c>
       <c r="E2">
-        <v>7421239.790938362</v>
+        <v>7421239.790938357</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>747066.7953601816</v>
+        <v>747066.7953601817</v>
       </c>
       <c r="C3">
         <v>1346296.788830967</v>
@@ -425,13 +425,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C4">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D4">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E4">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,13 +442,13 @@
         <v>187193.3076368069</v>
       </c>
       <c r="C5">
-        <v>339952.6177660533</v>
+        <v>339952.6177660535</v>
       </c>
       <c r="D5">
-        <v>653210.6893148607</v>
+        <v>653210.6893148604</v>
       </c>
       <c r="E5">
-        <v>812518.7907561758</v>
+        <v>812518.7907561751</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>196107.274667131</v>
       </c>
       <c r="C6">
-        <v>339952.6177660533</v>
+        <v>339952.6177660535</v>
       </c>
       <c r="D6">
-        <v>653210.6893148607</v>
+        <v>653210.6893148604</v>
       </c>
       <c r="E6">
-        <v>750017.345313393</v>
+        <v>750017.3453133923</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>718589.9518430864</v>
+        <v>718589.9518430865</v>
       </c>
       <c r="C7">
         <v>1297525.068875673</v>
@@ -482,7 +482,7 @@
         <v>2337564.006023584</v>
       </c>
       <c r="E7">
-        <v>3106470.375497586</v>
+        <v>3106470.375497585</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>602347.4596331754</v>
+        <v>602347.4596331755</v>
       </c>
       <c r="C8">
         <v>1232648.815431889</v>
@@ -499,7 +499,7 @@
         <v>2469878.949760768</v>
       </c>
       <c r="E8">
-        <v>3635231.290475898</v>
+        <v>3635231.290475897</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>579026.9403675655</v>
+        <v>579026.9403675656</v>
       </c>
       <c r="C9">
         <v>1187116.90595956</v>
@@ -516,7 +516,7 @@
         <v>2397164.786458304</v>
       </c>
       <c r="E9">
-        <v>3536839.257092093</v>
+        <v>3536839.257092089</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,7 +527,7 @@
         <v>549509.9631741249</v>
       </c>
       <c r="C10">
-        <v>1167772.561988105</v>
+        <v>1167772.561988106</v>
       </c>
       <c r="D10">
         <v>2513983.931006496</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>602347.4596331754</v>
+        <v>602347.4596331755</v>
       </c>
       <c r="C11">
         <v>1232648.815431889</v>
@@ -550,7 +550,7 @@
         <v>2469878.949760768</v>
       </c>
       <c r="E11">
-        <v>3635231.290475898</v>
+        <v>3635231.290475897</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C12">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D12">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E12">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,13 +595,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C14">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D14">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E14">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>602347.4596331754</v>
+        <v>602347.4596331755</v>
       </c>
       <c r="C15">
         <v>1232648.815431889</v>
@@ -618,7 +618,7 @@
         <v>2469878.949760768</v>
       </c>
       <c r="E15">
-        <v>3635231.290475898</v>
+        <v>3635231.290475897</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -626,16 +626,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C16">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D16">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E16">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C17">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D17">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E17">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -677,16 +677,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C19">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D19">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E19">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -694,16 +694,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C20">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D20">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E20">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -711,16 +711,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C21">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D21">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E21">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>356016.7216906429</v>
+        <v>356016.7216906428</v>
       </c>
       <c r="C22">
-        <v>646379.0133427751</v>
+        <v>646379.0133427752</v>
       </c>
       <c r="D22">
         <v>1085063.015090587</v>
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1457445.616815</v>
+        <v>1457445.616815001</v>
       </c>
       <c r="C23">
-        <v>3022442.467803104</v>
+        <v>3022442.467803106</v>
       </c>
       <c r="D23">
-        <v>6033795.884630134</v>
+        <v>6033795.884630131</v>
       </c>
       <c r="E23">
-        <v>8788310.278742796</v>
+        <v>8788310.27874279</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,16 +762,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>967413.0525385848</v>
+        <v>967413.0525385843</v>
       </c>
       <c r="C24">
         <v>1859927.046394087</v>
       </c>
       <c r="D24">
-        <v>3804181.301255448</v>
+        <v>3804181.30125545</v>
       </c>
       <c r="E24">
-        <v>5032256.75701266</v>
+        <v>5032256.757012658</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -785,10 +785,10 @@
         <v>1978017.652514346</v>
       </c>
       <c r="D25">
-        <v>3598549.879565964</v>
+        <v>3598549.879565966</v>
       </c>
       <c r="E25">
-        <v>3866892.034336044</v>
+        <v>3866892.034336043</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -802,10 +802,10 @@
         <v>1978017.652514346</v>
       </c>
       <c r="D26">
-        <v>3598549.879565964</v>
+        <v>3598549.879565966</v>
       </c>
       <c r="E26">
-        <v>3866892.034336044</v>
+        <v>3866892.034336043</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>552468.2873270498</v>
+        <v>552468.28732705</v>
       </c>
       <c r="C27">
         <v>1072783.750032395</v>
@@ -822,7 +822,7 @@
         <v>2146922.900166375</v>
       </c>
       <c r="E27">
-        <v>3118208.265826203</v>
+        <v>3118208.265826201</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>670854.3488971319</v>
+        <v>670854.3488971321</v>
       </c>
       <c r="C28">
         <v>1153748.561355595</v>
@@ -839,7 +839,7 @@
         <v>2020633.317803647</v>
       </c>
       <c r="E28">
-        <v>2418202.328599913</v>
+        <v>2418202.328599911</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>670854.3488971319</v>
+        <v>670854.3488971321</v>
       </c>
       <c r="C29">
         <v>1153748.561355595</v>
@@ -856,7 +856,7 @@
         <v>2020633.317803647</v>
       </c>
       <c r="E29">
-        <v>2418202.328599913</v>
+        <v>2418202.328599911</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -864,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2289747.14010242</v>
+        <v>2289747.140102421</v>
       </c>
       <c r="C30">
-        <v>4807840.562241388</v>
+        <v>4807840.562241389</v>
       </c>
       <c r="D30">
-        <v>9137245.695950819</v>
+        <v>9137245.695950815</v>
       </c>
       <c r="E30">
         <v>12940333.91205618</v>
@@ -881,16 +881,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1947601.015719299</v>
+        <v>1947601.015719301</v>
       </c>
       <c r="C31">
-        <v>4385173.260066321</v>
+        <v>4385173.260066322</v>
       </c>
       <c r="D31">
-        <v>9445242.741881745</v>
+        <v>9445242.741881741</v>
       </c>
       <c r="E31">
-        <v>15286242.39903713</v>
+        <v>15286242.39903712</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1569354.047053522</v>
+        <v>1569354.047053523</v>
       </c>
       <c r="C32">
         <v>3957996.222717967</v>
@@ -915,16 +915,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2118674.077910859</v>
+        <v>2118674.077910861</v>
       </c>
       <c r="C33">
         <v>4570090.204767914</v>
       </c>
       <c r="D33">
-        <v>9239911.377927795</v>
+        <v>9239911.377927791</v>
       </c>
       <c r="E33">
-        <v>14151125.38920764</v>
+        <v>14151125.38920763</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -935,13 +935,13 @@
         <v>1412250.891721035</v>
       </c>
       <c r="C34">
-        <v>3475460.92816655</v>
+        <v>3475460.928166552</v>
       </c>
       <c r="D34">
-        <v>7720896.778651864</v>
+        <v>7720896.778651861</v>
       </c>
       <c r="E34">
-        <v>13199594.79856149</v>
+        <v>13199594.7985615</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,16 +949,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>8111259.16075128</v>
+        <v>8111259.160751285</v>
       </c>
       <c r="C35">
         <v>16917383.96396386</v>
       </c>
       <c r="D35">
-        <v>35061488.88926543</v>
+        <v>35061488.88926544</v>
       </c>
       <c r="E35">
-        <v>57141333.22307514</v>
+        <v>57141333.22307515</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -969,10 +969,10 @@
         <v>1444888.088771357</v>
       </c>
       <c r="C36">
-        <v>3419890.15325781</v>
+        <v>3419890.153257812</v>
       </c>
       <c r="D36">
-        <v>7472086.124107026</v>
+        <v>7472086.124107024</v>
       </c>
       <c r="E36">
         <v>11845369.95717815</v>
@@ -986,13 +986,13 @@
         <v>1560667.307984693</v>
       </c>
       <c r="C37">
-        <v>3099660.374552662</v>
+        <v>3099660.374552664</v>
       </c>
       <c r="D37">
-        <v>5633108.623795714</v>
+        <v>5633108.623795716</v>
       </c>
       <c r="E37">
-        <v>7811762.503708385</v>
+        <v>7811762.503708383</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,10 +1003,10 @@
         <v>1072110.585485137</v>
       </c>
       <c r="C38">
-        <v>2479728.299642129</v>
+        <v>2479728.299642131</v>
       </c>
       <c r="D38">
-        <v>6046547.788844941</v>
+        <v>6046547.788844942</v>
       </c>
       <c r="E38">
         <v>11072983.74312062</v>
@@ -1017,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2232229.445296114</v>
+        <v>2232229.445296113</v>
       </c>
       <c r="C39">
-        <v>4044600.918047769</v>
+        <v>4044600.918047775</v>
       </c>
       <c r="D39">
-        <v>6758980.728434568</v>
+        <v>6758980.728434572</v>
       </c>
       <c r="E39">
-        <v>8517270.864630003</v>
+        <v>8517270.864629999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,16 +1034,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>10552999.0318228</v>
+        <v>10552999.03182281</v>
       </c>
       <c r="C40">
         <v>18924531.21392567</v>
       </c>
       <c r="D40">
-        <v>33097583.4160611</v>
+        <v>33097583.41606112</v>
       </c>
       <c r="E40">
-        <v>45270998.95753661</v>
+        <v>45270998.95753662</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>12576632.76058755</v>
+        <v>12576632.76058756</v>
       </c>
       <c r="C41">
         <v>19848456.13851127</v>
       </c>
       <c r="D41">
-        <v>31306963.71990422</v>
+        <v>31306963.71990423</v>
       </c>
       <c r="E41">
-        <v>37657612.15274293</v>
+        <v>37657612.15274294</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1071,13 +1071,13 @@
         <v>1019251.74790647</v>
       </c>
       <c r="C42">
-        <v>2583866.856630988</v>
+        <v>2583866.856630989</v>
       </c>
       <c r="D42">
         <v>6186388.814920858</v>
       </c>
       <c r="E42">
-        <v>11005322.94785952</v>
+        <v>11005322.94785953</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1085,13 +1085,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1226663.915546308</v>
+        <v>1226663.915546309</v>
       </c>
       <c r="C43">
-        <v>2798702.308405152</v>
+        <v>2798702.308405154</v>
       </c>
       <c r="D43">
-        <v>6204759.510412643</v>
+        <v>6204759.510412648</v>
       </c>
       <c r="E43">
         <v>10459180.61163275</v>
@@ -1102,10 +1102,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4464162.206210244</v>
+        <v>4464162.206210245</v>
       </c>
       <c r="C44">
-        <v>7935937.138049508</v>
+        <v>7935937.138049511</v>
       </c>
       <c r="D44">
         <v>13616936.44208619</v>
@@ -1119,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>560723.5991903042</v>
+        <v>560723.5991903038</v>
       </c>
       <c r="C45">
         <v>1293350.735222928</v>
@@ -1128,7 +1128,7 @@
         <v>2923818.744281229</v>
       </c>
       <c r="E45">
-        <v>4721407.376246909</v>
+        <v>4721407.376246907</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1142,7 +1142,7 @@
         <v>2859694.759556205</v>
       </c>
       <c r="D46">
-        <v>6160518.022140294</v>
+        <v>6160518.022140297</v>
       </c>
       <c r="E46">
         <v>10133877.72451811</v>
@@ -1156,7 +1156,7 @@
         <v>2114402.466096743</v>
       </c>
       <c r="C47">
-        <v>3884927.947480119</v>
+        <v>3884927.947480121</v>
       </c>
       <c r="D47">
         <v>7041015.305680717</v>
@@ -1170,16 +1170,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>819485.4430658302</v>
+        <v>819485.4430658307</v>
       </c>
       <c r="C48">
         <v>1544094.334507813</v>
       </c>
       <c r="D48">
-        <v>2764591.981104097</v>
+        <v>2764591.981104095</v>
       </c>
       <c r="E48">
-        <v>3562868.574137046</v>
+        <v>3562868.574137044</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1193,10 +1193,10 @@
         <v>18448133.58294462</v>
       </c>
       <c r="D49">
-        <v>34012085.07235546</v>
+        <v>34012085.07235549</v>
       </c>
       <c r="E49">
-        <v>47842709.29652612</v>
+        <v>47842709.29652611</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2460188.967242987</v>
+        <v>2460188.967242986</v>
       </c>
       <c r="C50">
-        <v>5293603.342363766</v>
+        <v>5293603.342363768</v>
       </c>
       <c r="D50">
         <v>12168037.84321917</v>
@@ -1224,13 +1224,13 @@
         <v>1288156.82504278</v>
       </c>
       <c r="C51">
-        <v>2532026.591522057</v>
+        <v>2532026.591522058</v>
       </c>
       <c r="D51">
-        <v>4654835.240518355</v>
+        <v>4654835.240518356</v>
       </c>
       <c r="E51">
-        <v>6224620.731040955</v>
+        <v>6224620.731040951</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>1182780.301904335</v>
       </c>
       <c r="C52">
-        <v>2434510.742490234</v>
+        <v>2434510.742490233</v>
       </c>
       <c r="D52">
-        <v>4700510.875820132</v>
+        <v>4700510.875820133</v>
       </c>
       <c r="E52">
-        <v>6802140.12389655</v>
+        <v>6802140.123896552</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,16 +1255,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1099108.15567394</v>
+        <v>1099108.155673941</v>
       </c>
       <c r="C53">
-        <v>2448703.2134018</v>
+        <v>2448703.213401801</v>
       </c>
       <c r="D53">
-        <v>5233776.224823692</v>
+        <v>5233776.224823694</v>
       </c>
       <c r="E53">
-        <v>8164017.350104827</v>
+        <v>8164017.350104828</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1275,13 +1275,13 @@
         <v>967829.0245015686</v>
       </c>
       <c r="C54">
-        <v>2120602.736078037</v>
+        <v>2120602.736078036</v>
       </c>
       <c r="D54">
-        <v>4795990.309457789</v>
+        <v>4795990.309457788</v>
       </c>
       <c r="E54">
-        <v>7861645.357907942</v>
+        <v>7861645.35790794</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3760288.827981151</v>
+        <v>3760288.82798115</v>
       </c>
       <c r="C55">
-        <v>6547351.502397289</v>
+        <v>6547351.502397292</v>
       </c>
       <c r="D55">
         <v>11051350.82596171</v>
@@ -1306,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4280801.435894665</v>
+        <v>4280801.435894663</v>
       </c>
       <c r="C56">
         <v>10342061.27459137</v>
@@ -1315,7 +1315,7 @@
         <v>20714277.43478781</v>
       </c>
       <c r="E56">
-        <v>32360445.62151045</v>
+        <v>32360445.62151043</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3443173.659697909</v>
+        <v>3443173.65969791</v>
       </c>
       <c r="C57">
-        <v>7501975.433709249</v>
+        <v>7501975.433709252</v>
       </c>
       <c r="D57">
         <v>17171976.59286454</v>
       </c>
       <c r="E57">
-        <v>28950132.96390453</v>
+        <v>28950132.96390454</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1346,10 +1346,10 @@
         <v>1069872.732336634</v>
       </c>
       <c r="D58">
-        <v>2094659.377603501</v>
+        <v>2094659.3776035</v>
       </c>
       <c r="E58">
-        <v>3105693.970928228</v>
+        <v>3105693.970928227</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1363,10 +1363,10 @@
         <v>1069872.732336634</v>
       </c>
       <c r="D59">
-        <v>2094659.377603501</v>
+        <v>2094659.3776035</v>
       </c>
       <c r="E59">
-        <v>3105693.970928228</v>
+        <v>3105693.970928227</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,10 +1380,10 @@
         <v>2493255.497462496</v>
       </c>
       <c r="D60">
-        <v>5081008.283733319</v>
+        <v>5081008.283733323</v>
       </c>
       <c r="E60">
-        <v>7020019.682719056</v>
+        <v>7020019.682719057</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1394,13 +1394,13 @@
         <v>1532349.329175268</v>
       </c>
       <c r="C61">
-        <v>2611279.426336461</v>
+        <v>2611279.42633646</v>
       </c>
       <c r="D61">
-        <v>4850053.36174544</v>
+        <v>4850053.361745445</v>
       </c>
       <c r="E61">
-        <v>5858433.692053313</v>
+        <v>5858433.692053314</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>243146.6309303276</v>
+        <v>243146.6309303275</v>
       </c>
       <c r="C62">
         <v>570372.701602158</v>
       </c>
       <c r="D62">
-        <v>1618085.81112954</v>
+        <v>1618085.811129541</v>
       </c>
       <c r="E62">
         <v>2626703.245066655</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>299880.8448140707</v>
+        <v>299880.8448140706</v>
       </c>
       <c r="C63">
         <v>629376.7741816916</v>
       </c>
       <c r="D63">
-        <v>1504535.929646766</v>
+        <v>1504535.929646767</v>
       </c>
       <c r="E63">
         <v>1970027.433799991</v>
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>325502.2018224527</v>
+        <v>325502.2018224528</v>
       </c>
       <c r="C64">
-        <v>725316.776063025</v>
+        <v>725316.7760630249</v>
       </c>
       <c r="D64">
-        <v>1910969.385171094</v>
+        <v>1910969.385171092</v>
       </c>
       <c r="E64">
-        <v>2503567.032578062</v>
+        <v>2503567.032578059</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,16 +1459,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>300463.5709130333</v>
+        <v>300463.5709130334</v>
       </c>
       <c r="C65">
-        <v>708642.8271880129</v>
+        <v>708642.8271880128</v>
       </c>
       <c r="D65">
-        <v>1937147.047981656</v>
+        <v>1937147.047981655</v>
       </c>
       <c r="E65">
-        <v>2767100.404428384</v>
+        <v>2767100.404428381</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1476,16 +1476,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>878975.5060622339</v>
+        <v>878975.5060622343</v>
       </c>
       <c r="C66">
         <v>1847816.271548459</v>
       </c>
       <c r="D66">
-        <v>3900539.030063089</v>
+        <v>3900539.030063091</v>
       </c>
       <c r="E66">
-        <v>6048773.307662437</v>
+        <v>6048773.30766244</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>586517.5787221276</v>
+        <v>586517.5787221277</v>
       </c>
       <c r="C67">
         <v>1504440.335730762</v>
       </c>
       <c r="D67">
-        <v>4303959.199435833</v>
+        <v>4303959.199435836</v>
       </c>
       <c r="E67">
         <v>8809952.8159284</v>
@@ -1510,16 +1510,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>709941.7548964197</v>
+        <v>709941.7548964201</v>
       </c>
       <c r="C68">
         <v>1602924.958451675</v>
       </c>
       <c r="D68">
-        <v>4039843.995422485</v>
+        <v>4039843.995422487</v>
       </c>
       <c r="E68">
-        <v>7543176.124849628</v>
+        <v>7543176.124849631</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1527,13 +1527,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>844585.3133598637</v>
+        <v>844585.3133598638</v>
       </c>
       <c r="C69">
-        <v>1782183.166942595</v>
+        <v>1782183.166942596</v>
       </c>
       <c r="D69">
-        <v>4064850.355022731</v>
+        <v>4064850.355022734</v>
       </c>
       <c r="E69">
         <v>6989714.630819226</v>
@@ -1544,13 +1544,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>668630.0397432254</v>
+        <v>668630.0397432256</v>
       </c>
       <c r="C70">
         <v>1643311.751336679</v>
       </c>
       <c r="D70">
-        <v>4256137.430553213</v>
+        <v>4256137.430553216</v>
       </c>
       <c r="E70">
         <v>7936238.487075996</v>
@@ -1584,7 +1584,7 @@
         <v>1990490.29035147</v>
       </c>
       <c r="D72">
-        <v>3921385.04837487</v>
+        <v>3921385.048374873</v>
       </c>
       <c r="E72">
         <v>5606333.610136254</v>
@@ -1601,7 +1601,7 @@
         <v>1967345.054417151</v>
       </c>
       <c r="D73">
-        <v>3873563.27949225</v>
+        <v>3873563.279492252</v>
       </c>
       <c r="E73">
         <v>5460714.55532752</v>
@@ -1618,7 +1618,7 @@
         <v>2106216.470023067</v>
       </c>
       <c r="D74">
-        <v>3825741.51060963</v>
+        <v>3825741.510609631</v>
       </c>
       <c r="E74">
         <v>4878238.336092585</v>
@@ -1632,13 +1632,13 @@
         <v>1208781.442957303</v>
       </c>
       <c r="C75">
-        <v>2153610.032199049</v>
+        <v>2153610.032199048</v>
       </c>
       <c r="D75">
-        <v>3964164.963335888</v>
+        <v>3964164.963335887</v>
       </c>
       <c r="E75">
-        <v>4596823.55722845</v>
+        <v>4596823.557228453</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1646,13 +1646,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>914967.422806519</v>
+        <v>914967.4228065191</v>
       </c>
       <c r="C76">
         <v>1921054.582548512</v>
       </c>
       <c r="D76">
-        <v>4017028.586140111</v>
+        <v>4017028.586140113</v>
       </c>
       <c r="E76">
         <v>6188809.82937119</v>
@@ -1663,13 +1663,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2136665.703806395</v>
+        <v>2136665.703806394</v>
       </c>
       <c r="C77">
-        <v>4168573.794732995</v>
+        <v>4168573.794732994</v>
       </c>
       <c r="D77">
-        <v>8540092.416400883</v>
+        <v>8540092.416400889</v>
       </c>
       <c r="E77">
         <v>12770727.96916575</v>
@@ -1680,13 +1680,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1420772.55562384</v>
+        <v>1420772.555623839</v>
       </c>
       <c r="C78">
-        <v>3946841.146076985</v>
+        <v>3946841.146076984</v>
       </c>
       <c r="D78">
-        <v>9384716.941099871</v>
+        <v>9384716.941099878</v>
       </c>
       <c r="E78">
         <v>15873221.2046128</v>
@@ -1697,16 +1697,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2643297.777904819</v>
+        <v>2643297.777904817</v>
       </c>
       <c r="C79">
         <v>4412479.708254606</v>
       </c>
       <c r="D79">
-        <v>7977009.399934891</v>
+        <v>7977009.399934897</v>
       </c>
       <c r="E79">
-        <v>10173291.77204729</v>
+        <v>10173291.7720473</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1714,13 +1714,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2489105.407527037</v>
+        <v>2489105.407527036</v>
       </c>
       <c r="C80">
         <v>4301613.383926601</v>
       </c>
       <c r="D80">
-        <v>8164703.738756889</v>
+        <v>8164703.738756894</v>
       </c>
       <c r="E80">
         <v>10966952.83227793</v>
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>489736.8736853671</v>
+        <v>489736.8736853668</v>
       </c>
       <c r="C81">
         <v>915282.1434212178</v>
@@ -1740,7 +1740,7 @@
         <v>1774734.478506581</v>
       </c>
       <c r="E81">
-        <v>2650781.501623449</v>
+        <v>2650781.501623451</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>547352.9764718809</v>
+        <v>547352.9764718805</v>
       </c>
       <c r="C82">
         <v>1026225.433532881</v>
@@ -1757,7 +1757,7 @@
         <v>1722536.405609329</v>
       </c>
       <c r="E82">
-        <v>2120625.20129876</v>
+        <v>2120625.201298761</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1235472.748527423</v>
+        <v>1235472.748527422</v>
       </c>
       <c r="C83">
-        <v>2998672.903449011</v>
+        <v>2998672.903449009</v>
       </c>
       <c r="D83">
-        <v>7343733.67114287</v>
+        <v>7343733.671142863</v>
       </c>
       <c r="E83">
-        <v>12817109.28029432</v>
+        <v>12817109.28029433</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2120732.749440773</v>
+        <v>2120732.749440772</v>
       </c>
       <c r="C84">
-        <v>3654012.014798794</v>
+        <v>3654012.014798793</v>
       </c>
       <c r="D84">
-        <v>6409848.464407938</v>
+        <v>6409848.464407933</v>
       </c>
       <c r="E84">
-        <v>7389455.860577848</v>
+        <v>7389455.860577852</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1802,10 +1802,10 @@
         <v>1273672.823215986</v>
       </c>
       <c r="C85">
-        <v>2223587.039647492</v>
+        <v>2223587.039647491</v>
       </c>
       <c r="D85">
-        <v>3819441.412162827</v>
+        <v>3819441.412162825</v>
       </c>
       <c r="E85">
         <v>4757113.016282066</v>
@@ -1819,10 +1819,10 @@
         <v>1301665.632517436</v>
       </c>
       <c r="C86">
-        <v>2306971.553634273</v>
+        <v>2306971.553634272</v>
       </c>
       <c r="D86">
-        <v>3767120.29692772</v>
+        <v>3767120.296927718</v>
       </c>
       <c r="E86">
         <v>4455074.094613363</v>
@@ -1833,16 +1833,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>414286.0612616388</v>
+        <v>414286.0612616389</v>
       </c>
       <c r="C87">
-        <v>821612.8534892143</v>
+        <v>821612.8534892149</v>
       </c>
       <c r="D87">
-        <v>1497937.563460445</v>
+        <v>1497937.563460446</v>
       </c>
       <c r="E87">
-        <v>2232779.396865418</v>
+        <v>2232779.396865416</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1853,13 +1853,13 @@
         <v>385714.6087608362</v>
       </c>
       <c r="C88">
-        <v>793281.3757826897</v>
+        <v>793281.3757826902</v>
       </c>
       <c r="D88">
-        <v>1551435.333584032</v>
+        <v>1551435.333584033</v>
       </c>
       <c r="E88">
-        <v>2386764.182856136</v>
+        <v>2386764.182856135</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>442857.5137624415</v>
+        <v>442857.5137624416</v>
       </c>
       <c r="C89">
-        <v>849944.3311957389</v>
+        <v>849944.3311957396</v>
       </c>
       <c r="D89">
-        <v>1497937.563460445</v>
+        <v>1497937.563460446</v>
       </c>
       <c r="E89">
-        <v>2001802.21787934</v>
+        <v>2001802.217879339</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>75736289.14772998</v>
+        <v>75736289.14772996</v>
       </c>
       <c r="C90">
-        <v>135067074.6625151</v>
+        <v>135067074.6625152</v>
       </c>
       <c r="D90">
-        <v>207895112.9348906</v>
+        <v>207895112.9348907</v>
       </c>
       <c r="E90">
         <v>265791533.980425</v>
@@ -1904,10 +1904,10 @@
         <v>17471658.40155186</v>
       </c>
       <c r="C91">
-        <v>34634837.23854928</v>
+        <v>34634837.2385493</v>
       </c>
       <c r="D91">
-        <v>57695972.71026932</v>
+        <v>57695972.71026933</v>
       </c>
       <c r="E91">
         <v>79728708.41493817</v>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>15590491.64150277</v>
+        <v>15590491.64150276</v>
       </c>
       <c r="C92">
-        <v>32700912.31659982</v>
+        <v>32700912.31659985</v>
       </c>
       <c r="D92">
-        <v>59795239.32296691</v>
+        <v>59795239.32296692</v>
       </c>
       <c r="E92">
         <v>90755950.19351359</v>
@@ -1935,10 +1935,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>31464446.7673965</v>
+        <v>31464446.76739649</v>
       </c>
       <c r="C93">
-        <v>62281173.0545994</v>
+        <v>62281173.05459943</v>
       </c>
       <c r="D93">
         <v>112073749.8069199</v>
@@ -1952,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>20999289.79062177</v>
+        <v>20999289.79062176</v>
       </c>
       <c r="C94">
-        <v>50711722.43988448</v>
+        <v>50711722.43988447</v>
       </c>
       <c r="D94">
         <v>125905658.0991875</v>
       </c>
       <c r="E94">
-        <v>238470949.2369257</v>
+        <v>238470949.2369256</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1969,13 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9148139.723526418</v>
+        <v>9148139.723526416</v>
       </c>
       <c r="C95">
-        <v>18108569.7237085</v>
+        <v>18108569.72370852</v>
       </c>
       <c r="D95">
-        <v>30540943.30085852</v>
+        <v>30540943.30085853</v>
       </c>
       <c r="E95">
         <v>42971235.81968676</v>
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2808865.436237689</v>
+        <v>2808865.436237688</v>
       </c>
       <c r="C96">
-        <v>5845727.604983571</v>
+        <v>5845727.604983575</v>
       </c>
       <c r="D96">
         <v>10902642.73046169</v>
@@ -2003,10 +2003,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2937712.474597216</v>
+        <v>2937712.474597215</v>
       </c>
       <c r="C97">
-        <v>6153397.478930075</v>
+        <v>6153397.478930078</v>
       </c>
       <c r="D97">
         <v>11038079.2861196</v>
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3381499.939761573</v>
+        <v>3381499.939761574</v>
       </c>
       <c r="C98">
-        <v>7871483.968214624</v>
+        <v>7871483.968214623</v>
       </c>
       <c r="D98">
         <v>15229631.32116261</v>
       </c>
       <c r="E98">
-        <v>24009824.00697088</v>
+        <v>24009824.0069709</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>1753370.339135631</v>
       </c>
       <c r="C99">
-        <v>3228192.863368919</v>
+        <v>3228192.863368918</v>
       </c>
       <c r="D99">
-        <v>5330370.962406914</v>
+        <v>5330370.962406915</v>
       </c>
       <c r="E99">
-        <v>7114021.927991372</v>
+        <v>7114021.927991377</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,13 +2054,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4529780.692483447</v>
+        <v>4529780.692483445</v>
       </c>
       <c r="C100">
         <v>8095828.982288026</v>
       </c>
       <c r="D100">
-        <v>13054856.93392177</v>
+        <v>13054856.93392179</v>
       </c>
       <c r="E100">
         <v>17631452.47891011</v>
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2152271.489246279</v>
+        <v>2152271.489246278</v>
       </c>
       <c r="C101">
         <v>4329320.311383971</v>
       </c>
       <c r="D101">
-        <v>7778800.763735773</v>
+        <v>7778800.763735783</v>
       </c>
       <c r="E101">
         <v>11578864.31450813</v>
@@ -2088,13 +2088,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>450475.4279817793</v>
+        <v>450475.427981779</v>
       </c>
       <c r="C102">
         <v>779277.6560491149</v>
       </c>
       <c r="D102">
-        <v>1217551.423889078</v>
+        <v>1217551.423889079</v>
       </c>
       <c r="E102">
         <v>1578936.042887473</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2335315.786811031</v>
+        <v>2335315.786811032</v>
       </c>
       <c r="C103">
-        <v>4389551.446123942</v>
+        <v>4389551.446123943</v>
       </c>
       <c r="D103">
-        <v>7188423.868802804</v>
+        <v>7188423.868802807</v>
       </c>
       <c r="E103">
-        <v>9373281.741972795</v>
+        <v>9373281.741972797</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,7 +2122,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>5489195.870030052</v>
+        <v>5489195.870030054</v>
       </c>
       <c r="C104">
         <v>10844774.16101209</v>
@@ -2131,7 +2131,7 @@
         <v>18621440.87918441</v>
       </c>
       <c r="E104">
-        <v>25997592.75603775</v>
+        <v>25997592.75603776</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,16 +2139,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>567152.8826826761</v>
+        <v>567152.882682676</v>
       </c>
       <c r="C105">
-        <v>1400252.651027117</v>
+        <v>1400252.651027116</v>
       </c>
       <c r="D105">
-        <v>2592998.48477103</v>
+        <v>2592998.484771031</v>
       </c>
       <c r="E105">
-        <v>3717657.570045182</v>
+        <v>3717657.570045183</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2162,10 +2162,10 @@
         <v>1422028.478308399</v>
       </c>
       <c r="D106">
-        <v>2710429.638754181</v>
+        <v>2710429.63875418</v>
       </c>
       <c r="E106">
-        <v>3985536.232328359</v>
+        <v>3985536.23232836</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2176,10 +2176,10 @@
         <v>2800835.355513677</v>
       </c>
       <c r="C107">
-        <v>6192704.663601091</v>
+        <v>6192704.663601094</v>
       </c>
       <c r="D107">
-        <v>12696223.04469064</v>
+        <v>12696223.04469063</v>
       </c>
       <c r="E107">
         <v>21014645.58864044</v>
@@ -2193,13 +2193,13 @@
         <v>5759659.489030513</v>
       </c>
       <c r="C108">
-        <v>11087012.35095008</v>
+        <v>11087012.35095007</v>
       </c>
       <c r="D108">
-        <v>18770892.1738804</v>
+        <v>18770892.17388039</v>
       </c>
       <c r="E108">
-        <v>25837690.38131784</v>
+        <v>25837690.38131785</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>823835.129793342</v>
+        <v>823835.1297933417</v>
       </c>
       <c r="C109">
         <v>1832980.690963215</v>
       </c>
       <c r="D109">
-        <v>3546868.174030669</v>
+        <v>3546868.174030668</v>
       </c>
       <c r="E109">
-        <v>5561969.449993946</v>
+        <v>5561969.44999395</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>42015591.61946044</v>
+        <v>42015591.61946043</v>
       </c>
       <c r="C110">
         <v>61724559.08173805</v>
       </c>
       <c r="D110">
-        <v>84988418.17004257</v>
+        <v>84988418.17004254</v>
       </c>
       <c r="E110">
-        <v>89168081.6586331</v>
+        <v>89168081.65863317</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7202672.849050362</v>
+        <v>7202672.849050359</v>
       </c>
       <c r="C111">
         <v>13811296.36911818</v>
       </c>
       <c r="D111">
-        <v>24487032.20148097</v>
+        <v>24487032.20148096</v>
       </c>
       <c r="E111">
-        <v>36373514.49837311</v>
+        <v>36373514.49837314</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1459991.783867589</v>
+        <v>1459991.78386759</v>
       </c>
       <c r="C112">
-        <v>3231433.089070182</v>
+        <v>3231433.08907018</v>
       </c>
       <c r="D112">
-        <v>6625656.015136225</v>
+        <v>6625656.015136227</v>
       </c>
       <c r="E112">
-        <v>10835864.81276831</v>
+        <v>10835864.81276832</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,16 +2275,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>696825.610469277</v>
+        <v>696825.6104692772</v>
       </c>
       <c r="C113">
         <v>1171698.799576814</v>
       </c>
       <c r="D113">
-        <v>1900887.63752661</v>
+        <v>1900887.637526611</v>
       </c>
       <c r="E113">
-        <v>2299207.313541492</v>
+        <v>2299207.313541491</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,13 +2292,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1209148.544633124</v>
+        <v>1209148.544633123</v>
       </c>
       <c r="C114">
-        <v>2641571.57782099</v>
+        <v>2641571.577820989</v>
       </c>
       <c r="D114">
-        <v>5760678.73650719</v>
+        <v>5760678.736507188</v>
       </c>
       <c r="E114">
         <v>9408883.321273379</v>
@@ -2309,10 +2309,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>3138982.335315316</v>
+        <v>3138982.335315317</v>
       </c>
       <c r="C115">
-        <v>6069854.045685882</v>
+        <v>6069854.04568588</v>
       </c>
       <c r="D115">
         <v>10283570.27349268</v>
@@ -2326,13 +2326,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2360320.050585935</v>
+        <v>2360320.050585936</v>
       </c>
       <c r="C116">
-        <v>4672477.574736614</v>
+        <v>4672477.574736613</v>
       </c>
       <c r="D116">
-        <v>8282070.018920282</v>
+        <v>8282070.018920283</v>
       </c>
       <c r="E116">
         <v>12079324.7093155</v>
@@ -2343,16 +2343,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>394867.8459325903</v>
+        <v>394867.8459325904</v>
       </c>
       <c r="C117">
         <v>836927.7139834384</v>
       </c>
       <c r="D117">
-        <v>1493554.572342336</v>
+        <v>1493554.572342337</v>
       </c>
       <c r="E117">
-        <v>2210776.263020666</v>
+        <v>2210776.263020664</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2360,13 +2360,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>351976.7451995963</v>
+        <v>351976.7451995962</v>
       </c>
       <c r="C118">
-        <v>492299.5116043396</v>
+        <v>492299.5116043394</v>
       </c>
       <c r="D118">
-        <v>779602.335419833</v>
+        <v>779602.3354198325</v>
       </c>
       <c r="E118">
         <v>1088535.516262262</v>
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>129539.0453798448</v>
+        <v>129539.0453798449</v>
       </c>
       <c r="C119">
-        <v>239062.1812856314</v>
+        <v>239062.1812856313</v>
       </c>
       <c r="D119">
-        <v>397500.3606010452</v>
+        <v>397500.3606010451</v>
       </c>
       <c r="E119">
-        <v>524314.2884882409</v>
+        <v>524314.2884882413</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,13 +2394,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>9047551.600615829</v>
+        <v>9047551.600615835</v>
       </c>
       <c r="C120">
-        <v>20462049.4610202</v>
+        <v>20462049.46102018</v>
       </c>
       <c r="D120">
-        <v>37664631.95765191</v>
+        <v>37664631.9576519</v>
       </c>
       <c r="E120">
         <v>56631092.19490813</v>
@@ -2411,13 +2411,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>10697105.20735794</v>
+        <v>10697105.20735795</v>
       </c>
       <c r="C121">
-        <v>17037071.22505544</v>
+        <v>17037071.22505543</v>
       </c>
       <c r="D121">
-        <v>23924902.33244677</v>
+        <v>23924902.33244676</v>
       </c>
       <c r="E121">
         <v>27302703.85757624</v>
@@ -2428,16 +2428,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7867741.407492881</v>
+        <v>7867741.407492878</v>
       </c>
       <c r="C122">
-        <v>13710642.75011389</v>
+        <v>13710642.75011388</v>
       </c>
       <c r="D122">
-        <v>22064535.51829665</v>
+        <v>22064535.51829664</v>
       </c>
       <c r="E122">
-        <v>29403416.66992085</v>
+        <v>29403416.66992084</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3227791.346663746</v>
+        <v>3227791.346663745</v>
       </c>
       <c r="C123">
-        <v>6211941.699080724</v>
+        <v>6211941.699080723</v>
       </c>
       <c r="D123">
         <v>10375173.44120532</v>
       </c>
       <c r="E123">
-        <v>14301963.99956875</v>
+        <v>14301963.99956874</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1815632.632498357</v>
+        <v>1815632.632498356</v>
       </c>
       <c r="C124">
         <v>3150341.861676653</v>
       </c>
       <c r="D124">
-        <v>4565076.314130342</v>
+        <v>4565076.314130341</v>
       </c>
       <c r="E124">
-        <v>5418756.54642046</v>
+        <v>5418756.546420456</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,10 +2479,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>3849119.555395064</v>
+        <v>3849119.555395065</v>
       </c>
       <c r="C125">
-        <v>6752862.8115661</v>
+        <v>6752862.811566101</v>
       </c>
       <c r="D125">
         <v>11126854.10058199</v>
@@ -2496,13 +2496,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3744388.710975664</v>
+        <v>3744388.710975662</v>
       </c>
       <c r="C126">
-        <v>6196544.679039938</v>
+        <v>6196544.679039932</v>
       </c>
       <c r="D126">
-        <v>8329835.600530772</v>
+        <v>8329835.600530771</v>
       </c>
       <c r="E126">
         <v>8774737.228725212</v>
@@ -2513,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>5280055.637708879</v>
+        <v>5280055.637708875</v>
       </c>
       <c r="C127">
         <v>10238345.15306479</v>
       </c>
       <c r="D127">
-        <v>17180241.24532565</v>
+        <v>17180241.24532566</v>
       </c>
       <c r="E127">
-        <v>24184097.99591425</v>
+        <v>24184097.99591426</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2530,13 +2530,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>990758.5942242363</v>
+        <v>990758.594224236</v>
       </c>
       <c r="C128">
-        <v>1858435.615483219</v>
+        <v>1858435.615483221</v>
       </c>
       <c r="D128">
-        <v>3092900.76843502</v>
+        <v>3092900.768435019</v>
       </c>
       <c r="E128">
         <v>4300828.39202739</v>
@@ -2547,10 +2547,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>6412409.790395752</v>
+        <v>6412409.79039575</v>
       </c>
       <c r="C129">
-        <v>11197074.58328639</v>
+        <v>11197074.58328641</v>
       </c>
       <c r="D129">
         <v>17573299.82065352</v>
@@ -2567,10 +2567,10 @@
         <v>1693052.825221688</v>
       </c>
       <c r="C130">
-        <v>3787134.541798288</v>
+        <v>3787134.541798291</v>
       </c>
       <c r="D130">
-        <v>7298552.927959238</v>
+        <v>7298552.927959242</v>
       </c>
       <c r="E130">
         <v>11646182.95343377</v>
@@ -2581,10 +2581,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>5438290.893136332</v>
+        <v>5438290.893136333</v>
       </c>
       <c r="C131">
-        <v>8880177.54628564</v>
+        <v>8880177.546285648</v>
       </c>
       <c r="D131">
         <v>12588329.82070034</v>
@@ -2601,13 +2601,13 @@
         <v>11774412.82995083</v>
       </c>
       <c r="C132">
-        <v>22592216.40452082</v>
+        <v>22592216.40452084</v>
       </c>
       <c r="D132">
-        <v>36425805.43862225</v>
+        <v>36425805.43862227</v>
       </c>
       <c r="E132">
-        <v>49278998.01938022</v>
+        <v>49278998.01938023</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,10 +2615,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>5592204.786338303</v>
+        <v>5592204.786338304</v>
       </c>
       <c r="C133">
-        <v>9750783.188078351</v>
+        <v>9750783.188078359</v>
       </c>
       <c r="D133">
         <v>14931901.86178817</v>
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3755277.995972029</v>
+        <v>3755277.995972027</v>
       </c>
       <c r="C134">
         <v>10223898.34774982</v>
@@ -2649,10 +2649,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>5862129.57617721</v>
+        <v>5862129.576177212</v>
       </c>
       <c r="C135">
-        <v>9642359.032100931</v>
+        <v>9642359.032100946</v>
       </c>
       <c r="D135">
         <v>15478998.47543561</v>
@@ -2669,10 +2669,10 @@
         <v>7232774.715155018</v>
       </c>
       <c r="C136">
-        <v>15551011.66055607</v>
+        <v>15551011.66055608</v>
       </c>
       <c r="D136">
-        <v>29679317.81718812</v>
+        <v>29679317.81718814</v>
       </c>
       <c r="E136">
         <v>46873529.57726533</v>
@@ -2683,13 +2683,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1913826.986484317</v>
+        <v>1913826.986484318</v>
       </c>
       <c r="C137">
-        <v>3526595.540508617</v>
+        <v>3526595.54050862</v>
       </c>
       <c r="D137">
-        <v>5763617.522534301</v>
+        <v>5763617.522534303</v>
       </c>
       <c r="E137">
         <v>7985860.594645204</v>
@@ -2703,10 +2703,10 @@
         <v>4796994.914174978</v>
       </c>
       <c r="C138">
-        <v>8412842.373743448</v>
+        <v>8412842.373743454</v>
       </c>
       <c r="D138">
-        <v>13315943.93137235</v>
+        <v>13315943.93137236</v>
       </c>
       <c r="E138">
         <v>17707777.84030024</v>
@@ -2717,13 +2717,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>24406115.88260166</v>
+        <v>24406115.88260164</v>
       </c>
       <c r="C139">
-        <v>55178321.70202293</v>
+        <v>55178321.70202296</v>
       </c>
       <c r="D139">
-        <v>95475844.56681956</v>
+        <v>95475844.56681959</v>
       </c>
       <c r="E139">
         <v>135228588.1036216</v>
@@ -2734,13 +2734,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7960850.976449172</v>
+        <v>7960850.976449176</v>
       </c>
       <c r="C140">
-        <v>18758520.82593735</v>
+        <v>18758520.82593737</v>
       </c>
       <c r="D140">
-        <v>33000332.63598402</v>
+        <v>33000332.63598404</v>
       </c>
       <c r="E140">
         <v>47562719.22595564</v>
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>8637149.20011181</v>
+        <v>8637149.200111803</v>
       </c>
       <c r="C141">
-        <v>18746209.21775106</v>
+        <v>18746209.21775108</v>
       </c>
       <c r="D141">
-        <v>32643582.71499321</v>
+        <v>32643582.71499322</v>
       </c>
       <c r="E141">
-        <v>46926662.06803032</v>
+        <v>46926662.06803033</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,13 +2768,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1381943.87201789</v>
+        <v>1381943.872017889</v>
       </c>
       <c r="C142">
-        <v>2968856.663444738</v>
+        <v>2968856.663444741</v>
       </c>
       <c r="D142">
-        <v>6170433.318077984</v>
+        <v>6170433.318077986</v>
       </c>
       <c r="E142">
         <v>10408871.43838011</v>
@@ -2788,10 +2788,10 @@
         <v>6853528.741803</v>
       </c>
       <c r="C143">
-        <v>16267111.30579031</v>
+        <v>16267111.30579032</v>
       </c>
       <c r="D143">
-        <v>32854476.78835669</v>
+        <v>32854476.78835668</v>
       </c>
       <c r="E143">
         <v>53734978.05289638</v>
@@ -2805,10 +2805,10 @@
         <v>2566864.697304494</v>
       </c>
       <c r="C144">
-        <v>5261599.344190937</v>
+        <v>5261599.344190939</v>
       </c>
       <c r="D144">
-        <v>10681085.04642049</v>
+        <v>10681085.04642048</v>
       </c>
       <c r="E144">
         <v>17911659.35096546</v>
@@ -2822,10 +2822,10 @@
         <v>3157243.577684528</v>
       </c>
       <c r="C145">
-        <v>7936245.677487995</v>
+        <v>7936245.677488</v>
       </c>
       <c r="D145">
-        <v>20348143.03147194</v>
+        <v>20348143.03147193</v>
       </c>
       <c r="E145">
         <v>39230902.67601703</v>
@@ -2836,13 +2836,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>5339087.979986163</v>
+        <v>5339087.979986161</v>
       </c>
       <c r="C146">
-        <v>12451518.62373757</v>
+        <v>12451518.62373758</v>
       </c>
       <c r="D146">
-        <v>21228546.18334946</v>
+        <v>21228546.18334945</v>
       </c>
       <c r="E146">
         <v>29747396.37818945</v>
@@ -2853,13 +2853,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>4622502.758474655</v>
+        <v>4622502.758474654</v>
       </c>
       <c r="C147">
         <v>9347017.379821448</v>
       </c>
       <c r="D147">
-        <v>19136294.59303245</v>
+        <v>19136294.59303246</v>
       </c>
       <c r="E147">
         <v>32649282.16919054</v>
@@ -2870,10 +2870,10 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>3917946.895614599</v>
+        <v>3917946.8956146</v>
       </c>
       <c r="C148">
-        <v>7449871.25359844</v>
+        <v>7449871.253598437</v>
       </c>
       <c r="D148">
         <v>12643558.54516079</v>
@@ -2890,13 +2890,13 @@
         <v>2289841.93628736</v>
       </c>
       <c r="C149">
-        <v>4012114.651003684</v>
+        <v>4012114.651003683</v>
       </c>
       <c r="D149">
         <v>6623906.6254265</v>
       </c>
       <c r="E149">
-        <v>9155097.194791298</v>
+        <v>9155097.194791293</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>1226701.0372968</v>
       </c>
       <c r="C150">
-        <v>2334321.251493053</v>
+        <v>2334321.251493052</v>
       </c>
       <c r="D150">
         <v>4034561.308214323</v>
       </c>
       <c r="E150">
-        <v>5803677.68598377</v>
+        <v>5803677.685983766</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2921,7 +2921,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>9650048.160068162</v>
+        <v>9650048.16006816</v>
       </c>
       <c r="C151">
         <v>16267301.22134221</v>
@@ -2930,7 +2930,7 @@
         <v>23123455.85603433</v>
       </c>
       <c r="E151">
-        <v>25176517.28567607</v>
+        <v>25176517.28567605</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>2453402.0745936</v>
       </c>
       <c r="C152">
-        <v>4923958.889868158</v>
+        <v>4923958.889868157</v>
       </c>
       <c r="D152">
-        <v>8611078.613054451</v>
+        <v>8611078.613054449</v>
       </c>
       <c r="E152">
-        <v>12343032.82512041</v>
+        <v>12343032.8251204</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2958,13 +2958,13 @@
         <v>18133154.59693138</v>
       </c>
       <c r="C153">
-        <v>29605895.43479844</v>
+        <v>29605895.43479845</v>
       </c>
       <c r="D153">
-        <v>45365548.74856491</v>
+        <v>45365548.74856487</v>
       </c>
       <c r="E153">
-        <v>56917451.39596778</v>
+        <v>56917451.39596776</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2975,10 +2975,10 @@
         <v>3635663.624042283</v>
       </c>
       <c r="C154">
-        <v>6989190.168957721</v>
+        <v>6989190.168957723</v>
       </c>
       <c r="D154">
-        <v>12008527.60991424</v>
+        <v>12008527.60991423</v>
       </c>
       <c r="E154">
         <v>16990283.99879635</v>
@@ -2989,16 +2989,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>8554367.383127464</v>
+        <v>8554367.383127462</v>
       </c>
       <c r="C155">
-        <v>14493407.12930547</v>
+        <v>14493407.12930546</v>
       </c>
       <c r="D155">
-        <v>23820981.4256921</v>
+        <v>23820981.42569208</v>
       </c>
       <c r="E155">
-        <v>32320377.8654606</v>
+        <v>32320377.86546059</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,10 +3009,10 @@
         <v>2844824.501830761</v>
       </c>
       <c r="C156">
-        <v>5352481.289959335</v>
+        <v>5352481.289959331</v>
       </c>
       <c r="D156">
-        <v>9250866.573084312</v>
+        <v>9250866.573084302</v>
       </c>
       <c r="E156">
         <v>13214735.77750359</v>
@@ -3023,13 +3023,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2992555.061384291</v>
+        <v>2992555.06138429</v>
       </c>
       <c r="C157">
-        <v>5307345.89121607</v>
+        <v>5307345.891216069</v>
       </c>
       <c r="D157">
-        <v>8992460.389273591</v>
+        <v>8992460.389273588</v>
       </c>
       <c r="E157">
         <v>12788700.61306084</v>
@@ -3040,16 +3040,16 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>8169208.416555157</v>
+        <v>8169208.41655516</v>
       </c>
       <c r="C158">
         <v>15218972.09773743</v>
       </c>
       <c r="D158">
-        <v>25472985.71851825</v>
+        <v>25472985.71851824</v>
       </c>
       <c r="E158">
-        <v>34638171.17132244</v>
+        <v>34638171.17132245</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3057,16 +3057,16 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7095253.516978787</v>
+        <v>7095253.516978786</v>
       </c>
       <c r="C159">
         <v>14124858.0567909</v>
       </c>
       <c r="D159">
-        <v>27296626.77705667</v>
+        <v>27296626.77705668</v>
       </c>
       <c r="E159">
-        <v>43845086.79685807</v>
+        <v>43845086.79685805</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>1229625.890329495</v>
       </c>
       <c r="C160">
-        <v>2451382.193725477</v>
+        <v>2451382.193725476</v>
       </c>
       <c r="D160">
-        <v>4603995.196239886</v>
+        <v>4603995.196239881</v>
       </c>
       <c r="E160">
-        <v>7104322.139763944</v>
+        <v>7104322.139763942</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>6060595.820887289</v>
+        <v>6060595.820887287</v>
       </c>
       <c r="C161">
-        <v>12254787.46365963</v>
+        <v>12254787.46365962</v>
       </c>
       <c r="D161">
         <v>22607931.56382912</v>
       </c>
       <c r="E161">
-        <v>34217062.07659037</v>
+        <v>34217062.07659036</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3108,13 +3108,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>3616068.408577101</v>
+        <v>3616068.408577102</v>
       </c>
       <c r="C162">
         <v>9017102.054619972</v>
       </c>
       <c r="D162">
-        <v>19339953.81375032</v>
+        <v>19339953.81375031</v>
       </c>
       <c r="E162">
         <v>33214340.65384507</v>
@@ -3128,13 +3128,13 @@
         <v>4202024.708564764</v>
       </c>
       <c r="C163">
-        <v>8132416.13065228</v>
+        <v>8132416.130652282</v>
       </c>
       <c r="D163">
         <v>13966704.18450323</v>
       </c>
       <c r="E163">
-        <v>20620840.62232382</v>
+        <v>20620840.62232381</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>550966.6381958072</v>
+        <v>550966.6381958069</v>
       </c>
       <c r="C164">
-        <v>1366705.87701695</v>
+        <v>1366705.877016949</v>
       </c>
       <c r="D164">
-        <v>2843716.866377623</v>
+        <v>2843716.866377622</v>
       </c>
       <c r="E164">
-        <v>4728714.813770705</v>
+        <v>4728714.813770702</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,10 +3159,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4624139.300068074</v>
+        <v>4624139.300068075</v>
       </c>
       <c r="C165">
-        <v>8345757.289165678</v>
+        <v>8345757.289165679</v>
       </c>
       <c r="D165">
         <v>13737958.67055747</v>
@@ -3179,10 +3179,10 @@
         <v>1744192.893885326</v>
       </c>
       <c r="C166">
-        <v>3810019.632010418</v>
+        <v>3810019.632010419</v>
       </c>
       <c r="D166">
-        <v>8134317.633882713</v>
+        <v>8134317.633882714</v>
       </c>
       <c r="E166">
         <v>14052607.54448041</v>
@@ -3193,13 +3193,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>8542649.554130562</v>
+        <v>8542649.55413056</v>
       </c>
       <c r="C167">
         <v>16534334.42501205</v>
       </c>
       <c r="D167">
-        <v>30610416.32490707</v>
+        <v>30610416.32490706</v>
       </c>
       <c r="E167">
         <v>47866979.41619813</v>
@@ -3210,10 +3210,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>509507.382869792</v>
+        <v>509507.3828697921</v>
       </c>
       <c r="C168">
-        <v>758717.3005285969</v>
+        <v>758717.3005285963</v>
       </c>
       <c r="D168">
         <v>1042213.828119418</v>
@@ -3230,13 +3230,13 @@
         <v>3773822.970475426</v>
       </c>
       <c r="C169">
-        <v>7651416.649755539</v>
+        <v>7651416.649755542</v>
       </c>
       <c r="D169">
         <v>13407110.38391442</v>
       </c>
       <c r="E169">
-        <v>19794137.43848618</v>
+        <v>19794137.43848619</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3244,16 +3244,16 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>8232442.572367902</v>
+        <v>8232442.572367908</v>
       </c>
       <c r="C170">
         <v>17662762.14261771</v>
       </c>
       <c r="D170">
-        <v>32533474.63530813</v>
+        <v>32533474.63530816</v>
       </c>
       <c r="E170">
-        <v>49460262.3621547</v>
+        <v>49460262.36215466</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3264,7 +3264,7 @@
         <v>3260377.668369926</v>
       </c>
       <c r="C171">
-        <v>6112338.588023103</v>
+        <v>6112338.588023106</v>
       </c>
       <c r="D171">
         <v>11511155.38012854</v>
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2982769.047959385</v>
+        <v>2982769.047959387</v>
       </c>
       <c r="C172">
         <v>5236489.482281957</v>
       </c>
       <c r="D172">
-        <v>7936593.610629604</v>
+        <v>7936593.610629611</v>
       </c>
       <c r="E172">
-        <v>9840261.62178994</v>
+        <v>9840261.621789932</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7421129.391322949</v>
+        <v>7421129.391322954</v>
       </c>
       <c r="C173">
         <v>14462685.23677874</v>
       </c>
       <c r="D173">
-        <v>27089364.96851262</v>
+        <v>27089364.96851264</v>
       </c>
       <c r="E173">
-        <v>42554815.6100214</v>
+        <v>42554815.61002138</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3312,7 +3312,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>14967319.72144216</v>
+        <v>14967319.72144214</v>
       </c>
       <c r="C174">
         <v>29708979.03072809</v>
@@ -3321,7 +3321,7 @@
         <v>55491127.63923553</v>
       </c>
       <c r="E174">
-        <v>86675968.10275465</v>
+        <v>86675968.10275462</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3335,7 +3335,7 @@
         <v>123048907.9451557</v>
       </c>
       <c r="D175">
-        <v>174722064.1074995</v>
+        <v>174722064.1074996</v>
       </c>
       <c r="E175">
         <v>204613609.0982392</v>
@@ -3349,13 +3349,13 @@
         <v>8188301.466920258</v>
       </c>
       <c r="C176">
-        <v>14834135.76358202</v>
+        <v>14834135.76358203</v>
       </c>
       <c r="D176">
         <v>24516371.19495126</v>
       </c>
       <c r="E176">
-        <v>34073475.08505082</v>
+        <v>34073475.08505084</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>5655045.700591804</v>
       </c>
       <c r="C177">
-        <v>12865002.6976198</v>
+        <v>12865002.69761981</v>
       </c>
       <c r="D177">
         <v>26014593.87908717</v>
       </c>
       <c r="E177">
-        <v>42658220.75582986</v>
+        <v>42658220.75582989</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,13 +3380,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>2258611.307426601</v>
+        <v>2258611.307426602</v>
       </c>
       <c r="C178">
-        <v>4837394.687674155</v>
+        <v>4837394.687674153</v>
       </c>
       <c r="D178">
-        <v>9225805.953441003</v>
+        <v>9225805.953441005</v>
       </c>
       <c r="E178">
         <v>14608545.09153946</v>
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>9346762.483028127</v>
+        <v>9346762.483028132</v>
       </c>
       <c r="C179">
         <v>16674220.58588432</v>
       </c>
       <c r="D179">
-        <v>30045276.2296868</v>
+        <v>30045276.22968681</v>
       </c>
       <c r="E179">
-        <v>44612525.0412086</v>
+        <v>44612525.04120857</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3423,7 +3423,7 @@
         <v>1937585.461429402</v>
       </c>
       <c r="E180">
-        <v>2500426.04950497</v>
+        <v>2500426.049504969</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3440,7 +3440,7 @@
         <v>69199.48076533577</v>
       </c>
       <c r="E181">
-        <v>89300.9303394632</v>
+        <v>89300.93033946319</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3451,13 +3451,13 @@
         <v>36455687.84563607</v>
       </c>
       <c r="C182">
-        <v>56482053.29388837</v>
+        <v>56482053.29388842</v>
       </c>
       <c r="D182">
-        <v>85700924.12286766</v>
+        <v>85700924.12286764</v>
       </c>
       <c r="E182">
-        <v>105959145.0940953</v>
+        <v>105959145.0940954</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,16 +3465,16 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1938615.39229109</v>
+        <v>1938615.392291089</v>
       </c>
       <c r="C183">
-        <v>2604295.730447871</v>
+        <v>2604295.730447872</v>
       </c>
       <c r="D183">
         <v>3361291.236295783</v>
       </c>
       <c r="E183">
-        <v>3176700.245363284</v>
+        <v>3176700.245363285</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>457843.3120074641</v>
+        <v>457843.3120074644</v>
       </c>
       <c r="C184">
-        <v>735735.4734881812</v>
+        <v>735735.4734881815</v>
       </c>
       <c r="D184">
         <v>923784.3556474014</v>
       </c>
       <c r="E184">
-        <v>784777.1384587889</v>
+        <v>784777.1384587886</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,7 +3499,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>5906178.724896287</v>
+        <v>5906178.724896291</v>
       </c>
       <c r="C185">
         <v>11403899.83906681</v>
@@ -3508,7 +3508,7 @@
         <v>19663409.85592326</v>
       </c>
       <c r="E185">
-        <v>28600766.82383142</v>
+        <v>28600766.82383141</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3516,10 +3516,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2501574.135676402</v>
+        <v>2501574.135676401</v>
       </c>
       <c r="C186">
-        <v>5367015.27819961</v>
+        <v>5367015.278199609</v>
       </c>
       <c r="D186">
         <v>10092797.07045392</v>
@@ -3533,10 +3533,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1017096.058770733</v>
+        <v>1017096.058770732</v>
       </c>
       <c r="C187">
-        <v>2123057.672166199</v>
+        <v>2123057.672166198</v>
       </c>
       <c r="D187">
         <v>4128827.46509392</v>
@@ -3553,13 +3553,13 @@
         <v>3024420.200007049</v>
       </c>
       <c r="C188">
-        <v>4777397.493715701</v>
+        <v>4777397.493715703</v>
       </c>
       <c r="D188">
-        <v>7029292.501590879</v>
+        <v>7029292.501590881</v>
       </c>
       <c r="E188">
-        <v>8236384.287226785</v>
+        <v>8236384.287226791</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3570,13 +3570,13 @@
         <v>41754405.49506135</v>
       </c>
       <c r="C189">
-        <v>73564153.27721575</v>
+        <v>73564153.27721579</v>
       </c>
       <c r="D189">
         <v>122948716.118735</v>
       </c>
       <c r="E189">
-        <v>169360651.9061008</v>
+        <v>169360651.9061009</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3587,13 +3587,13 @@
         <v>13337910.66621814</v>
       </c>
       <c r="C190">
-        <v>27188441.02114627</v>
+        <v>27188441.02114628</v>
       </c>
       <c r="D190">
-        <v>46137719.87407831</v>
+        <v>46137719.87407833</v>
       </c>
       <c r="E190">
-        <v>65719482.95849705</v>
+        <v>65719482.9584971</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,7 +3601,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>608768.5346475641</v>
+        <v>608768.5346475643</v>
       </c>
       <c r="C191">
         <v>1243252.67128224</v>
@@ -3610,7 +3610,7 @@
         <v>2261728.92856656</v>
       </c>
       <c r="E191">
-        <v>3326167.876199251</v>
+        <v>3326167.87619925</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,10 +3618,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>2571525.884439211</v>
+        <v>2571525.88443921</v>
       </c>
       <c r="C192">
-        <v>5001779.939510197</v>
+        <v>5001779.939510196</v>
       </c>
       <c r="D192">
         <v>8750649.25437816</v>
@@ -3635,13 +3635,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7007395.546383233</v>
+        <v>7007395.54638323</v>
       </c>
       <c r="C193">
         <v>13507479.37151799</v>
       </c>
       <c r="D193">
-        <v>23945178.00315186</v>
+        <v>23945178.00315189</v>
       </c>
       <c r="E193">
         <v>34736592.9435244</v>
@@ -3652,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>4279516.565826903</v>
+        <v>4279516.565826901</v>
       </c>
       <c r="C194">
         <v>8398881.404084904</v>
       </c>
       <c r="D194">
-        <v>15692885.01901478</v>
+        <v>15692885.0190148</v>
       </c>
       <c r="E194">
         <v>24648946.00285443</v>
@@ -3672,13 +3672,13 @@
         <v>11603863.8275843</v>
       </c>
       <c r="C195">
-        <v>27395589.49883736</v>
+        <v>27395589.49883737</v>
       </c>
       <c r="D195">
-        <v>50175094.92161911</v>
+        <v>50175094.92161912</v>
       </c>
       <c r="E195">
-        <v>76023501.31241596</v>
+        <v>76023501.31241599</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>2615526.5208789</v>
       </c>
       <c r="C196">
-        <v>5393717.508467483</v>
+        <v>5393717.508467487</v>
       </c>
       <c r="D196">
         <v>10626784.16319735</v>
       </c>
       <c r="E196">
-        <v>17190213.60467678</v>
+        <v>17190213.60467677</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3723,13 +3723,13 @@
         <v>1763043.222821956</v>
       </c>
       <c r="C198">
-        <v>3400087.857902306</v>
+        <v>3400087.857902308</v>
       </c>
       <c r="D198">
-        <v>5731308.22916449</v>
+        <v>5731308.229164488</v>
       </c>
       <c r="E198">
-        <v>7810422.765996464</v>
+        <v>7810422.765996465</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3737,13 +3737,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>4458232.874242485</v>
+        <v>4458232.874242483</v>
       </c>
       <c r="C199">
-        <v>7825073.640820878</v>
+        <v>7825073.640820875</v>
       </c>
       <c r="D199">
-        <v>12385154.99328199</v>
+        <v>12385154.99328198</v>
       </c>
       <c r="E199">
         <v>15833775.55529771</v>
@@ -3754,10 +3754,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>3494290.631163029</v>
+        <v>3494290.631163027</v>
       </c>
       <c r="C200">
-        <v>7528989.773330358</v>
+        <v>7528989.773330355</v>
       </c>
       <c r="D200">
         <v>13596746.24262479</v>
@@ -3771,13 +3771,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>3929184.942135202</v>
+        <v>3929184.942135206</v>
       </c>
       <c r="C201">
         <v>8462456.445394425</v>
       </c>
       <c r="D201">
-        <v>14426557.73298041</v>
+        <v>14426557.73298042</v>
       </c>
       <c r="E201">
         <v>19806649.95784572</v>
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>30826214.4254129</v>
+        <v>30826214.42541289</v>
       </c>
       <c r="C202">
         <v>75290809.55648051</v>
       </c>
       <c r="D202">
-        <v>168488736.03126</v>
+        <v>168488736.0312601</v>
       </c>
       <c r="E202">
         <v>291627678.2349861</v>
@@ -3811,7 +3811,7 @@
         <v>19147488.74331584</v>
       </c>
       <c r="D203">
-        <v>33751677.33110724</v>
+        <v>33751677.33110725</v>
       </c>
       <c r="E203">
         <v>49459680.65012269</v>
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>3695048.426224445</v>
+        <v>3695048.426224443</v>
       </c>
       <c r="C204">
-        <v>6912013.880026399</v>
+        <v>6912013.880026402</v>
       </c>
       <c r="D204">
-        <v>11269754.18450893</v>
+        <v>11269754.18450894</v>
       </c>
       <c r="E204">
-        <v>14900743.86799221</v>
+        <v>14900743.8679922</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,10 +3839,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>468404.8779492844</v>
+        <v>468404.8779492842</v>
       </c>
       <c r="C205">
-        <v>959843.469035518</v>
+        <v>959843.4690355181</v>
       </c>
       <c r="D205">
         <v>1682562.156889842</v>
@@ -3862,7 +3862,7 @@
         <v>25707198.9715339</v>
       </c>
       <c r="D206">
-        <v>38559924.39795643</v>
+        <v>38559924.39795644</v>
       </c>
       <c r="E206">
         <v>44774973.25441141</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1931288.795510065</v>
+        <v>1931288.795510064</v>
       </c>
       <c r="C207">
-        <v>3523636.871197385</v>
+        <v>3523636.871197384</v>
       </c>
       <c r="D207">
-        <v>5541381.284006794</v>
+        <v>5541381.284006796</v>
       </c>
       <c r="E207">
-        <v>6891997.882534701</v>
+        <v>6891997.882534698</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1760378.282633068</v>
+        <v>1760378.282633067</v>
       </c>
       <c r="C208">
-        <v>3366331.653733216</v>
+        <v>3366331.653733215</v>
       </c>
       <c r="D208">
-        <v>5646931.403702162</v>
+        <v>5646931.403702163</v>
       </c>
       <c r="E208">
-        <v>7538122.684022329</v>
+        <v>7538122.684022326</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3910,10 +3910,10 @@
         <v>11727783.60396142</v>
       </c>
       <c r="C209">
-        <v>23027952.6407276</v>
+        <v>23027952.64072759</v>
       </c>
       <c r="D209">
-        <v>40084255.23067213</v>
+        <v>40084255.23067214</v>
       </c>
       <c r="E209">
         <v>56557860.95294073</v>
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1401466.205591375</v>
+        <v>1401466.205591374</v>
       </c>
       <c r="C210">
-        <v>3146104.34928338</v>
+        <v>3146104.349283379</v>
       </c>
       <c r="D210">
-        <v>5910806.70294058</v>
+        <v>5910806.702940582</v>
       </c>
       <c r="E210">
-        <v>8973955.576217059</v>
+        <v>8973955.576217055</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,16 +3941,16 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>25637149.16956419</v>
+        <v>25637149.16956418</v>
       </c>
       <c r="C211">
-        <v>40098453.84269024</v>
+        <v>40098453.84269021</v>
       </c>
       <c r="D211">
         <v>60476964.22807283</v>
       </c>
       <c r="E211">
-        <v>73551283.8535682</v>
+        <v>73551283.85356823</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3958,7 +3958,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>9309200.342364907</v>
+        <v>9309200.342364902</v>
       </c>
       <c r="C212">
         <v>16455691.61225384</v>
@@ -3967,7 +3967,7 @@
         <v>27168560.81298119</v>
       </c>
       <c r="E212">
-        <v>36575608.75024461</v>
+        <v>36575608.75024462</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3975,16 +3975,16 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1589467.769756071</v>
+        <v>1589467.76975607</v>
       </c>
       <c r="C213">
-        <v>3114643.305790546</v>
+        <v>3114643.305790545</v>
       </c>
       <c r="D213">
-        <v>5699706.463549846</v>
+        <v>5699706.463549847</v>
       </c>
       <c r="E213">
-        <v>8614997.353168376</v>
+        <v>8614997.353168372</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>1123876.460351456</v>
       </c>
       <c r="C214">
-        <v>2126413.33854977</v>
+        <v>2126413.338549769</v>
       </c>
       <c r="D214">
-        <v>3594015.110428385</v>
+        <v>3594015.110428386</v>
       </c>
       <c r="E214">
-        <v>4757199.086134408</v>
+        <v>4757199.086134406</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>936563.716959547</v>
+        <v>936563.7169595466</v>
       </c>
       <c r="C215">
-        <v>1896530.815463309</v>
+        <v>1896530.815463308</v>
       </c>
       <c r="D215">
-        <v>3692481.277837382</v>
+        <v>3692481.277837383</v>
       </c>
       <c r="E215">
-        <v>5844558.877250844</v>
+        <v>5844558.877250841</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,7 +4026,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>3523611.006460465</v>
+        <v>3523611.006460464</v>
       </c>
       <c r="C216">
         <v>6736327.498461064</v>
@@ -4035,7 +4035,7 @@
         <v>11228495.46894205</v>
       </c>
       <c r="E216">
-        <v>15044999.18752813</v>
+        <v>15044999.18752811</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4043,16 +4043,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1416873.118154789</v>
+        <v>1416873.11815479</v>
       </c>
       <c r="C217">
         <v>3490170.720557744</v>
       </c>
       <c r="D217">
-        <v>8994875.191065356</v>
+        <v>8994875.191065365</v>
       </c>
       <c r="E217">
-        <v>17524862.41745103</v>
+        <v>17524862.41745104</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,10 +4063,10 @@
         <v>2894102.601681212</v>
       </c>
       <c r="C218">
-        <v>5129619.650000477</v>
+        <v>5129619.650000478</v>
       </c>
       <c r="D218">
-        <v>8361537.099464786</v>
+        <v>8361537.099464791</v>
       </c>
       <c r="E218">
         <v>10760617.69973049</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2606385.952855426</v>
+        <v>2606385.952855425</v>
       </c>
       <c r="C219">
-        <v>5189281.904347909</v>
+        <v>5189281.904347911</v>
       </c>
       <c r="D219">
-        <v>8668988.454763705</v>
+        <v>8668988.454763701</v>
       </c>
       <c r="E219">
         <v>11229860.49010035</v>
@@ -4094,13 +4094,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2947838.900469334</v>
+        <v>2947838.900469335</v>
       </c>
       <c r="C220">
-        <v>5644295.416643638</v>
+        <v>5644295.416643635</v>
       </c>
       <c r="D220">
-        <v>9656283.942735057</v>
+        <v>9656283.94273505</v>
       </c>
       <c r="E220">
         <v>13399958.48094004</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1988377.64477293</v>
+        <v>1988377.644772929</v>
       </c>
       <c r="C221">
-        <v>3717412.409628034</v>
+        <v>3717412.409628035</v>
       </c>
       <c r="D221">
-        <v>5976842.062949466</v>
+        <v>5976842.062949467</v>
       </c>
       <c r="E221">
-        <v>7520686.620470036</v>
+        <v>7520686.620470035</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,13 +4128,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1990010.896436913</v>
+        <v>1990010.896436912</v>
       </c>
       <c r="C222">
-        <v>4375276.899744315</v>
+        <v>4375276.899744317</v>
       </c>
       <c r="D222">
-        <v>9013451.572171533</v>
+        <v>9013451.57217153</v>
       </c>
       <c r="E222">
         <v>14869884.23516736</v>
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>2511714.14829946</v>
+        <v>2511714.148299461</v>
       </c>
       <c r="C223">
         <v>4083266.877054585</v>
       </c>
       <c r="D223">
-        <v>5766686.144542995</v>
+        <v>5766686.144542993</v>
       </c>
       <c r="E223">
-        <v>6116450.057779478</v>
+        <v>6116450.057779474</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>1549712.762028859</v>
       </c>
       <c r="C224">
-        <v>2908454.737490859</v>
+        <v>2908454.737490857</v>
       </c>
       <c r="D224">
         <v>5062936.052263347</v>
       </c>
       <c r="E224">
-        <v>7090222.706386959</v>
+        <v>7090222.706386964</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,16 +4179,16 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1647569.84165345</v>
+        <v>1647569.841653449</v>
       </c>
       <c r="C225">
-        <v>2895498.830317338</v>
+        <v>2895498.830317336</v>
       </c>
       <c r="D225">
-        <v>4658475.698635171</v>
+        <v>4658475.698635173</v>
       </c>
       <c r="E225">
-        <v>5824051.938626334</v>
+        <v>5824051.938626336</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4202,10 +4202,10 @@
         <v>2792763.647884534</v>
       </c>
       <c r="D226">
-        <v>4978369.613810024</v>
+        <v>4978369.613810023</v>
       </c>
       <c r="E226">
-        <v>7110722.958780777</v>
+        <v>7110722.958780775</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1561133.280224005</v>
+        <v>1561133.280224004</v>
       </c>
       <c r="C227">
-        <v>2875579.472389701</v>
+        <v>2875579.472389699</v>
       </c>
       <c r="D227">
-        <v>5395501.073815559</v>
+        <v>5395501.073815563</v>
       </c>
       <c r="E227">
-        <v>8381633.621664433</v>
+        <v>8381633.621664436</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4233,13 +4233,13 @@
         <v>15246913.24556685</v>
       </c>
       <c r="C228">
-        <v>23747252.80100034</v>
+        <v>23747252.80100033</v>
       </c>
       <c r="D228">
-        <v>33883988.64729008</v>
+        <v>33883988.64729007</v>
       </c>
       <c r="E228">
-        <v>35638577.67352528</v>
+        <v>35638577.67352527</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,16 +4247,16 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>2851504.295878833</v>
+        <v>2851504.295878834</v>
       </c>
       <c r="C229">
-        <v>5827551.76133986</v>
+        <v>5827551.761339857</v>
       </c>
       <c r="D229">
-        <v>9776987.492019245</v>
+        <v>9776987.49201924</v>
       </c>
       <c r="E229">
-        <v>12998762.11923524</v>
+        <v>12998762.11923525</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4264,13 +4264,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1936049.343285795</v>
+        <v>1936049.343285794</v>
       </c>
       <c r="C230">
-        <v>3539121.24281195</v>
+        <v>3539121.242811952</v>
       </c>
       <c r="D230">
-        <v>5757620.728518158</v>
+        <v>5757620.728518155</v>
       </c>
       <c r="E230">
         <v>7447306.200218759</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>6506556.115386823</v>
+        <v>6506556.115386824</v>
       </c>
       <c r="C231">
         <v>16509241.06767521</v>
@@ -4290,7 +4290,7 @@
         <v>30557559.57053315</v>
       </c>
       <c r="E231">
-        <v>44657810.62378394</v>
+        <v>44657810.62378392</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>1252168.637278621</v>
       </c>
       <c r="C232">
-        <v>2697931.333257667</v>
+        <v>2697931.333257668</v>
       </c>
       <c r="D232">
-        <v>5479035.239890292</v>
+        <v>5479035.239890293</v>
       </c>
       <c r="E232">
-        <v>8905347.443786869</v>
+        <v>8905347.443786874</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>1297315.174546883</v>
       </c>
       <c r="C233">
-        <v>2792824.314056952</v>
+        <v>2792824.314056951</v>
       </c>
       <c r="D233">
         <v>5627285.366485955</v>
       </c>
       <c r="E233">
-        <v>9098618.897133691</v>
+        <v>9098618.897133678</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4332,16 +4332,16 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>8190786.671252963</v>
+        <v>8190786.671252961</v>
       </c>
       <c r="C234">
         <v>15411493.21762451</v>
       </c>
       <c r="D234">
-        <v>25388359.38504069</v>
+        <v>25388359.38504068</v>
       </c>
       <c r="E234">
-        <v>33570753.13498519</v>
+        <v>33570753.13498522</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4349,16 +4349,16 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7318619.571999175</v>
+        <v>7318619.571999174</v>
       </c>
       <c r="C235">
         <v>14589070.14568631</v>
       </c>
       <c r="D235">
-        <v>25984330.2626238</v>
+        <v>25984330.26262379</v>
       </c>
       <c r="E235">
-        <v>37478037.94166993</v>
+        <v>37478037.94166996</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4375,7 +4375,7 @@
         <v>23719640.92780796</v>
       </c>
       <c r="E236">
-        <v>24241113.90269715</v>
+        <v>24241113.90269716</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4383,16 +4383,16 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1612987.882714343</v>
+        <v>1612987.882714344</v>
       </c>
       <c r="C237">
-        <v>3158556.968431685</v>
+        <v>3158556.968431683</v>
       </c>
       <c r="D237">
-        <v>5638111.484467447</v>
+        <v>5638111.48446745</v>
       </c>
       <c r="E237">
-        <v>8077133.529327175</v>
+        <v>8077133.529327173</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>1652964.649648946</v>
       </c>
       <c r="C238">
-        <v>3012511.828217782</v>
+        <v>3012511.82821778</v>
       </c>
       <c r="D238">
-        <v>5348988.133524045</v>
+        <v>5348988.133524049</v>
       </c>
       <c r="E238">
-        <v>7801366.678626126</v>
+        <v>7801366.678626128</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,10 +4420,10 @@
         <v>2529614.51929772</v>
       </c>
       <c r="C239">
-        <v>3627935.676225246</v>
+        <v>3627935.676225245</v>
       </c>
       <c r="D239">
-        <v>5101424.347575557</v>
+        <v>5101424.347575559</v>
       </c>
       <c r="E239">
         <v>5500991.295004846</v>
@@ -4434,10 +4434,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>2294957.658404213</v>
+        <v>2294957.658404212</v>
       </c>
       <c r="C240">
-        <v>4445722.301874915</v>
+        <v>4445722.301874914</v>
       </c>
       <c r="D240">
         <v>8234338.168260768</v>
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>594034.5280623656</v>
+        <v>594034.5280623657</v>
       </c>
       <c r="C241">
         <v>1009363.640409542</v>
       </c>
       <c r="D241">
-        <v>1474972.822358348</v>
+        <v>1474972.822358349</v>
       </c>
       <c r="E241">
         <v>1713689.533879591</v>
@@ -4471,13 +4471,13 @@
         <v>1464168.992969157</v>
       </c>
       <c r="C242">
-        <v>3257161.349388372</v>
+        <v>3257161.349388374</v>
       </c>
       <c r="D242">
-        <v>6395221.007355928</v>
+        <v>6395221.007355929</v>
       </c>
       <c r="E242">
-        <v>10000913.05913569</v>
+        <v>10000913.05913568</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4488,13 +4488,13 @@
         <v>2194885.311151518</v>
       </c>
       <c r="C243">
-        <v>4693026.955982704</v>
+        <v>4693026.955982705</v>
       </c>
       <c r="D243">
-        <v>8166070.316779104</v>
+        <v>8166070.316779109</v>
       </c>
       <c r="E243">
-        <v>11265319.47452006</v>
+        <v>11265319.47452007</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1879920.68233077</v>
+        <v>1879920.682330769</v>
       </c>
       <c r="C244">
-        <v>3540392.771074318</v>
+        <v>3540392.771074319</v>
       </c>
       <c r="D244">
-        <v>6036610.48357896</v>
+        <v>6036610.483578961</v>
       </c>
       <c r="E244">
-        <v>8240752.360727806</v>
+        <v>8240752.360727804</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,13 +4519,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1898123.623819796</v>
+        <v>1898123.623819797</v>
       </c>
       <c r="C245">
-        <v>4355136.018355747</v>
+        <v>4355136.018355749</v>
       </c>
       <c r="D245">
-        <v>8697848.585389944</v>
+        <v>8697848.58538994</v>
       </c>
       <c r="E245">
         <v>13715984.15530911</v>
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>553822.0927141426</v>
+        <v>553822.0927141428</v>
       </c>
       <c r="C246">
-        <v>1594645.258165526</v>
+        <v>1594645.258165527</v>
       </c>
       <c r="D246">
-        <v>4620244.967056798</v>
+        <v>4620244.967056799</v>
       </c>
       <c r="E246">
-        <v>9266296.167656668</v>
+        <v>9266296.167656658</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>553822.0927141426</v>
+        <v>553822.0927141428</v>
       </c>
       <c r="C247">
-        <v>1594645.258165526</v>
+        <v>1594645.258165527</v>
       </c>
       <c r="D247">
-        <v>4620244.967056798</v>
+        <v>4620244.967056799</v>
       </c>
       <c r="E247">
-        <v>9266296.167656668</v>
+        <v>9266296.167656658</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>28204773.04065499</v>
       </c>
       <c r="C248">
-        <v>44204933.82809214</v>
+        <v>44204933.82809213</v>
       </c>
       <c r="D248">
-        <v>63187392.1937692</v>
+        <v>63187392.19376918</v>
       </c>
       <c r="E248">
-        <v>71068698.6080066</v>
+        <v>71068698.60800655</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4590,13 +4590,13 @@
         <v>14518746.82350761</v>
       </c>
       <c r="C249">
-        <v>22993814.69803088</v>
+        <v>22993814.69803087</v>
       </c>
       <c r="D249">
         <v>34423386.44051756</v>
       </c>
       <c r="E249">
-        <v>39437263.27826151</v>
+        <v>39437263.2782615</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4607,10 +4607,10 @@
         <v>10843775.95354087</v>
       </c>
       <c r="C250">
-        <v>21214786.71443613</v>
+        <v>21214786.71443614</v>
       </c>
       <c r="D250">
-        <v>33550368.06490182</v>
+        <v>33550368.06490183</v>
       </c>
       <c r="E250">
         <v>42493884.74411581</v>
@@ -4621,13 +4621,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>6172953.396024985</v>
+        <v>6172953.396024988</v>
       </c>
       <c r="C251">
         <v>12240678.74700932</v>
       </c>
       <c r="D251">
-        <v>20628104.27121778</v>
+        <v>20628104.2712178</v>
       </c>
       <c r="E251">
         <v>28518280.94479566</v>
@@ -4638,13 +4638,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>2471475.881451549</v>
+        <v>2471475.881451548</v>
       </c>
       <c r="C252">
-        <v>5874783.527286626</v>
+        <v>5874783.527286625</v>
       </c>
       <c r="D252">
-        <v>12511719.94537084</v>
+        <v>12511719.94537083</v>
       </c>
       <c r="E252">
         <v>20956329.73575943</v>
@@ -4655,13 +4655,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>318995.6955632589</v>
+        <v>318995.695563259</v>
       </c>
       <c r="C253">
-        <v>530626.4473115093</v>
+        <v>530626.4473115089</v>
       </c>
       <c r="D253">
-        <v>800980.6866184643</v>
+        <v>800980.6866184645</v>
       </c>
       <c r="E253">
         <v>954778.0363813547</v>
@@ -4672,7 +4672,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>6622945.571224924</v>
+        <v>6622945.571224925</v>
       </c>
       <c r="C254">
         <v>11256671.25306978</v>
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>340262.0752674761</v>
+        <v>340262.0752674763</v>
       </c>
       <c r="C255">
-        <v>571443.8663354716</v>
+        <v>571443.8663354712</v>
       </c>
       <c r="D255">
-        <v>800980.6866184643</v>
+        <v>800980.6866184645</v>
       </c>
       <c r="E255">
         <v>781182.0297665629</v>
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>1931380.473212074</v>
+        <v>1931380.473212075</v>
       </c>
       <c r="C256">
-        <v>3509273.46863411</v>
+        <v>3509273.468634113</v>
       </c>
       <c r="D256">
-        <v>5603910.104967529</v>
+        <v>5603910.104967527</v>
       </c>
       <c r="E256">
-        <v>6957292.801884892</v>
+        <v>6957292.801884891</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4723,16 +4723,16 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>701129.7376336307</v>
+        <v>701129.7376336304</v>
       </c>
       <c r="C257">
         <v>1242822.071026365</v>
       </c>
       <c r="D257">
-        <v>1972288.6891334</v>
+        <v>1972288.689133402</v>
       </c>
       <c r="E257">
-        <v>2336399.060707934</v>
+        <v>2336399.060707932</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>594975.4147380709</v>
+        <v>594975.4147380713</v>
       </c>
       <c r="C258">
         <v>1205172.673024362</v>
@@ -4749,7 +4749,7 @@
         <v>2326280.297766876</v>
       </c>
       <c r="E258">
-        <v>3397225.679198945</v>
+        <v>3397225.679198946</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>609849.8001065227</v>
+        <v>609849.8001065231</v>
       </c>
       <c r="C259">
         <v>1265431.30667558</v>
@@ -4766,7 +4766,7 @@
         <v>2270892.67162957</v>
       </c>
       <c r="E259">
-        <v>3165596.655617198</v>
+        <v>3165596.6556172</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4774,16 +4774,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>3666236.460500752</v>
+        <v>3666236.460500755</v>
       </c>
       <c r="C260">
-        <v>9253622.013431631</v>
+        <v>9253622.013431633</v>
       </c>
       <c r="D260">
         <v>22320084.74053315</v>
       </c>
       <c r="E260">
-        <v>35499681.8295016</v>
+        <v>35499681.82950159</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>726908.7545544673</v>
+        <v>726908.7545544674</v>
       </c>
       <c r="C261">
         <v>1540168.478861436</v>
       </c>
       <c r="D261">
-        <v>4134060.776807244</v>
+        <v>4134060.776807245</v>
       </c>
       <c r="E261">
-        <v>6055792.99092872</v>
+        <v>6055792.990928714</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,16 +4808,16 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>604363.8986901988</v>
+        <v>604363.898690199</v>
       </c>
       <c r="C262">
         <v>1578971.906651371</v>
       </c>
       <c r="D262">
-        <v>4489808.34234074</v>
+        <v>4489808.342340743</v>
       </c>
       <c r="E262">
-        <v>8409825.505456304</v>
+        <v>8409825.505456308</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,16 +4825,16 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>926318.7900739763</v>
+        <v>926318.7900739756</v>
       </c>
       <c r="C263">
         <v>1933172.317292248</v>
       </c>
       <c r="D263">
-        <v>4227383.082703143</v>
+        <v>4227383.082703145</v>
       </c>
       <c r="E263">
-        <v>5978768.854464658</v>
+        <v>5978768.854464661</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>379805.227113342</v>
       </c>
       <c r="C264">
-        <v>830732.1946005105</v>
+        <v>830732.1946005106</v>
       </c>
       <c r="D264">
         <v>2049023.712297939</v>
       </c>
       <c r="E264">
-        <v>3241141.065075787</v>
+        <v>3241141.065075788</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4859,16 +4859,16 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>373776.5727147176</v>
+        <v>373776.5727147175</v>
       </c>
       <c r="C265">
-        <v>830732.1946005105</v>
+        <v>830732.1946005106</v>
       </c>
       <c r="D265">
         <v>2049023.712297939</v>
       </c>
       <c r="E265">
-        <v>3304692.850665508</v>
+        <v>3304692.850665509</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,7 +4876,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>367642.3681299139</v>
+        <v>367642.368129914</v>
       </c>
       <c r="C266">
         <v>998461.0224164636</v>
@@ -4885,7 +4885,7 @@
         <v>2476515.219233503</v>
       </c>
       <c r="E266">
-        <v>4334306.389705025</v>
+        <v>4334306.389705027</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4893,16 +4893,16 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>440091.7710995868</v>
+        <v>440091.7710995867</v>
       </c>
       <c r="C267">
-        <v>916670.0078350462</v>
+        <v>916670.0078350463</v>
       </c>
       <c r="D267">
         <v>1973133.945175793</v>
       </c>
       <c r="E267">
-        <v>2478519.637999131</v>
+        <v>2478519.637999132</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,16 +4910,16 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>584869.1128599162</v>
+        <v>584869.1128599163</v>
       </c>
       <c r="C268">
         <v>1443907.948932597</v>
       </c>
       <c r="D268">
-        <v>4398640.666522908</v>
+        <v>4398640.666522909</v>
       </c>
       <c r="E268">
-        <v>7627970.01741983</v>
+        <v>7627970.017419823</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>706020.5719523274</v>
+        <v>706020.5719523275</v>
       </c>
       <c r="C269">
         <v>1540168.478861436</v>
       </c>
       <c r="D269">
-        <v>4167133.263021702</v>
+        <v>4167133.263021703</v>
       </c>
       <c r="E269">
-        <v>6172250.54844658</v>
+        <v>6172250.548446574</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>611464.9751559733</v>
+        <v>611464.9751559737</v>
       </c>
       <c r="C270">
         <v>1466638.521253671</v>
       </c>
       <c r="D270">
-        <v>3832783.158882247</v>
+        <v>3832783.158882248</v>
       </c>
       <c r="E270">
-        <v>6414356.052230422</v>
+        <v>6414356.052230421</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>215952.2236921206</v>
+        <v>215952.2236921203</v>
       </c>
       <c r="C271">
-        <v>427045.5591082361</v>
+        <v>427045.5591082362</v>
       </c>
       <c r="D271">
-        <v>918541.9233069235</v>
+        <v>918541.9233069243</v>
       </c>
       <c r="E271">
         <v>1136631.468311462</v>
@@ -4978,16 +4978,16 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>155686.4868478079</v>
+        <v>155686.4868478077</v>
       </c>
       <c r="C272">
-        <v>357794.9279014951</v>
+        <v>357794.9279014952</v>
       </c>
       <c r="D272">
-        <v>1013563.501580053</v>
+        <v>1013563.501580054</v>
       </c>
       <c r="E272">
-        <v>1786135.16448944</v>
+        <v>1786135.164489441</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -4998,13 +4998,13 @@
         <v>486408.5135424365</v>
       </c>
       <c r="C273">
-        <v>1099442.15639939</v>
+        <v>1099442.156399389</v>
       </c>
       <c r="D273">
-        <v>2674741.240580376</v>
+        <v>2674741.240580377</v>
       </c>
       <c r="E273">
-        <v>4197955.522340253</v>
+        <v>4197955.522340249</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5015,13 +5015,13 @@
         <v>589170.8755584442</v>
       </c>
       <c r="C274">
-        <v>1197899.662942619</v>
+        <v>1197899.662942618</v>
       </c>
       <c r="D274">
         <v>2551291.644861282</v>
       </c>
       <c r="E274">
-        <v>3198442.302735431</v>
+        <v>3198442.302735428</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,16 +5029,16 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1092429.460537202</v>
+        <v>1092429.460537201</v>
       </c>
       <c r="C275">
         <v>2473727.736938372</v>
       </c>
       <c r="D275">
-        <v>5847720.014932575</v>
+        <v>5847720.014932573</v>
       </c>
       <c r="E275">
-        <v>9185755.554710651</v>
+        <v>9185755.554710647</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5046,16 +5046,16 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>249956.8393174877</v>
+        <v>249956.8393174876</v>
       </c>
       <c r="C276">
-        <v>593685.1061104569</v>
+        <v>593685.1061104567</v>
       </c>
       <c r="D276">
         <v>1530388.082866447</v>
       </c>
       <c r="E276">
-        <v>2372282.489650934</v>
+        <v>2372282.489650936</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,16 +5063,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1956106.456009787</v>
+        <v>1956106.456009786</v>
       </c>
       <c r="C277">
-        <v>3420833.913106038</v>
+        <v>3420833.91310604</v>
       </c>
       <c r="D277">
-        <v>6036789.090766414</v>
+        <v>6036789.090766415</v>
       </c>
       <c r="E277">
-        <v>7372924.067166306</v>
+        <v>7372924.067166303</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>1279532.965115884</v>
       </c>
       <c r="C278">
-        <v>2519387.893341508</v>
+        <v>2519387.893341509</v>
       </c>
       <c r="D278">
-        <v>4665841.741251224</v>
+        <v>4665841.741251225</v>
       </c>
       <c r="E278">
-        <v>6565135.936793511</v>
+        <v>6565135.936793507</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,10 +5097,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>507032.212208605</v>
+        <v>507032.2122086047</v>
       </c>
       <c r="C279">
-        <v>890503.357872281</v>
+        <v>890503.3578722811</v>
       </c>
       <c r="D279">
         <v>1406509.380639979</v>
@@ -5114,10 +5114,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>521518.8468431366</v>
+        <v>521518.8468431362</v>
       </c>
       <c r="C280">
-        <v>890503.357872281</v>
+        <v>890503.3578722811</v>
       </c>
       <c r="D280">
         <v>1406509.380639979</v>
@@ -5134,7 +5134,7 @@
         <v>1676965.13134551</v>
       </c>
       <c r="C281">
-        <v>3304890.490823288</v>
+        <v>3304890.49082329</v>
       </c>
       <c r="D281">
         <v>7172053.416058864</v>
@@ -5157,7 +5157,7 @@
         <v>2134495.97107309</v>
       </c>
       <c r="E282">
-        <v>2301375.757336875</v>
+        <v>2301375.757336874</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5174,7 +5174,7 @@
         <v>2196365.419509991</v>
       </c>
       <c r="E283">
-        <v>2595168.407209667</v>
+        <v>2595168.407209666</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5191,7 +5191,7 @@
         <v>2320104.316383793</v>
       </c>
       <c r="E284">
-        <v>3329650.031891649</v>
+        <v>3329650.031891648</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5199,16 +5199,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>351003.221169238</v>
+        <v>351003.2211692379</v>
       </c>
       <c r="C285">
-        <v>654265.2189788709</v>
+        <v>654265.2189788707</v>
       </c>
       <c r="D285">
         <v>1374226.033594361</v>
       </c>
       <c r="E285">
-        <v>1581521.65976729</v>
+        <v>1581521.659767291</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,10 +5216,10 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>593952.0200157944</v>
+        <v>593952.020015794</v>
       </c>
       <c r="C286">
-        <v>918331.5878057898</v>
+        <v>918331.5878057899</v>
       </c>
       <c r="D286">
         <v>1406509.380639979</v>
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>3723451.124032652</v>
+        <v>3723451.12403265</v>
       </c>
       <c r="C287">
         <v>7914937.451122245</v>
       </c>
       <c r="D287">
-        <v>14633923.01658754</v>
+        <v>14633923.01658755</v>
       </c>
       <c r="E287">
-        <v>20923638.57735977</v>
+        <v>20923638.57735976</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5253,10 +5253,10 @@
         <v>1609675.896533794</v>
       </c>
       <c r="C288">
-        <v>3741066.523924404</v>
+        <v>3741066.523924402</v>
       </c>
       <c r="D288">
-        <v>8096667.464551496</v>
+        <v>8096667.4645515</v>
       </c>
       <c r="E288">
         <v>13284739.86055677</v>
@@ -5267,10 +5267,10 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>52493266.33573891</v>
+        <v>52493266.33573887</v>
       </c>
       <c r="C289">
-        <v>88156005.24604103</v>
+        <v>88156005.24604113</v>
       </c>
       <c r="D289">
         <v>138231857.4543979</v>
@@ -5284,7 +5284,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>3088576.969243675</v>
+        <v>3088576.969243673</v>
       </c>
       <c r="C290">
         <v>7028201.720083653</v>
@@ -5307,10 +5307,10 @@
         <v>4595480.048478702</v>
       </c>
       <c r="D291">
-        <v>7719789.659435609</v>
+        <v>7719789.659435611</v>
       </c>
       <c r="E291">
-        <v>9241216.446248671</v>
+        <v>9241216.446248673</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>384292.3251812143</v>
+        <v>384292.3251812146</v>
       </c>
       <c r="C292">
-        <v>773178.6931592232</v>
+        <v>773178.6931592234</v>
       </c>
       <c r="D292">
-        <v>1443159.975097659</v>
+        <v>1443159.975097658</v>
       </c>
       <c r="E292">
-        <v>1974874.718014288</v>
+        <v>1974874.718014287</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,7 +5335,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>1713526.331713</v>
+        <v>1713526.331713001</v>
       </c>
       <c r="C293">
         <v>3685094.240966051</v>
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>498156.7178275</v>
+        <v>498156.7178275004</v>
       </c>
       <c r="C294">
-        <v>859087.4368435813</v>
+        <v>859087.4368435816</v>
       </c>
       <c r="D294">
-        <v>1336259.236201536</v>
+        <v>1336259.236201535</v>
       </c>
       <c r="E294">
-        <v>1443177.678548903</v>
+        <v>1443177.678548902</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>3939159.216611374</v>
+        <v>3939159.216611375</v>
       </c>
       <c r="C295">
         <v>8203246.397997928</v>
       </c>
       <c r="D295">
-        <v>16828199.64415355</v>
+        <v>16828199.64415356</v>
       </c>
       <c r="E295">
-        <v>25069536.00111868</v>
+        <v>25069536.00111867</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,10 +5389,10 @@
         <v>1694388.436893499</v>
       </c>
       <c r="C296">
-        <v>3451533.427076499</v>
+        <v>3451533.427076497</v>
       </c>
       <c r="D296">
-        <v>6998142.089568446</v>
+        <v>6998142.08956845</v>
       </c>
       <c r="E296">
         <v>10471818.01751149</v>
@@ -5406,7 +5406,7 @@
         <v>1106930.374027704</v>
       </c>
       <c r="C297">
-        <v>2759495.360776878</v>
+        <v>2759495.360776879</v>
       </c>
       <c r="D297">
         <v>7812450.841640276</v>
@@ -5420,16 +5420,16 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>4111791.833013024</v>
+        <v>4111791.833013023</v>
       </c>
       <c r="C298">
-        <v>9536206.475756001</v>
+        <v>9536206.475756004</v>
       </c>
       <c r="D298">
-        <v>20971808.65023323</v>
+        <v>20971808.65023324</v>
       </c>
       <c r="E298">
-        <v>33566245.86390566</v>
+        <v>33566245.86390568</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5437,13 +5437,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>4739254.014684932</v>
+        <v>4739254.014684935</v>
       </c>
       <c r="C299">
-        <v>11947983.53844223</v>
+        <v>11947983.53844222</v>
       </c>
       <c r="D299">
-        <v>27195488.83692095</v>
+        <v>27195488.83692096</v>
       </c>
       <c r="E299">
         <v>44424498.76659608</v>
@@ -5454,13 +5454,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>4576029.269596446</v>
+        <v>4576029.269596447</v>
       </c>
       <c r="C300">
         <v>8647296.772818329</v>
       </c>
       <c r="D300">
-        <v>16160792.29282735</v>
+        <v>16160792.29282736</v>
       </c>
       <c r="E300">
         <v>21559800.96096206</v>
@@ -5474,13 +5474,13 @@
         <v>1668291.721977692</v>
       </c>
       <c r="C301">
-        <v>3500330.992588295</v>
+        <v>3500330.992588296</v>
       </c>
       <c r="D301">
-        <v>7276698.640333164</v>
+        <v>7276698.640333163</v>
       </c>
       <c r="E301">
-        <v>11175138.40357701</v>
+        <v>11175138.403577</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5488,7 +5488,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>6586056.076627239</v>
+        <v>6586056.076627237</v>
       </c>
       <c r="C302">
         <v>11636027.45817613</v>
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>6586056.076627239</v>
+        <v>6586056.076627237</v>
       </c>
       <c r="C303">
         <v>11636027.45817613</v>
@@ -5545,7 +5545,7 @@
         <v>1426017.275065026</v>
       </c>
       <c r="D305">
-        <v>3281133.675230723</v>
+        <v>3281133.675230724</v>
       </c>
       <c r="E305">
         <v>5522674.092009814</v>
@@ -5579,7 +5579,7 @@
         <v>1539193.249276536</v>
       </c>
       <c r="D307">
-        <v>3187386.998795559</v>
+        <v>3187386.99879556</v>
       </c>
       <c r="E307">
         <v>4885442.466008682</v>
@@ -5590,7 +5590,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>174311.4418178073</v>
+        <v>174311.4418178074</v>
       </c>
       <c r="C308">
         <v>470789.8677899914</v>
@@ -5599,7 +5599,7 @@
         <v>1250312.653097586</v>
       </c>
       <c r="E308">
-        <v>2321117.00450767</v>
+        <v>2321117.004507669</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>911658.5202321357</v>
+        <v>911658.5202321355</v>
       </c>
       <c r="C310">
         <v>1632405.467337969</v>
@@ -5633,7 +5633,7 @@
         <v>3149519.323600912</v>
       </c>
       <c r="E310">
-        <v>4430327.057492475</v>
+        <v>4430327.057492476</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5647,7 +5647,7 @@
         <v>414080.5179219567</v>
       </c>
       <c r="D311">
-        <v>938515.0194254061</v>
+        <v>938515.0194254058</v>
       </c>
       <c r="E311">
         <v>1399002.368491867</v>
@@ -5661,10 +5661,10 @@
         <v>254677.0172101592</v>
       </c>
       <c r="C312">
-        <v>439960.5502920789</v>
+        <v>439960.550292079</v>
       </c>
       <c r="D312">
-        <v>906152.432548668</v>
+        <v>906152.4325486677</v>
       </c>
       <c r="E312">
         <v>1129963.4514742</v>
@@ -5678,10 +5678,10 @@
         <v>248613.2787051554</v>
       </c>
       <c r="C313">
-        <v>439960.5502920789</v>
+        <v>439960.550292079</v>
       </c>
       <c r="D313">
-        <v>906152.432548668</v>
+        <v>906152.4325486677</v>
       </c>
       <c r="E313">
         <v>1129963.4514742</v>
@@ -5698,10 +5698,10 @@
         <v>414080.5179219567</v>
       </c>
       <c r="D314">
-        <v>970877.6063021444</v>
+        <v>970877.6063021439</v>
       </c>
       <c r="E314">
-        <v>1506617.935298934</v>
+        <v>1506617.935298933</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,16 +5709,16 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>11531334.13079024</v>
+        <v>11531334.13079025</v>
       </c>
       <c r="C315">
         <v>20145700.7809978</v>
       </c>
       <c r="D315">
-        <v>33037834.50035227</v>
+        <v>33037834.50035228</v>
       </c>
       <c r="E315">
-        <v>42852192.1351983</v>
+        <v>42852192.13519832</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>18432120.94241657</v>
+        <v>18432120.94241658</v>
       </c>
       <c r="C316">
         <v>32636517.44166195</v>
       </c>
       <c r="D316">
-        <v>53886376.10203013</v>
+        <v>53886376.10203014</v>
       </c>
       <c r="E316">
-        <v>72220724.83612888</v>
+        <v>72220724.83612892</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5746,13 +5746,13 @@
         <v>5034451.656295301</v>
       </c>
       <c r="C317">
-        <v>9841791.219669903</v>
+        <v>9841791.219669912</v>
       </c>
       <c r="D317">
         <v>17530592.75957095</v>
       </c>
       <c r="E317">
-        <v>25310756.45713032</v>
+        <v>25310756.45713035</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,10 +5763,10 @@
         <v>2512578.194361757</v>
       </c>
       <c r="C318">
-        <v>5156342.052401844</v>
+        <v>5156342.052401842</v>
       </c>
       <c r="D318">
-        <v>9251572.48300379</v>
+        <v>9251572.483003793</v>
       </c>
       <c r="E318">
         <v>13083025.19463217</v>
@@ -5780,7 +5780,7 @@
         <v>1793430.47195483</v>
       </c>
       <c r="C319">
-        <v>3621768.442739771</v>
+        <v>3621768.442739769</v>
       </c>
       <c r="D319">
         <v>6521187.870835915</v>
@@ -5800,10 +5800,10 @@
         <v>3541682.841820776</v>
       </c>
       <c r="D320">
-        <v>6214684.58364712</v>
+        <v>6214684.583647123</v>
       </c>
       <c r="E320">
-        <v>8492855.675494729</v>
+        <v>8492855.67549473</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>8354002.884506168</v>
+        <v>8354002.884506173</v>
       </c>
       <c r="C321">
         <v>16716649.38518389</v>
       </c>
       <c r="D321">
-        <v>28819192.57800114</v>
+        <v>28819192.57800116</v>
       </c>
       <c r="E321">
-        <v>39018877.2966236</v>
+        <v>39018877.29662362</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5828,7 +5828,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>6164078.426071901</v>
+        <v>6164078.426071905</v>
       </c>
       <c r="C322">
         <v>10036446.4722637</v>
@@ -5837,7 +5837,7 @@
         <v>15353450.57790284</v>
       </c>
       <c r="E322">
-        <v>18064086.44844202</v>
+        <v>18064086.44844203</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5848,13 +5848,13 @@
         <v>1353401.935550117</v>
       </c>
       <c r="C323">
-        <v>2956831.861576465</v>
+        <v>2956831.861576463</v>
       </c>
       <c r="D323">
-        <v>5915114.584650403</v>
+        <v>5915114.584650399</v>
       </c>
       <c r="E323">
-        <v>9210986.476665428</v>
+        <v>9210986.476665432</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5865,13 +5865,13 @@
         <v>1490455.296112154</v>
       </c>
       <c r="C324">
-        <v>3055392.923629014</v>
+        <v>3055392.923629012</v>
       </c>
       <c r="D324">
-        <v>5797983.602776137</v>
+        <v>5797983.602776133</v>
       </c>
       <c r="E324">
-        <v>8558881.23937938</v>
+        <v>8558881.239379384</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5882,13 +5882,13 @@
         <v>1250611.915128589</v>
       </c>
       <c r="C325">
-        <v>2825417.112173067</v>
+        <v>2825417.112173065</v>
       </c>
       <c r="D325">
-        <v>5973680.075587535</v>
+        <v>5973680.075587532</v>
       </c>
       <c r="E325">
-        <v>9863091.713951476</v>
+        <v>9863091.71395148</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,10 +5896,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>2958886.469241817</v>
+        <v>2958886.469241814</v>
       </c>
       <c r="C326">
-        <v>6802506.368030732</v>
+        <v>6802506.368030736</v>
       </c>
       <c r="D326">
         <v>13270264.69890547</v>
@@ -5916,10 +5916,10 @@
         <v>1558009.106738416</v>
       </c>
       <c r="C327">
-        <v>3655053.982209744</v>
+        <v>3655053.982209743</v>
       </c>
       <c r="D327">
-        <v>7096645.691200146</v>
+        <v>7096645.691200144</v>
       </c>
       <c r="E327">
         <v>10686610.91884139</v>
@@ -5930,13 +5930,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>1778162.567473192</v>
+        <v>1778162.567473193</v>
       </c>
       <c r="C328">
-        <v>3655053.982209744</v>
+        <v>3655053.982209743</v>
       </c>
       <c r="D328">
-        <v>6863968.783291943</v>
+        <v>6863968.783291942</v>
       </c>
       <c r="E328">
         <v>10200855.87707587</v>
@@ -5950,10 +5950,10 @@
         <v>15198.0202038263</v>
       </c>
       <c r="C329">
-        <v>30265.96110233678</v>
+        <v>30265.96110233679</v>
       </c>
       <c r="D329">
-        <v>55997.07154945409</v>
+        <v>55997.07154945406</v>
       </c>
       <c r="E329">
         <v>79325.42250097127</v>
@@ -5964,16 +5964,16 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>2387818.304892572</v>
+        <v>2387818.304892573</v>
       </c>
       <c r="C330">
         <v>4079301.319430517</v>
       </c>
       <c r="D330">
-        <v>6340445.740498491</v>
+        <v>6340445.740498489</v>
       </c>
       <c r="E330">
-        <v>7448243.973737939</v>
+        <v>7448243.973737936</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5984,13 +5984,13 @@
         <v>1973272.109224926</v>
       </c>
       <c r="C331">
-        <v>3729998.414150087</v>
+        <v>3729998.414150086</v>
       </c>
       <c r="D331">
-        <v>6513739.724144324</v>
+        <v>6513739.724144325</v>
       </c>
       <c r="E331">
-        <v>8665260.465792388</v>
+        <v>8665260.465792386</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4461157.674132291</v>
+        <v>4461157.67413229</v>
       </c>
       <c r="C332">
-        <v>8588802.777111277</v>
+        <v>8588802.777111279</v>
       </c>
       <c r="D332">
         <v>15633255.31500076</v>
       </c>
       <c r="E332">
-        <v>22501324.6170996</v>
+        <v>22501324.61709959</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>3522046.500249731</v>
+        <v>3522046.50024973</v>
       </c>
       <c r="C333">
-        <v>7366502.956322322</v>
+        <v>7366502.956322319</v>
       </c>
       <c r="D333">
         <v>13622842.25219025</v>
       </c>
       <c r="E333">
-        <v>19622377.94687693</v>
+        <v>19622377.94687692</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,7 +6032,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>7737873.580399713</v>
+        <v>7737873.580399715</v>
       </c>
       <c r="C334">
         <v>14798112.49381398</v>
@@ -6041,7 +6041,7 @@
         <v>25514876.77135666</v>
       </c>
       <c r="E334">
-        <v>34833307.32878268</v>
+        <v>34833307.32878267</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,13 +6049,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>3245265.613671788</v>
+        <v>3245265.613671785</v>
       </c>
       <c r="C335">
-        <v>7040339.494190492</v>
+        <v>7040339.494190487</v>
       </c>
       <c r="D335">
-        <v>14566474.91669061</v>
+        <v>14566474.9166906</v>
       </c>
       <c r="E335">
         <v>23252667.1950952</v>
@@ -6066,13 +6066,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>3118625.255303172</v>
+        <v>3118625.255303174</v>
       </c>
       <c r="C336">
-        <v>5264101.319508391</v>
+        <v>5264101.319508393</v>
       </c>
       <c r="D336">
-        <v>8639576.118456164</v>
+        <v>8639576.118456166</v>
       </c>
       <c r="E336">
         <v>11153832.05534696</v>
@@ -6100,10 +6100,10 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>2335249.670899561</v>
+        <v>2335249.67089956</v>
       </c>
       <c r="C338">
-        <v>5209591.486323949</v>
+        <v>5209591.486323946</v>
       </c>
       <c r="D338">
         <v>11724678.83122613</v>
@@ -6134,13 +6134,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1443520.905940084</v>
+        <v>1443520.905940085</v>
       </c>
       <c r="C340">
         <v>2580597.405406239</v>
       </c>
       <c r="D340">
-        <v>4566030.129702312</v>
+        <v>4566030.129702309</v>
       </c>
       <c r="E340">
         <v>5658458.191262392</v>
@@ -6154,10 +6154,10 @@
         <v>1031086.361385775</v>
       </c>
       <c r="C341">
-        <v>2281625.754779906</v>
+        <v>2281625.754779907</v>
       </c>
       <c r="D341">
-        <v>5006888.211190811</v>
+        <v>5006888.211190809</v>
       </c>
       <c r="E341">
         <v>7858969.710086656</v>
@@ -6177,7 +6177,7 @@
         <v>985821.1332137104</v>
       </c>
       <c r="E342">
-        <v>1102391.471277533</v>
+        <v>1102391.471277532</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6202,13 +6202,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>1565723.733956176</v>
+        <v>1565723.733956177</v>
       </c>
       <c r="C344">
-        <v>2690744.855636992</v>
+        <v>2690744.855636993</v>
       </c>
       <c r="D344">
-        <v>4440070.677848455</v>
+        <v>4440070.677848453</v>
       </c>
       <c r="E344">
         <v>4939923.817768754</v>
@@ -6219,13 +6219,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>428589.7497176577</v>
+        <v>428589.7497176576</v>
       </c>
       <c r="C345">
         <v>842793.7489941942</v>
       </c>
       <c r="D345">
-        <v>1592664.148081854</v>
+        <v>1592664.148081855</v>
       </c>
       <c r="E345">
         <v>1920847.59451323</v>
@@ -6236,16 +6236,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>452400.2913686387</v>
+        <v>452400.2913686386</v>
       </c>
       <c r="C346">
         <v>830214.7378151764</v>
       </c>
       <c r="D346">
-        <v>1565204.421390787</v>
+        <v>1565204.421390789</v>
       </c>
       <c r="E346">
-        <v>1880829.936294205</v>
+        <v>1880829.936294204</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,16 +6253,16 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>452400.2913686387</v>
+        <v>452400.2913686386</v>
       </c>
       <c r="C347">
         <v>830214.7378151764</v>
       </c>
       <c r="D347">
-        <v>1565204.421390787</v>
+        <v>1565204.421390789</v>
       </c>
       <c r="E347">
-        <v>1880829.936294205</v>
+        <v>1880829.936294204</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6273,13 +6273,13 @@
         <v>391538.1951634181</v>
       </c>
       <c r="C348">
-        <v>713938.1128107724</v>
+        <v>713938.1128107723</v>
       </c>
       <c r="D348">
         <v>1275997.271712911</v>
       </c>
       <c r="E348">
-        <v>1626997.314366462</v>
+        <v>1626997.314366461</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6290,13 +6290,13 @@
         <v>460057.3793170163</v>
       </c>
       <c r="C349">
-        <v>770301.6480326755</v>
+        <v>770301.6480326754</v>
       </c>
       <c r="D349">
-        <v>1207024.446214915</v>
+        <v>1207024.446214916</v>
       </c>
       <c r="E349">
-        <v>1339880.141242969</v>
+        <v>1339880.141242967</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6307,13 +6307,13 @@
         <v>460057.3793170163</v>
       </c>
       <c r="C350">
-        <v>770301.6480326755</v>
+        <v>770301.6480326754</v>
       </c>
       <c r="D350">
-        <v>1207024.446214915</v>
+        <v>1207024.446214916</v>
       </c>
       <c r="E350">
-        <v>1339880.141242969</v>
+        <v>1339880.141242967</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,16 +6321,16 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>601215.3943401569</v>
+        <v>601215.3943401572</v>
       </c>
       <c r="C351">
-        <v>1227435.670039266</v>
+        <v>1227435.670039267</v>
       </c>
       <c r="D351">
         <v>2513974.513901005</v>
       </c>
       <c r="E351">
-        <v>3261922.93164379</v>
+        <v>3261922.931643791</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>719311.2753712592</v>
+        <v>719311.2753712594</v>
       </c>
       <c r="C352">
-        <v>1310051.532445755</v>
+        <v>1310051.532445756</v>
       </c>
       <c r="D352">
         <v>2383038.341301994</v>
       </c>
       <c r="E352">
-        <v>2549548.958066411</v>
+        <v>2549548.958066412</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,7 +6355,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>2857419.967017327</v>
+        <v>2857419.967017326</v>
       </c>
       <c r="C353">
         <v>5206800.537902203</v>
@@ -6375,10 +6375,10 @@
         <v>3228347.060745102</v>
       </c>
       <c r="C354">
-        <v>5222458.390745759</v>
+        <v>5222458.390745756</v>
       </c>
       <c r="D354">
-        <v>7780871.735980856</v>
+        <v>7780871.735980854</v>
       </c>
       <c r="E354">
         <v>8404245.340015598</v>
@@ -6389,7 +6389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>3795677.269620031</v>
+        <v>3795677.26962003</v>
       </c>
       <c r="C355">
         <v>5707454.435777415</v>
@@ -6398,7 +6398,7 @@
         <v>8094272.845494105</v>
       </c>
       <c r="E355">
-        <v>8789237.049172208</v>
+        <v>8789237.049172206</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6429,7 +6429,7 @@
         <v>1270505.361882139</v>
       </c>
       <c r="D357">
-        <v>1921842.171541715</v>
+        <v>1921842.171541714</v>
       </c>
       <c r="E357">
         <v>2046843.17240949</v>
@@ -6446,7 +6446,7 @@
         <v>1270505.361882139</v>
       </c>
       <c r="D358">
-        <v>1921842.171541715</v>
+        <v>1921842.171541714</v>
       </c>
       <c r="E358">
         <v>2094444.176419013</v>
@@ -6460,7 +6460,7 @@
         <v>291881.7446828993</v>
       </c>
       <c r="C359">
-        <v>624128.9881286442</v>
+        <v>624128.9881286445</v>
       </c>
       <c r="D359">
         <v>1326595.261123158</v>
@@ -6477,7 +6477,7 @@
         <v>381691.5122776375</v>
       </c>
       <c r="C360">
-        <v>673080.2813152045</v>
+        <v>673080.2813152048</v>
       </c>
       <c r="D360">
         <v>1218301.770419226</v>
@@ -6491,16 +6491,16 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>4794658.792170408</v>
+        <v>4794658.792170405</v>
       </c>
       <c r="C361">
         <v>11616805.4642563</v>
       </c>
       <c r="D361">
-        <v>25966574.16302375</v>
+        <v>25966574.16302377</v>
       </c>
       <c r="E361">
-        <v>39256146.95561858</v>
+        <v>39256146.95561857</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6508,16 +6508,16 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>7086683.996445917</v>
+        <v>7086683.996445919</v>
       </c>
       <c r="C362">
-        <v>13495167.57170069</v>
+        <v>13495167.57170071</v>
       </c>
       <c r="D362">
-        <v>25533985.32953802</v>
+        <v>25533985.32953801</v>
       </c>
       <c r="E362">
-        <v>31835326.43956116</v>
+        <v>31835326.43956115</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6525,7 +6525,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>335706.7039891539</v>
+        <v>335706.7039891541</v>
       </c>
       <c r="C363">
         <v>826200.6926623624</v>
@@ -6534,7 +6534,7 @@
         <v>2088729.464274575</v>
       </c>
       <c r="E363">
-        <v>3333097.604756367</v>
+        <v>3333097.604756366</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>1226521.500754949</v>
       </c>
       <c r="C364">
-        <v>2688409.779326964</v>
+        <v>2688409.779326962</v>
       </c>
       <c r="D364">
-        <v>5802741.567063441</v>
+        <v>5802741.567063442</v>
       </c>
       <c r="E364">
-        <v>8582442.487284239</v>
+        <v>8582442.487284236</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>1174106.052004737</v>
       </c>
       <c r="C365">
-        <v>2596498.333879888</v>
+        <v>2596498.333879887</v>
       </c>
       <c r="D365">
-        <v>5853200.189385731</v>
+        <v>5853200.189385732</v>
       </c>
       <c r="E365">
-        <v>9118845.142739505</v>
+        <v>9118845.142739499</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6579,13 +6579,13 @@
         <v>370581.2851199724</v>
       </c>
       <c r="C366">
-        <v>765476.0027202253</v>
+        <v>765476.0027202249</v>
       </c>
       <c r="D366">
         <v>1608606.156844242</v>
       </c>
       <c r="E366">
-        <v>2129952.791775572</v>
+        <v>2129952.791775571</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>411756.9834666359</v>
+        <v>411756.983466636</v>
       </c>
       <c r="C367">
-        <v>784146.1491280355</v>
+        <v>784146.1491280353</v>
       </c>
       <c r="D367">
         <v>1563922.652487457</v>
       </c>
       <c r="E367">
-        <v>1916957.512598015</v>
+        <v>1916957.512598014</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,7 +6610,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>387558.7061491698</v>
+        <v>387558.7061491699</v>
       </c>
       <c r="C368">
         <v>782937.5727643417</v>
@@ -6619,7 +6619,7 @@
         <v>1715317.883499838</v>
       </c>
       <c r="E368">
-        <v>2358994.443249461</v>
+        <v>2358994.44324946</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6627,10 +6627,10 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>452932.6818132995</v>
+        <v>452932.6818132997</v>
       </c>
       <c r="C369">
-        <v>802816.2955358459</v>
+        <v>802816.2955358457</v>
       </c>
       <c r="D369">
         <v>1519239.148130673</v>
@@ -6647,7 +6647,7 @@
         <v>223722.4539454591</v>
       </c>
       <c r="C370">
-        <v>501351.7797202789</v>
+        <v>501351.7797202792</v>
       </c>
       <c r="D370">
         <v>1183612.034773042</v>
@@ -6664,7 +6664,7 @@
         <v>279653.0674318239</v>
       </c>
       <c r="C371">
-        <v>533697.0558312646</v>
+        <v>533697.0558312649</v>
       </c>
       <c r="D371">
         <v>1101983.618581798</v>
@@ -6681,13 +6681,13 @@
         <v>258679.0873744371</v>
       </c>
       <c r="C372">
-        <v>517524.4177757718</v>
+        <v>517524.417775772</v>
       </c>
       <c r="D372">
         <v>1142797.82667742</v>
       </c>
       <c r="E372">
-        <v>1455702.214184685</v>
+        <v>1455702.214184684</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,10 +6698,10 @@
         <v>2499268.149873308</v>
       </c>
       <c r="C373">
-        <v>4962988.414294611</v>
+        <v>4962988.414294613</v>
       </c>
       <c r="D373">
-        <v>9498288.698414557</v>
+        <v>9498288.698414553</v>
       </c>
       <c r="E373">
         <v>14013606.00336789</v>
@@ -6718,7 +6718,7 @@
         <v>3720586.837411858</v>
       </c>
       <c r="D374">
-        <v>7458623.497882779</v>
+        <v>7458623.497882778</v>
       </c>
       <c r="E374">
         <v>11368041.72119672</v>
@@ -6729,13 +6729,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>3453289.86299699</v>
+        <v>3453289.862996991</v>
       </c>
       <c r="C375">
-        <v>5697308.128654527</v>
+        <v>5697308.12865453</v>
       </c>
       <c r="D375">
-        <v>8672350.550726335</v>
+        <v>8672350.55072633</v>
       </c>
       <c r="E375">
         <v>9622245.59678256</v>
@@ -6746,16 +6746,16 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>2386406.888030191</v>
+        <v>2386406.88803019</v>
       </c>
       <c r="C376">
         <v>3886426.467817299</v>
       </c>
       <c r="D376">
-        <v>6260612.650314102</v>
+        <v>6260612.650314104</v>
       </c>
       <c r="E376">
-        <v>7443814.206684282</v>
+        <v>7443814.206684279</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,16 +6763,16 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>2386406.888030191</v>
+        <v>2386406.88803019</v>
       </c>
       <c r="C377">
         <v>3886426.467817299</v>
       </c>
       <c r="D377">
-        <v>6260612.650314102</v>
+        <v>6260612.650314104</v>
       </c>
       <c r="E377">
-        <v>7443814.206684282</v>
+        <v>7443814.206684279</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6780,16 +6780,16 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>1529816.662781178</v>
+        <v>1529816.662781177</v>
       </c>
       <c r="C378">
-        <v>2884792.62789004</v>
+        <v>2884792.627890039</v>
       </c>
       <c r="D378">
-        <v>5093993.384755986</v>
+        <v>5093993.384755988</v>
       </c>
       <c r="E378">
-        <v>7098789.818553128</v>
+        <v>7098789.818553126</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6797,16 +6797,16 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>1482009.892069266</v>
+        <v>1482009.892069265</v>
       </c>
       <c r="C379">
-        <v>2973102.606294837</v>
+        <v>2973102.606294836</v>
       </c>
       <c r="D379">
-        <v>5144933.318603545</v>
+        <v>5144933.318603547</v>
       </c>
       <c r="E379">
-        <v>7028504.770844681</v>
+        <v>7028504.77084468</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6814,16 +6814,16 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>2055691.140612207</v>
+        <v>2055691.140612206</v>
       </c>
       <c r="C380">
         <v>3120285.903636165</v>
       </c>
       <c r="D380">
-        <v>4635533.980127946</v>
+        <v>4635533.980127949</v>
       </c>
       <c r="E380">
-        <v>5271378.578133511</v>
+        <v>5271378.57813351</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6831,16 +6831,16 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>1529816.662781178</v>
+        <v>1529816.662781177</v>
       </c>
       <c r="C381">
-        <v>2884792.62789004</v>
+        <v>2884792.627890039</v>
       </c>
       <c r="D381">
-        <v>5093993.384755986</v>
+        <v>5093993.384755988</v>
       </c>
       <c r="E381">
-        <v>7098789.818553128</v>
+        <v>7098789.818553126</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6851,13 +6851,13 @@
         <v>1037857.371651156</v>
       </c>
       <c r="C382">
-        <v>1691925.177167005</v>
+        <v>1691925.177167006</v>
       </c>
       <c r="D382">
         <v>2553707.272623868</v>
       </c>
       <c r="E382">
-        <v>2915270.940512034</v>
+        <v>2915270.940512032</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6868,7 +6868,7 @@
         <v>2526394.321334149</v>
       </c>
       <c r="C383">
-        <v>5256884.080283446</v>
+        <v>5256884.08028345</v>
       </c>
       <c r="D383">
         <v>10063840.78473591</v>
@@ -6885,13 +6885,13 @@
         <v>3822945.88636098</v>
       </c>
       <c r="C384">
-        <v>6393713.132799029</v>
+        <v>6393713.132799033</v>
       </c>
       <c r="D384">
-        <v>10531687.77468352</v>
+        <v>10531687.77468353</v>
       </c>
       <c r="E384">
-        <v>12537497.35437769</v>
+        <v>12537497.35437768</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,7 +6899,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>595006.6859798895</v>
+        <v>595006.6859798894</v>
       </c>
       <c r="C385">
         <v>1234330.616099574</v>
@@ -6916,16 +6916,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>809804.3878736169</v>
+        <v>809804.3878736167</v>
       </c>
       <c r="C386">
-        <v>1678152.338533026</v>
+        <v>1678152.338533027</v>
       </c>
       <c r="D386">
-        <v>3266925.438329486</v>
+        <v>3266925.438329489</v>
       </c>
       <c r="E386">
-        <v>4456684.437432142</v>
+        <v>4456684.437432146</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6933,16 +6933,16 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>928312.347074634</v>
+        <v>928312.3470746337</v>
       </c>
       <c r="C387">
         <v>1741083.051228015</v>
       </c>
       <c r="D387">
-        <v>3179807.426640699</v>
+        <v>3179807.426640702</v>
       </c>
       <c r="E387">
-        <v>3875377.771680124</v>
+        <v>3875377.771680127</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6973,10 +6973,10 @@
         <v>251066.5933728316</v>
       </c>
       <c r="D389">
-        <v>691295.3723034668</v>
+        <v>691295.372303467</v>
       </c>
       <c r="E389">
-        <v>989195.5039415479</v>
+        <v>989195.503941549</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6990,10 +6990,10 @@
         <v>258912.4244157325</v>
       </c>
       <c r="D390">
-        <v>691295.3723034668</v>
+        <v>691295.372303467</v>
       </c>
       <c r="E390">
-        <v>944232.0719442049</v>
+        <v>944232.0719442058</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7024,10 +7024,10 @@
         <v>266758.2554586335</v>
       </c>
       <c r="D392">
-        <v>666606.2518640572</v>
+        <v>666606.2518640575</v>
       </c>
       <c r="E392">
-        <v>809341.7759521756</v>
+        <v>809341.7759521764</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,7 +7035,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>335797.5649754676</v>
+        <v>335797.5649754677</v>
       </c>
       <c r="C393">
         <v>572989.9455864509</v>
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>319336.9000256898</v>
+        <v>319336.9000256899</v>
       </c>
       <c r="C394">
         <v>559817.7629292911</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>245442.8220989147</v>
+        <v>245442.8220989148</v>
       </c>
       <c r="C395">
-        <v>484938.2758878446</v>
+        <v>484938.2758878444</v>
       </c>
       <c r="D395">
         <v>1307462.463819377</v>
       </c>
       <c r="E395">
-        <v>2213057.561560008</v>
+        <v>2213057.561560009</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,16 +7086,16 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>308662.9429425745</v>
+        <v>308662.9429425747</v>
       </c>
       <c r="C396">
-        <v>529023.5736958305</v>
+        <v>529023.5736958303</v>
       </c>
       <c r="D396">
         <v>1227003.235276646</v>
       </c>
       <c r="E396">
-        <v>1694372.195569381</v>
+        <v>1694372.195569382</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7106,13 +7106,13 @@
         <v>111444.4717459235</v>
       </c>
       <c r="C397">
-        <v>187573.0365680988</v>
+        <v>187573.0365680986</v>
       </c>
       <c r="D397">
-        <v>464845.6572003048</v>
+        <v>464845.6572003047</v>
       </c>
       <c r="E397">
-        <v>732737.0517126455</v>
+        <v>732737.0517126449</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7123,13 +7123,13 @@
         <v>111444.4717459235</v>
       </c>
       <c r="C398">
-        <v>187573.0365680988</v>
+        <v>187573.0365680986</v>
       </c>
       <c r="D398">
-        <v>464845.6572003048</v>
+        <v>464845.6572003047</v>
       </c>
       <c r="E398">
-        <v>732737.0517126455</v>
+        <v>732737.0517126449</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,13 +7137,13 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>752758.7837094937</v>
+        <v>752758.7837094939</v>
       </c>
       <c r="C399">
-        <v>1808704.741219335</v>
+        <v>1808704.741219336</v>
       </c>
       <c r="D399">
-        <v>6280057.510396508</v>
+        <v>6280057.510396503</v>
       </c>
       <c r="E399">
         <v>11179370.35308778</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>821996.3796644644</v>
+        <v>821996.379664464</v>
       </c>
       <c r="C400">
-        <v>1658128.973991584</v>
+        <v>1658128.973991585</v>
       </c>
       <c r="D400">
-        <v>5112530.395731515</v>
+        <v>5112530.395731512</v>
       </c>
       <c r="E400">
-        <v>7631604.520418285</v>
+        <v>7631604.520418283</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,16 +7171,16 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>846487.5038600921</v>
+        <v>846487.5038600925</v>
       </c>
       <c r="C401">
-        <v>1879634.338914211</v>
+        <v>1879634.338914212</v>
       </c>
       <c r="D401">
-        <v>6075827.997863288</v>
+        <v>6075827.997863283</v>
       </c>
       <c r="E401">
-        <v>9889443.004654571</v>
+        <v>9889443.004654573</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7188,16 +7188,16 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>69717.06265827506</v>
+        <v>69717.06265827504</v>
       </c>
       <c r="C402">
         <v>145161.5147423653</v>
       </c>
       <c r="D402">
-        <v>489566.5643618726</v>
+        <v>489566.5643618728</v>
       </c>
       <c r="E402">
-        <v>834263.8072071879</v>
+        <v>834263.807207188</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>781898.9952905881</v>
+        <v>781898.9952905878</v>
       </c>
       <c r="C403">
-        <v>1637402.361816689</v>
+        <v>1637402.36181669</v>
       </c>
       <c r="D403">
-        <v>5213768.621389565</v>
+        <v>5213768.621389562</v>
       </c>
       <c r="E403">
-        <v>8156277.331197043</v>
+        <v>8156277.33119704</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7225,13 +7225,13 @@
         <v>163383.8832361406</v>
       </c>
       <c r="C404">
-        <v>361487.2706393438</v>
+        <v>361487.2706393437</v>
       </c>
       <c r="D404">
-        <v>1273013.997239036</v>
+        <v>1273013.997239037</v>
       </c>
       <c r="E404">
-        <v>2112377.927278891</v>
+        <v>2112377.927278892</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7242,13 +7242,13 @@
         <v>180712.4769127009</v>
       </c>
       <c r="C405">
-        <v>373339.3122996502</v>
+        <v>373339.31229965</v>
       </c>
       <c r="D405">
-        <v>1227549.211623356</v>
+        <v>1227549.211623357</v>
       </c>
       <c r="E405">
-        <v>1896829.159189208</v>
+        <v>1896829.159189209</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7259,13 +7259,13 @@
         <v>163383.8832361406</v>
       </c>
       <c r="C406">
-        <v>361487.2706393438</v>
+        <v>361487.2706393437</v>
       </c>
       <c r="D406">
-        <v>1273013.997239036</v>
+        <v>1273013.997239037</v>
       </c>
       <c r="E406">
-        <v>2112377.927278891</v>
+        <v>2112377.927278892</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>143975.8939845914</v>
+        <v>143975.8939845913</v>
       </c>
       <c r="C407">
-        <v>329229.034219465</v>
+        <v>329229.0342194649</v>
       </c>
       <c r="D407">
         <v>1307670.384411612</v>
       </c>
       <c r="E407">
-        <v>2538865.557340806</v>
+        <v>2538865.557340805</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,16 +7290,16 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>187397.1953450237</v>
+        <v>187397.1953450236</v>
       </c>
       <c r="C408">
-        <v>361089.9084987681</v>
+        <v>361089.908498768</v>
       </c>
       <c r="D408">
         <v>1223304.553159249</v>
       </c>
       <c r="E408">
-        <v>1934373.757973948</v>
+        <v>1934373.757973947</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>155402.5522373367</v>
+        <v>155402.5522373366</v>
       </c>
       <c r="C409">
-        <v>334539.1799326822</v>
+        <v>334539.1799326821</v>
       </c>
       <c r="D409">
         <v>1286578.926598521</v>
       </c>
       <c r="E409">
-        <v>2417967.197467434</v>
+        <v>2417967.197467433</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7330,10 +7330,10 @@
         <v>2781511.651220385</v>
       </c>
       <c r="D410">
-        <v>7111285.69953307</v>
+        <v>7111285.699533075</v>
       </c>
       <c r="E410">
-        <v>11605988.82030999</v>
+        <v>11605988.82031</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,13 +7341,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>229487.4337880575</v>
+        <v>229487.4337880576</v>
       </c>
       <c r="C411">
-        <v>661893.4287848872</v>
+        <v>661893.4287848868</v>
       </c>
       <c r="D411">
-        <v>2357005.584068565</v>
+        <v>2357005.584068563</v>
       </c>
       <c r="E411">
         <v>5068242.924901132</v>
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>393407.0293509557</v>
+        <v>393407.029350956</v>
       </c>
       <c r="C412">
-        <v>811756.0919059938</v>
+        <v>811756.0919059933</v>
       </c>
       <c r="D412">
-        <v>2110751.269315132</v>
+        <v>2110751.269315131</v>
       </c>
       <c r="E412">
         <v>3297411.059574231</v>
@@ -7381,10 +7381,10 @@
         <v>2041441.535825972</v>
       </c>
       <c r="D413">
-        <v>4833500.591676763</v>
+        <v>4833500.591676764</v>
       </c>
       <c r="E413">
-        <v>6685995.582733851</v>
+        <v>6685995.582733844</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7398,10 +7398,10 @@
         <v>2781511.651220385</v>
       </c>
       <c r="D414">
-        <v>7111285.69953307</v>
+        <v>7111285.699533075</v>
       </c>
       <c r="E414">
-        <v>11605988.82030999</v>
+        <v>11605988.82031</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>432540.8490537239</v>
+        <v>432540.849053724</v>
       </c>
       <c r="C415">
-        <v>932034.2163955914</v>
+        <v>932034.2163955913</v>
       </c>
       <c r="D415">
-        <v>2378432.487208149</v>
+        <v>2378432.48720815</v>
       </c>
       <c r="E415">
-        <v>3654119.973517303</v>
+        <v>3654119.973517302</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>488714.9852944672</v>
+        <v>488714.9852944674</v>
       </c>
       <c r="C416">
-        <v>997670.4288178161</v>
+        <v>997670.428817816</v>
       </c>
       <c r="D416">
         <v>2304106.471982895</v>
       </c>
       <c r="E416">
-        <v>3013046.293952864</v>
+        <v>3013046.293952863</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,13 +7446,13 @@
         <v>97270.74071367556</v>
       </c>
       <c r="C417">
-        <v>204981.9435444133</v>
+        <v>204981.9435444134</v>
       </c>
       <c r="D417">
-        <v>601389.7015514638</v>
+        <v>601389.7015514636</v>
       </c>
       <c r="E417">
-        <v>1038228.880037786</v>
+        <v>1038228.880037785</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,13 +7463,13 @@
         <v>116724.8888564107</v>
       </c>
       <c r="C418">
-        <v>223616.6656848145</v>
+        <v>223616.6656848146</v>
       </c>
       <c r="D418">
-        <v>571320.2164738906</v>
+        <v>571320.2164738904</v>
       </c>
       <c r="E418">
-        <v>765010.7537120526</v>
+        <v>765010.7537120524</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7480,13 +7480,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C419">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D419">
         <v>1352493.141699577</v>
       </c>
       <c r="E419">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7497,13 +7497,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C420">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D420">
         <v>1352493.141699577</v>
       </c>
       <c r="E420">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7511,16 +7511,16 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C421">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D421">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E421">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7528,16 +7528,16 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C422">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D422">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E422">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7548,13 +7548,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C423">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D423">
         <v>1352493.141699577</v>
       </c>
       <c r="E423">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7565,13 +7565,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C424">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D424">
         <v>1352493.141699577</v>
       </c>
       <c r="E424">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,16 +7579,16 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C425">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D425">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E425">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7599,13 +7599,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C426">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D426">
         <v>1352493.141699577</v>
       </c>
       <c r="E426">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,13 +7616,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C427">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D427">
         <v>1352493.141699577</v>
       </c>
       <c r="E427">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7633,13 +7633,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C428">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D428">
         <v>1352493.141699577</v>
       </c>
       <c r="E428">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7650,13 +7650,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C429">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D429">
         <v>1352493.141699577</v>
       </c>
       <c r="E429">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7667,13 +7667,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C430">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D430">
         <v>1352493.141699577</v>
       </c>
       <c r="E430">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7681,16 +7681,16 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C431">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D431">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E431">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7701,13 +7701,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C432">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D432">
         <v>1352493.141699577</v>
       </c>
       <c r="E432">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7718,13 +7718,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C433">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D433">
         <v>1352493.141699577</v>
       </c>
       <c r="E433">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7735,13 +7735,13 @@
         <v>306162.438110587</v>
       </c>
       <c r="C434">
-        <v>662045.72581736</v>
+        <v>662045.7258173599</v>
       </c>
       <c r="D434">
         <v>1753681.603496708</v>
       </c>
       <c r="E434">
-        <v>2900912.050048982</v>
+        <v>2900912.05004898</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7752,10 +7752,10 @@
         <v>363142.9868457401</v>
       </c>
       <c r="C435">
-        <v>606182.0698374488</v>
+        <v>606182.0698374487</v>
       </c>
       <c r="D435">
-        <v>1284868.484614598</v>
+        <v>1284868.484614599</v>
       </c>
       <c r="E435">
         <v>1634605.998732991</v>
@@ -7769,10 +7769,10 @@
         <v>142522.2029102131</v>
       </c>
       <c r="C436">
-        <v>278838.1275019002</v>
+        <v>278838.1275019001</v>
       </c>
       <c r="D436">
-        <v>668696.5660800579</v>
+        <v>668696.5660800586</v>
       </c>
       <c r="E436">
         <v>1000788.295603645</v>
@@ -7792,7 +7792,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E437">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7809,7 +7809,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E438">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7826,7 +7826,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E439">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7843,7 +7843,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E440">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7860,7 +7860,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E441">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7877,7 +7877,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E442">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7894,7 +7894,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E443">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7911,7 +7911,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E444">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7928,7 +7928,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E445">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7945,7 +7945,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E446">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7962,7 +7962,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E447">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7970,13 +7970,13 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C448">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D448">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E448">
         <v>1060905.214888023</v>
@@ -7987,13 +7987,13 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C449">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D449">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E449">
         <v>1060905.214888023</v>
@@ -8004,13 +8004,13 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C450">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D450">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E450">
         <v>1060905.214888023</v>
@@ -8021,13 +8021,13 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C451">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D451">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E451">
         <v>1060905.214888023</v>
@@ -8038,13 +8038,13 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C452">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D452">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E452">
         <v>1060905.214888023</v>
@@ -8058,13 +8058,13 @@
         <v>115063.0587058138</v>
       </c>
       <c r="C453">
-        <v>284781.3719168614</v>
+        <v>284781.3719168615</v>
       </c>
       <c r="D453">
-        <v>741826.6242098975</v>
+        <v>741826.6242098979</v>
       </c>
       <c r="E453">
-        <v>1497748.538665443</v>
+        <v>1497748.538665444</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,10 +8072,10 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C454">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D454">
         <v>1344982.285701753</v>
@@ -8089,10 +8089,10 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C455">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D455">
         <v>1344982.285701753</v>
@@ -8106,10 +8106,10 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C456">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D456">
         <v>1344982.285701753</v>
@@ -8123,10 +8123,10 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C457">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D457">
         <v>1344982.285701753</v>
@@ -8140,10 +8140,10 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C458">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D458">
         <v>1344982.285701753</v>
@@ -8157,10 +8157,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>381565.0893918444</v>
+        <v>381565.0893918443</v>
       </c>
       <c r="C459">
-        <v>641962.3410017195</v>
+        <v>641962.3410017196</v>
       </c>
       <c r="D459">
         <v>1272280.540528686</v>
@@ -8174,10 +8174,10 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C460">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D460">
         <v>1344982.285701753</v>
@@ -8191,10 +8191,10 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C461">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D461">
         <v>1344982.285701753</v>
@@ -8208,10 +8208,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>381565.0893918444</v>
+        <v>381565.0893918443</v>
       </c>
       <c r="C462">
-        <v>641962.3410017195</v>
+        <v>641962.3410017196</v>
       </c>
       <c r="D462">
         <v>1272280.540528686</v>
@@ -8228,7 +8228,7 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C463">
-        <v>564851.4741667137</v>
+        <v>564851.4741667135</v>
       </c>
       <c r="D463">
         <v>1352493.141699577</v>
@@ -8245,7 +8245,7 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C464">
-        <v>564851.4741667137</v>
+        <v>564851.4741667135</v>
       </c>
       <c r="D464">
         <v>1352493.141699577</v>
@@ -8262,13 +8262,13 @@
         <v>395656.0738659893</v>
       </c>
       <c r="C465">
-        <v>712972.320111003</v>
+        <v>712972.3201110029</v>
       </c>
       <c r="D465">
         <v>1616675.228223528</v>
       </c>
       <c r="E465">
-        <v>2199078.489553261</v>
+        <v>2199078.489553259</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8279,13 +8279,13 @@
         <v>306162.438110587</v>
       </c>
       <c r="C466">
-        <v>641675.0880999027</v>
+        <v>641675.0880999026</v>
       </c>
       <c r="D466">
         <v>1726280.328442072</v>
       </c>
       <c r="E466">
-        <v>2994489.858115078</v>
+        <v>2994489.858115077</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8296,7 +8296,7 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C467">
-        <v>564851.4741667137</v>
+        <v>564851.4741667135</v>
       </c>
       <c r="D467">
         <v>1352493.141699577</v>
@@ -8313,13 +8313,13 @@
         <v>115063.0587058138</v>
       </c>
       <c r="C468">
-        <v>284781.3719168614</v>
+        <v>284781.3719168615</v>
       </c>
       <c r="D468">
-        <v>741826.6242098975</v>
+        <v>741826.6242098979</v>
       </c>
       <c r="E468">
-        <v>1497748.538665443</v>
+        <v>1497748.538665444</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>210948.9409606587</v>
+        <v>210948.9409606586</v>
       </c>
       <c r="C469">
-        <v>338177.8791512729</v>
+        <v>338177.8791512731</v>
       </c>
       <c r="D469">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E469">
-        <v>936092.8366659022</v>
+        <v>936092.8366659023</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>210948.9409606587</v>
+        <v>210948.9409606586</v>
       </c>
       <c r="C470">
-        <v>338177.8791512729</v>
+        <v>338177.8791512731</v>
       </c>
       <c r="D470">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E470">
-        <v>936092.8366659022</v>
+        <v>936092.8366659023</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8364,10 +8364,10 @@
         <v>363142.9868457401</v>
       </c>
       <c r="C471">
-        <v>619958.9350610272</v>
+        <v>619958.9350610271</v>
       </c>
       <c r="D471">
-        <v>1284868.484614598</v>
+        <v>1284868.484614599</v>
       </c>
       <c r="E471">
         <v>1634605.998732991</v>
@@ -8378,10 +8378,10 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>398154.875887142</v>
+        <v>398154.8758871419</v>
       </c>
       <c r="C472">
-        <v>673277.5771481447</v>
+        <v>673277.5771481449</v>
       </c>
       <c r="D472">
         <v>1272280.540528686</v>
@@ -8398,13 +8398,13 @@
         <v>395656.0738659893</v>
       </c>
       <c r="C473">
-        <v>723157.6389697316</v>
+        <v>723157.6389697315</v>
       </c>
       <c r="D473">
         <v>1616675.228223528</v>
       </c>
       <c r="E473">
-        <v>2152289.585520213</v>
+        <v>2152289.585520211</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8415,13 +8415,13 @@
         <v>395656.0738659893</v>
       </c>
       <c r="C474">
-        <v>723157.6389697316</v>
+        <v>723157.6389697315</v>
       </c>
       <c r="D474">
         <v>1616675.228223528</v>
       </c>
       <c r="E474">
-        <v>2152289.585520213</v>
+        <v>2152289.585520211</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8432,13 +8432,13 @@
         <v>152023.6831042273</v>
       </c>
       <c r="C475">
-        <v>289165.4655575262</v>
+        <v>289165.465557526</v>
       </c>
       <c r="D475">
-        <v>668696.5660800579</v>
+        <v>668696.5660800586</v>
       </c>
       <c r="E475">
-        <v>905475.1245937737</v>
+        <v>905475.1245937741</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>209589.9422376612</v>
+        <v>209589.9422376611</v>
       </c>
       <c r="C476">
-        <v>397692.0046306763</v>
+        <v>397692.0046306764</v>
       </c>
       <c r="D476">
-        <v>893522.2754120046</v>
+        <v>893522.2754120041</v>
       </c>
       <c r="E476">
-        <v>1159802.627447714</v>
+        <v>1159802.627447713</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8466,13 +8466,13 @@
         <v>205223.4851077099</v>
       </c>
       <c r="C477">
-        <v>387992.1996396842</v>
+        <v>387992.1996396843</v>
       </c>
       <c r="D477">
-        <v>920598.7080002471</v>
+        <v>920598.7080002467</v>
       </c>
       <c r="E477">
-        <v>1206194.732545623</v>
+        <v>1206194.732545622</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,16 +8480,16 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C478">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D478">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E478">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,13 +8497,13 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>3393749.871945856</v>
+        <v>3393749.871945858</v>
       </c>
       <c r="C479">
-        <v>5890995.712987311</v>
+        <v>5890995.712987309</v>
       </c>
       <c r="D479">
-        <v>14026616.8275017</v>
+        <v>14026616.82750171</v>
       </c>
       <c r="E479">
         <v>20827931.17433538</v>
@@ -8514,16 +8514,16 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>917066.1172255231</v>
+        <v>917066.117225523</v>
       </c>
       <c r="C480">
-        <v>1900171.704219322</v>
+        <v>1900171.704219323</v>
       </c>
       <c r="D480">
-        <v>5105991.19055348</v>
+        <v>5105991.190553482</v>
       </c>
       <c r="E480">
-        <v>9002339.907824267</v>
+        <v>9002339.907824263</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,16 +8531,16 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C481">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D481">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E481">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,16 +8548,16 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C482">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D482">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E482">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,16 +8565,16 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C483">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D483">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E483">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,16 +8582,16 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C484">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D484">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E484">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,16 +8599,16 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>917066.1172255231</v>
+        <v>917066.117225523</v>
       </c>
       <c r="C485">
-        <v>1900171.704219322</v>
+        <v>1900171.704219323</v>
       </c>
       <c r="D485">
-        <v>5105991.19055348</v>
+        <v>5105991.190553482</v>
       </c>
       <c r="E485">
-        <v>9002339.907824267</v>
+        <v>9002339.907824263</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>1601114.850792737</v>
+        <v>1601114.850792738</v>
       </c>
       <c r="C486">
-        <v>3350848.421990065</v>
+        <v>3350848.421990066</v>
       </c>
       <c r="D486">
-        <v>9138095.552128764</v>
+        <v>9138095.552128766</v>
       </c>
       <c r="E486">
         <v>16195718.65760495</v>
@@ -8642,7 +8642,7 @@
         <v>1763038.299326172</v>
       </c>
       <c r="E487">
-        <v>2221215.272318628</v>
+        <v>2221215.272318626</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8656,10 +8656,10 @@
         <v>261568.0373566322</v>
       </c>
       <c r="D488">
-        <v>696118.2477572788</v>
+        <v>696118.2477572791</v>
       </c>
       <c r="E488">
-        <v>1135359.458929319</v>
+        <v>1135359.458929318</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8670,13 +8670,13 @@
         <v>175010.0629827832</v>
       </c>
       <c r="C489">
-        <v>295685.6074466277</v>
+        <v>295685.6074466276</v>
       </c>
       <c r="D489">
-        <v>638108.3937775056</v>
+        <v>638108.3937775057</v>
       </c>
       <c r="E489">
-        <v>937905.6399850893</v>
+        <v>937905.6399850891</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,10 +8684,10 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C490">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D490">
         <v>7006048.26932108</v>
@@ -8701,10 +8701,10 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>1818232.901941763</v>
+        <v>1818232.901941764</v>
       </c>
       <c r="C491">
-        <v>3169445.416218187</v>
+        <v>3169445.416218186</v>
       </c>
       <c r="D491">
         <v>6696388.677306889</v>
@@ -8718,10 +8718,10 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C492">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D492">
         <v>7006048.26932108</v>
@@ -8735,10 +8735,10 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C493">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D493">
         <v>7006048.26932108</v>
@@ -8752,10 +8752,10 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C494">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D494">
         <v>7006048.26932108</v>
@@ -8769,10 +8769,10 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>320868.3055894009</v>
+        <v>320868.3055894011</v>
       </c>
       <c r="C495">
-        <v>609157.4022898591</v>
+        <v>609157.402289859</v>
       </c>
       <c r="D495">
         <v>1335604.090875134</v>
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>2127936.665436226</v>
+        <v>2127936.665436227</v>
       </c>
       <c r="C496">
-        <v>3970126.428435505</v>
+        <v>3970126.428435504</v>
       </c>
       <c r="D496">
-        <v>8359433.199133501</v>
+        <v>8359433.199133504</v>
       </c>
       <c r="E496">
-        <v>11617606.90338837</v>
+        <v>11617606.90338836</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,10 +8803,10 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>320868.3055894009</v>
+        <v>320868.3055894011</v>
       </c>
       <c r="C497">
-        <v>609157.4022898591</v>
+        <v>609157.402289859</v>
       </c>
       <c r="D497">
         <v>1335604.090875134</v>
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>622662.9363085836</v>
+        <v>622662.9363085835</v>
       </c>
       <c r="C498">
         <v>1173292.602524396</v>
@@ -8829,7 +8829,7 @@
         <v>2413378.327233986</v>
       </c>
       <c r="E498">
-        <v>3488008.627855971</v>
+        <v>3488008.627855972</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>733548.1167470985</v>
+        <v>733548.1167470984</v>
       </c>
       <c r="C499">
         <v>1242309.814437596</v>
@@ -8846,7 +8846,7 @@
         <v>2296601.956561374</v>
       </c>
       <c r="E499">
-        <v>2740578.20760112</v>
+        <v>2740578.207601121</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,7 +8854,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>742077.7460115997</v>
+        <v>742077.7460115994</v>
       </c>
       <c r="C500">
         <v>1242309.814437596</v>
@@ -8863,7 +8863,7 @@
         <v>2296601.956561374</v>
       </c>
       <c r="E500">
-        <v>2678292.339246549</v>
+        <v>2678292.33924655</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>222432.2229956417</v>
+        <v>222432.2229956418</v>
       </c>
       <c r="C501">
-        <v>442347.0282579177</v>
+        <v>442347.0282579176</v>
       </c>
       <c r="D501">
         <v>1184253.630968338</v>
       </c>
       <c r="E501">
-        <v>2197794.320698332</v>
+        <v>2197794.320698331</v>
       </c>
     </row>
   </sheetData>

--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1728114.088509214</v>
+        <v>1728114.088509215</v>
       </c>
       <c r="C2">
-        <v>3151057.040901108</v>
+        <v>3151057.040901111</v>
       </c>
       <c r="D2">
-        <v>5727733.7745402</v>
+        <v>5727733.774540196</v>
       </c>
       <c r="E2">
-        <v>7421239.790938362</v>
+        <v>7421239.790938357</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>747066.7953601816</v>
+        <v>747066.7953601817</v>
       </c>
       <c r="C3">
         <v>1346296.788830967</v>
@@ -425,13 +425,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C4">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D4">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E4">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,13 +442,13 @@
         <v>187193.3076368069</v>
       </c>
       <c r="C5">
-        <v>339952.6177660533</v>
+        <v>339952.6177660535</v>
       </c>
       <c r="D5">
-        <v>653210.6893148607</v>
+        <v>653210.6893148604</v>
       </c>
       <c r="E5">
-        <v>812518.7907561758</v>
+        <v>812518.7907561751</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>196107.274667131</v>
       </c>
       <c r="C6">
-        <v>339952.6177660533</v>
+        <v>339952.6177660535</v>
       </c>
       <c r="D6">
-        <v>653210.6893148607</v>
+        <v>653210.6893148604</v>
       </c>
       <c r="E6">
-        <v>750017.345313393</v>
+        <v>750017.3453133923</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>718589.9518430864</v>
+        <v>718589.9518430865</v>
       </c>
       <c r="C7">
         <v>1297525.068875673</v>
@@ -482,7 +482,7 @@
         <v>2337564.006023584</v>
       </c>
       <c r="E7">
-        <v>3106470.375497586</v>
+        <v>3106470.375497585</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>602347.4596331754</v>
+        <v>602347.4596331755</v>
       </c>
       <c r="C8">
         <v>1232648.815431889</v>
@@ -499,7 +499,7 @@
         <v>2469878.949760768</v>
       </c>
       <c r="E8">
-        <v>3635231.290475898</v>
+        <v>3635231.290475897</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>579026.9403675655</v>
+        <v>579026.9403675656</v>
       </c>
       <c r="C9">
         <v>1187116.90595956</v>
@@ -516,7 +516,7 @@
         <v>2397164.786458304</v>
       </c>
       <c r="E9">
-        <v>3536839.257092093</v>
+        <v>3536839.257092089</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,7 +527,7 @@
         <v>549509.9631741249</v>
       </c>
       <c r="C10">
-        <v>1167772.561988105</v>
+        <v>1167772.561988106</v>
       </c>
       <c r="D10">
         <v>2513983.931006496</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>602347.4596331754</v>
+        <v>602347.4596331755</v>
       </c>
       <c r="C11">
         <v>1232648.815431889</v>
@@ -550,7 +550,7 @@
         <v>2469878.949760768</v>
       </c>
       <c r="E11">
-        <v>3635231.290475898</v>
+        <v>3635231.290475897</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C12">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D12">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E12">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,13 +595,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C14">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D14">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E14">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>602347.4596331754</v>
+        <v>602347.4596331755</v>
       </c>
       <c r="C15">
         <v>1232648.815431889</v>
@@ -618,7 +618,7 @@
         <v>2469878.949760768</v>
       </c>
       <c r="E15">
-        <v>3635231.290475898</v>
+        <v>3635231.290475897</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -626,16 +626,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C16">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D16">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E16">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>133709.5054548621</v>
       </c>
       <c r="C17">
-        <v>302180.1046809363</v>
+        <v>302180.1046809365</v>
       </c>
       <c r="D17">
-        <v>694036.3573970395</v>
+        <v>694036.3573970392</v>
       </c>
       <c r="E17">
-        <v>1187527.463412872</v>
+        <v>1187527.463412871</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -677,16 +677,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C19">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D19">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E19">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -694,16 +694,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C20">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D20">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E20">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -711,16 +711,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1395805.352752533</v>
+        <v>1395805.352752532</v>
       </c>
       <c r="C21">
-        <v>2903598.440735465</v>
+        <v>2903598.440735464</v>
       </c>
       <c r="D21">
-        <v>5848907.862287311</v>
+        <v>5848907.86228731</v>
       </c>
       <c r="E21">
-        <v>8542568.209130015</v>
+        <v>8542568.209130017</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>356016.7216906429</v>
+        <v>356016.7216906428</v>
       </c>
       <c r="C22">
-        <v>646379.0133427751</v>
+        <v>646379.0133427752</v>
       </c>
       <c r="D22">
         <v>1085063.015090587</v>
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1457445.616815</v>
+        <v>1457445.616815001</v>
       </c>
       <c r="C23">
-        <v>3022442.467803104</v>
+        <v>3022442.467803106</v>
       </c>
       <c r="D23">
-        <v>6033795.884630134</v>
+        <v>6033795.884630131</v>
       </c>
       <c r="E23">
-        <v>8788310.278742796</v>
+        <v>8788310.27874279</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,16 +762,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>967413.0525385848</v>
+        <v>967413.0525385843</v>
       </c>
       <c r="C24">
         <v>1859927.046394087</v>
       </c>
       <c r="D24">
-        <v>3804181.301255448</v>
+        <v>3804181.30125545</v>
       </c>
       <c r="E24">
-        <v>5032256.75701266</v>
+        <v>5032256.757012658</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -785,10 +785,10 @@
         <v>1978017.652514346</v>
       </c>
       <c r="D25">
-        <v>3598549.879565964</v>
+        <v>3598549.879565966</v>
       </c>
       <c r="E25">
-        <v>3866892.034336044</v>
+        <v>3866892.034336043</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -802,10 +802,10 @@
         <v>1978017.652514346</v>
       </c>
       <c r="D26">
-        <v>3598549.879565964</v>
+        <v>3598549.879565966</v>
       </c>
       <c r="E26">
-        <v>3866892.034336044</v>
+        <v>3866892.034336043</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>552468.2873270498</v>
+        <v>552468.28732705</v>
       </c>
       <c r="C27">
         <v>1072783.750032395</v>
@@ -822,7 +822,7 @@
         <v>2146922.900166375</v>
       </c>
       <c r="E27">
-        <v>3118208.265826203</v>
+        <v>3118208.265826201</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>670854.3488971319</v>
+        <v>670854.3488971321</v>
       </c>
       <c r="C28">
         <v>1153748.561355595</v>
@@ -839,7 +839,7 @@
         <v>2020633.317803647</v>
       </c>
       <c r="E28">
-        <v>2418202.328599913</v>
+        <v>2418202.328599911</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>670854.3488971319</v>
+        <v>670854.3488971321</v>
       </c>
       <c r="C29">
         <v>1153748.561355595</v>
@@ -856,7 +856,7 @@
         <v>2020633.317803647</v>
       </c>
       <c r="E29">
-        <v>2418202.328599913</v>
+        <v>2418202.328599911</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -864,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2289747.14010242</v>
+        <v>2289747.140102421</v>
       </c>
       <c r="C30">
-        <v>4807840.562241388</v>
+        <v>4807840.562241389</v>
       </c>
       <c r="D30">
-        <v>9137245.695950819</v>
+        <v>9137245.695950815</v>
       </c>
       <c r="E30">
         <v>12940333.91205618</v>
@@ -881,16 +881,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1947601.015719299</v>
+        <v>1947601.015719301</v>
       </c>
       <c r="C31">
-        <v>4385173.260066321</v>
+        <v>4385173.260066322</v>
       </c>
       <c r="D31">
-        <v>9445242.741881745</v>
+        <v>9445242.741881741</v>
       </c>
       <c r="E31">
-        <v>15286242.39903713</v>
+        <v>15286242.39903712</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1569354.047053522</v>
+        <v>1569354.047053523</v>
       </c>
       <c r="C32">
         <v>3957996.222717967</v>
@@ -915,16 +915,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2118674.077910859</v>
+        <v>2118674.077910861</v>
       </c>
       <c r="C33">
         <v>4570090.204767914</v>
       </c>
       <c r="D33">
-        <v>9239911.377927795</v>
+        <v>9239911.377927791</v>
       </c>
       <c r="E33">
-        <v>14151125.38920764</v>
+        <v>14151125.38920763</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -935,13 +935,13 @@
         <v>1412250.891721035</v>
       </c>
       <c r="C34">
-        <v>3475460.92816655</v>
+        <v>3475460.928166552</v>
       </c>
       <c r="D34">
-        <v>7720896.778651864</v>
+        <v>7720896.778651861</v>
       </c>
       <c r="E34">
-        <v>13199594.79856149</v>
+        <v>13199594.7985615</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,16 +949,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>8111259.16075128</v>
+        <v>8111259.160751285</v>
       </c>
       <c r="C35">
         <v>16917383.96396386</v>
       </c>
       <c r="D35">
-        <v>35061488.88926543</v>
+        <v>35061488.88926544</v>
       </c>
       <c r="E35">
-        <v>57141333.22307514</v>
+        <v>57141333.22307515</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -969,10 +969,10 @@
         <v>1444888.088771357</v>
       </c>
       <c r="C36">
-        <v>3419890.15325781</v>
+        <v>3419890.153257812</v>
       </c>
       <c r="D36">
-        <v>7472086.124107026</v>
+        <v>7472086.124107024</v>
       </c>
       <c r="E36">
         <v>11845369.95717815</v>
@@ -986,13 +986,13 @@
         <v>1560667.307984693</v>
       </c>
       <c r="C37">
-        <v>3099660.374552662</v>
+        <v>3099660.374552664</v>
       </c>
       <c r="D37">
-        <v>5633108.623795714</v>
+        <v>5633108.623795716</v>
       </c>
       <c r="E37">
-        <v>7811762.503708385</v>
+        <v>7811762.503708383</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,10 +1003,10 @@
         <v>1072110.585485137</v>
       </c>
       <c r="C38">
-        <v>2479728.299642129</v>
+        <v>2479728.299642131</v>
       </c>
       <c r="D38">
-        <v>6046547.788844941</v>
+        <v>6046547.788844942</v>
       </c>
       <c r="E38">
         <v>11072983.74312062</v>
@@ -1017,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2232229.445296114</v>
+        <v>2232229.445296113</v>
       </c>
       <c r="C39">
-        <v>4044600.918047769</v>
+        <v>4044600.918047775</v>
       </c>
       <c r="D39">
-        <v>6758980.728434568</v>
+        <v>6758980.728434572</v>
       </c>
       <c r="E39">
-        <v>8517270.864630003</v>
+        <v>8517270.864629999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,16 +1034,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>10552999.0318228</v>
+        <v>10552999.03182281</v>
       </c>
       <c r="C40">
         <v>18924531.21392567</v>
       </c>
       <c r="D40">
-        <v>33097583.4160611</v>
+        <v>33097583.41606112</v>
       </c>
       <c r="E40">
-        <v>45270998.95753661</v>
+        <v>45270998.95753662</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>12576632.76058755</v>
+        <v>12576632.76058756</v>
       </c>
       <c r="C41">
         <v>19848456.13851127</v>
       </c>
       <c r="D41">
-        <v>31306963.71990422</v>
+        <v>31306963.71990423</v>
       </c>
       <c r="E41">
-        <v>37657612.15274293</v>
+        <v>37657612.15274294</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1071,13 +1071,13 @@
         <v>1019251.74790647</v>
       </c>
       <c r="C42">
-        <v>2583866.856630988</v>
+        <v>2583866.856630989</v>
       </c>
       <c r="D42">
         <v>6186388.814920858</v>
       </c>
       <c r="E42">
-        <v>11005322.94785952</v>
+        <v>11005322.94785953</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1085,13 +1085,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1226663.915546308</v>
+        <v>1226663.915546309</v>
       </c>
       <c r="C43">
-        <v>2798702.308405152</v>
+        <v>2798702.308405154</v>
       </c>
       <c r="D43">
-        <v>6204759.510412643</v>
+        <v>6204759.510412648</v>
       </c>
       <c r="E43">
         <v>10459180.61163275</v>
@@ -1102,10 +1102,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4464162.206210244</v>
+        <v>4464162.206210245</v>
       </c>
       <c r="C44">
-        <v>7935937.138049508</v>
+        <v>7935937.138049511</v>
       </c>
       <c r="D44">
         <v>13616936.44208619</v>
@@ -1119,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>560723.5991903042</v>
+        <v>560723.5991903038</v>
       </c>
       <c r="C45">
         <v>1293350.735222928</v>
@@ -1128,7 +1128,7 @@
         <v>2923818.744281229</v>
       </c>
       <c r="E45">
-        <v>4721407.376246909</v>
+        <v>4721407.376246907</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1142,7 +1142,7 @@
         <v>2859694.759556205</v>
       </c>
       <c r="D46">
-        <v>6160518.022140294</v>
+        <v>6160518.022140297</v>
       </c>
       <c r="E46">
         <v>10133877.72451811</v>
@@ -1156,7 +1156,7 @@
         <v>2114402.466096743</v>
       </c>
       <c r="C47">
-        <v>3884927.947480119</v>
+        <v>3884927.947480121</v>
       </c>
       <c r="D47">
         <v>7041015.305680717</v>
@@ -1170,16 +1170,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>819485.4430658302</v>
+        <v>819485.4430658307</v>
       </c>
       <c r="C48">
         <v>1544094.334507813</v>
       </c>
       <c r="D48">
-        <v>2764591.981104097</v>
+        <v>2764591.981104095</v>
       </c>
       <c r="E48">
-        <v>3562868.574137046</v>
+        <v>3562868.574137044</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1193,10 +1193,10 @@
         <v>18448133.58294462</v>
       </c>
       <c r="D49">
-        <v>34012085.07235546</v>
+        <v>34012085.07235549</v>
       </c>
       <c r="E49">
-        <v>47842709.29652612</v>
+        <v>47842709.29652611</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2460188.967242987</v>
+        <v>2460188.967242986</v>
       </c>
       <c r="C50">
-        <v>5293603.342363766</v>
+        <v>5293603.342363768</v>
       </c>
       <c r="D50">
         <v>12168037.84321917</v>
@@ -1224,13 +1224,13 @@
         <v>1288156.82504278</v>
       </c>
       <c r="C51">
-        <v>2532026.591522057</v>
+        <v>2532026.591522058</v>
       </c>
       <c r="D51">
-        <v>4654835.240518355</v>
+        <v>4654835.240518356</v>
       </c>
       <c r="E51">
-        <v>6224620.731040955</v>
+        <v>6224620.731040951</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>1182780.301904335</v>
       </c>
       <c r="C52">
-        <v>2434510.742490234</v>
+        <v>2434510.742490233</v>
       </c>
       <c r="D52">
-        <v>4700510.875820132</v>
+        <v>4700510.875820133</v>
       </c>
       <c r="E52">
-        <v>6802140.12389655</v>
+        <v>6802140.123896552</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,16 +1255,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1099108.15567394</v>
+        <v>1099108.155673941</v>
       </c>
       <c r="C53">
-        <v>2448703.2134018</v>
+        <v>2448703.213401801</v>
       </c>
       <c r="D53">
-        <v>5233776.224823692</v>
+        <v>5233776.224823694</v>
       </c>
       <c r="E53">
-        <v>8164017.350104827</v>
+        <v>8164017.350104828</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1275,13 +1275,13 @@
         <v>967829.0245015686</v>
       </c>
       <c r="C54">
-        <v>2120602.736078037</v>
+        <v>2120602.736078036</v>
       </c>
       <c r="D54">
-        <v>4795990.309457789</v>
+        <v>4795990.309457788</v>
       </c>
       <c r="E54">
-        <v>7861645.357907942</v>
+        <v>7861645.35790794</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3760288.827981151</v>
+        <v>3760288.82798115</v>
       </c>
       <c r="C55">
-        <v>6547351.502397289</v>
+        <v>6547351.502397292</v>
       </c>
       <c r="D55">
         <v>11051350.82596171</v>
@@ -1306,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4280801.435894665</v>
+        <v>4280801.435894663</v>
       </c>
       <c r="C56">
         <v>10342061.27459137</v>
@@ -1315,7 +1315,7 @@
         <v>20714277.43478781</v>
       </c>
       <c r="E56">
-        <v>32360445.62151045</v>
+        <v>32360445.62151043</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3443173.659697909</v>
+        <v>3443173.65969791</v>
       </c>
       <c r="C57">
-        <v>7501975.433709249</v>
+        <v>7501975.433709252</v>
       </c>
       <c r="D57">
         <v>17171976.59286454</v>
       </c>
       <c r="E57">
-        <v>28950132.96390453</v>
+        <v>28950132.96390454</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1346,10 +1346,10 @@
         <v>1069872.732336634</v>
       </c>
       <c r="D58">
-        <v>2094659.377603501</v>
+        <v>2094659.3776035</v>
       </c>
       <c r="E58">
-        <v>3105693.970928228</v>
+        <v>3105693.970928227</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1363,10 +1363,10 @@
         <v>1069872.732336634</v>
       </c>
       <c r="D59">
-        <v>2094659.377603501</v>
+        <v>2094659.3776035</v>
       </c>
       <c r="E59">
-        <v>3105693.970928228</v>
+        <v>3105693.970928227</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,10 +1380,10 @@
         <v>2493255.497462496</v>
       </c>
       <c r="D60">
-        <v>5081008.283733319</v>
+        <v>5081008.283733323</v>
       </c>
       <c r="E60">
-        <v>7020019.682719056</v>
+        <v>7020019.682719057</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1394,13 +1394,13 @@
         <v>1532349.329175268</v>
       </c>
       <c r="C61">
-        <v>2611279.426336461</v>
+        <v>2611279.42633646</v>
       </c>
       <c r="D61">
-        <v>4850053.36174544</v>
+        <v>4850053.361745445</v>
       </c>
       <c r="E61">
-        <v>5858433.692053313</v>
+        <v>5858433.692053314</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>243146.6309303276</v>
+        <v>243146.6309303275</v>
       </c>
       <c r="C62">
         <v>570372.701602158</v>
       </c>
       <c r="D62">
-        <v>1618085.81112954</v>
+        <v>1618085.811129541</v>
       </c>
       <c r="E62">
         <v>2626703.245066655</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>299880.8448140707</v>
+        <v>299880.8448140706</v>
       </c>
       <c r="C63">
         <v>629376.7741816916</v>
       </c>
       <c r="D63">
-        <v>1504535.929646766</v>
+        <v>1504535.929646767</v>
       </c>
       <c r="E63">
         <v>1970027.433799991</v>
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>325502.2018224527</v>
+        <v>325502.2018224528</v>
       </c>
       <c r="C64">
-        <v>725316.776063025</v>
+        <v>725316.7760630249</v>
       </c>
       <c r="D64">
-        <v>1910969.385171094</v>
+        <v>1910969.385171092</v>
       </c>
       <c r="E64">
-        <v>2503567.032578062</v>
+        <v>2503567.032578059</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,16 +1459,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>300463.5709130333</v>
+        <v>300463.5709130334</v>
       </c>
       <c r="C65">
-        <v>708642.8271880129</v>
+        <v>708642.8271880128</v>
       </c>
       <c r="D65">
-        <v>1937147.047981656</v>
+        <v>1937147.047981655</v>
       </c>
       <c r="E65">
-        <v>2767100.404428384</v>
+        <v>2767100.404428381</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1476,16 +1476,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>878975.5060622339</v>
+        <v>878975.5060622343</v>
       </c>
       <c r="C66">
         <v>1847816.271548459</v>
       </c>
       <c r="D66">
-        <v>3900539.030063089</v>
+        <v>3900539.030063091</v>
       </c>
       <c r="E66">
-        <v>6048773.307662437</v>
+        <v>6048773.30766244</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>586517.5787221276</v>
+        <v>586517.5787221277</v>
       </c>
       <c r="C67">
         <v>1504440.335730762</v>
       </c>
       <c r="D67">
-        <v>4303959.199435833</v>
+        <v>4303959.199435836</v>
       </c>
       <c r="E67">
         <v>8809952.8159284</v>
@@ -1510,16 +1510,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>709941.7548964197</v>
+        <v>709941.7548964201</v>
       </c>
       <c r="C68">
         <v>1602924.958451675</v>
       </c>
       <c r="D68">
-        <v>4039843.995422485</v>
+        <v>4039843.995422487</v>
       </c>
       <c r="E68">
-        <v>7543176.124849628</v>
+        <v>7543176.124849631</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1527,13 +1527,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>844585.3133598637</v>
+        <v>844585.3133598638</v>
       </c>
       <c r="C69">
-        <v>1782183.166942595</v>
+        <v>1782183.166942596</v>
       </c>
       <c r="D69">
-        <v>4064850.355022731</v>
+        <v>4064850.355022734</v>
       </c>
       <c r="E69">
         <v>6989714.630819226</v>
@@ -1544,13 +1544,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>668630.0397432254</v>
+        <v>668630.0397432256</v>
       </c>
       <c r="C70">
         <v>1643311.751336679</v>
       </c>
       <c r="D70">
-        <v>4256137.430553213</v>
+        <v>4256137.430553216</v>
       </c>
       <c r="E70">
         <v>7936238.487075996</v>
@@ -1584,7 +1584,7 @@
         <v>1990490.29035147</v>
       </c>
       <c r="D72">
-        <v>3921385.04837487</v>
+        <v>3921385.048374873</v>
       </c>
       <c r="E72">
         <v>5606333.610136254</v>
@@ -1601,7 +1601,7 @@
         <v>1967345.054417151</v>
       </c>
       <c r="D73">
-        <v>3873563.27949225</v>
+        <v>3873563.279492252</v>
       </c>
       <c r="E73">
         <v>5460714.55532752</v>
@@ -1618,7 +1618,7 @@
         <v>2106216.470023067</v>
       </c>
       <c r="D74">
-        <v>3825741.51060963</v>
+        <v>3825741.510609631</v>
       </c>
       <c r="E74">
         <v>4878238.336092585</v>
@@ -1632,13 +1632,13 @@
         <v>1208781.442957303</v>
       </c>
       <c r="C75">
-        <v>2153610.032199049</v>
+        <v>2153610.032199048</v>
       </c>
       <c r="D75">
-        <v>3964164.963335888</v>
+        <v>3964164.963335887</v>
       </c>
       <c r="E75">
-        <v>4596823.55722845</v>
+        <v>4596823.557228453</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1646,13 +1646,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>914967.422806519</v>
+        <v>914967.4228065191</v>
       </c>
       <c r="C76">
         <v>1921054.582548512</v>
       </c>
       <c r="D76">
-        <v>4017028.586140111</v>
+        <v>4017028.586140113</v>
       </c>
       <c r="E76">
         <v>6188809.82937119</v>
@@ -1663,13 +1663,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2136665.703806395</v>
+        <v>2136665.703806394</v>
       </c>
       <c r="C77">
-        <v>4168573.794732995</v>
+        <v>4168573.794732994</v>
       </c>
       <c r="D77">
-        <v>8540092.416400883</v>
+        <v>8540092.416400889</v>
       </c>
       <c r="E77">
         <v>12770727.96916575</v>
@@ -1680,13 +1680,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1420772.55562384</v>
+        <v>1420772.555623839</v>
       </c>
       <c r="C78">
-        <v>3946841.146076985</v>
+        <v>3946841.146076984</v>
       </c>
       <c r="D78">
-        <v>9384716.941099871</v>
+        <v>9384716.941099878</v>
       </c>
       <c r="E78">
         <v>15873221.2046128</v>
@@ -1697,16 +1697,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2643297.777904819</v>
+        <v>2643297.777904817</v>
       </c>
       <c r="C79">
         <v>4412479.708254606</v>
       </c>
       <c r="D79">
-        <v>7977009.399934891</v>
+        <v>7977009.399934897</v>
       </c>
       <c r="E79">
-        <v>10173291.77204729</v>
+        <v>10173291.7720473</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1714,13 +1714,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2489105.407527037</v>
+        <v>2489105.407527036</v>
       </c>
       <c r="C80">
         <v>4301613.383926601</v>
       </c>
       <c r="D80">
-        <v>8164703.738756889</v>
+        <v>8164703.738756894</v>
       </c>
       <c r="E80">
         <v>10966952.83227793</v>
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>489736.8736853671</v>
+        <v>489736.8736853668</v>
       </c>
       <c r="C81">
         <v>915282.1434212178</v>
@@ -1740,7 +1740,7 @@
         <v>1774734.478506581</v>
       </c>
       <c r="E81">
-        <v>2650781.501623449</v>
+        <v>2650781.501623451</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>547352.9764718809</v>
+        <v>547352.9764718805</v>
       </c>
       <c r="C82">
         <v>1026225.433532881</v>
@@ -1757,7 +1757,7 @@
         <v>1722536.405609329</v>
       </c>
       <c r="E82">
-        <v>2120625.20129876</v>
+        <v>2120625.201298761</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1235472.748527423</v>
+        <v>1235472.748527422</v>
       </c>
       <c r="C83">
-        <v>2998672.903449011</v>
+        <v>2998672.903449009</v>
       </c>
       <c r="D83">
-        <v>7343733.67114287</v>
+        <v>7343733.671142863</v>
       </c>
       <c r="E83">
-        <v>12817109.28029432</v>
+        <v>12817109.28029433</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2120732.749440773</v>
+        <v>2120732.749440772</v>
       </c>
       <c r="C84">
-        <v>3654012.014798794</v>
+        <v>3654012.014798793</v>
       </c>
       <c r="D84">
-        <v>6409848.464407938</v>
+        <v>6409848.464407933</v>
       </c>
       <c r="E84">
-        <v>7389455.860577848</v>
+        <v>7389455.860577852</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1802,10 +1802,10 @@
         <v>1273672.823215986</v>
       </c>
       <c r="C85">
-        <v>2223587.039647492</v>
+        <v>2223587.039647491</v>
       </c>
       <c r="D85">
-        <v>3819441.412162827</v>
+        <v>3819441.412162825</v>
       </c>
       <c r="E85">
         <v>4757113.016282066</v>
@@ -1819,10 +1819,10 @@
         <v>1301665.632517436</v>
       </c>
       <c r="C86">
-        <v>2306971.553634273</v>
+        <v>2306971.553634272</v>
       </c>
       <c r="D86">
-        <v>3767120.29692772</v>
+        <v>3767120.296927718</v>
       </c>
       <c r="E86">
         <v>4455074.094613363</v>
@@ -1833,16 +1833,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>414286.0612616388</v>
+        <v>414286.0612616389</v>
       </c>
       <c r="C87">
-        <v>821612.8534892143</v>
+        <v>821612.8534892149</v>
       </c>
       <c r="D87">
-        <v>1497937.563460445</v>
+        <v>1497937.563460446</v>
       </c>
       <c r="E87">
-        <v>2232779.396865418</v>
+        <v>2232779.396865416</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1853,13 +1853,13 @@
         <v>385714.6087608362</v>
       </c>
       <c r="C88">
-        <v>793281.3757826897</v>
+        <v>793281.3757826902</v>
       </c>
       <c r="D88">
-        <v>1551435.333584032</v>
+        <v>1551435.333584033</v>
       </c>
       <c r="E88">
-        <v>2386764.182856136</v>
+        <v>2386764.182856135</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>442857.5137624415</v>
+        <v>442857.5137624416</v>
       </c>
       <c r="C89">
-        <v>849944.3311957389</v>
+        <v>849944.3311957396</v>
       </c>
       <c r="D89">
-        <v>1497937.563460445</v>
+        <v>1497937.563460446</v>
       </c>
       <c r="E89">
-        <v>2001802.21787934</v>
+        <v>2001802.217879339</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>75736289.14772998</v>
+        <v>75736289.14772996</v>
       </c>
       <c r="C90">
-        <v>135067074.6625151</v>
+        <v>135067074.6625152</v>
       </c>
       <c r="D90">
-        <v>207895112.9348906</v>
+        <v>207895112.9348907</v>
       </c>
       <c r="E90">
         <v>265791533.980425</v>
@@ -1904,10 +1904,10 @@
         <v>17471658.40155186</v>
       </c>
       <c r="C91">
-        <v>34634837.23854928</v>
+        <v>34634837.2385493</v>
       </c>
       <c r="D91">
-        <v>57695972.71026932</v>
+        <v>57695972.71026933</v>
       </c>
       <c r="E91">
         <v>79728708.41493817</v>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>15590491.64150277</v>
+        <v>15590491.64150276</v>
       </c>
       <c r="C92">
-        <v>32700912.31659982</v>
+        <v>32700912.31659985</v>
       </c>
       <c r="D92">
-        <v>59795239.32296691</v>
+        <v>59795239.32296692</v>
       </c>
       <c r="E92">
         <v>90755950.19351359</v>
@@ -1935,10 +1935,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>31464446.7673965</v>
+        <v>31464446.76739649</v>
       </c>
       <c r="C93">
-        <v>62281173.0545994</v>
+        <v>62281173.05459943</v>
       </c>
       <c r="D93">
         <v>112073749.8069199</v>
@@ -1952,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>20999289.79062177</v>
+        <v>20999289.79062176</v>
       </c>
       <c r="C94">
-        <v>50711722.43988448</v>
+        <v>50711722.43988447</v>
       </c>
       <c r="D94">
         <v>125905658.0991875</v>
       </c>
       <c r="E94">
-        <v>238470949.2369257</v>
+        <v>238470949.2369256</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1969,13 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9148139.723526418</v>
+        <v>9148139.723526416</v>
       </c>
       <c r="C95">
-        <v>18108569.7237085</v>
+        <v>18108569.72370852</v>
       </c>
       <c r="D95">
-        <v>30540943.30085852</v>
+        <v>30540943.30085853</v>
       </c>
       <c r="E95">
         <v>42971235.81968676</v>
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2808865.436237689</v>
+        <v>2808865.436237688</v>
       </c>
       <c r="C96">
-        <v>5845727.604983571</v>
+        <v>5845727.604983575</v>
       </c>
       <c r="D96">
         <v>10902642.73046169</v>
@@ -2003,10 +2003,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2937712.474597216</v>
+        <v>2937712.474597215</v>
       </c>
       <c r="C97">
-        <v>6153397.478930075</v>
+        <v>6153397.478930078</v>
       </c>
       <c r="D97">
         <v>11038079.2861196</v>
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3381499.939761573</v>
+        <v>3381499.939761574</v>
       </c>
       <c r="C98">
-        <v>7871483.968214624</v>
+        <v>7871483.968214623</v>
       </c>
       <c r="D98">
         <v>15229631.32116261</v>
       </c>
       <c r="E98">
-        <v>24009824.00697088</v>
+        <v>24009824.0069709</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>1753370.339135631</v>
       </c>
       <c r="C99">
-        <v>3228192.863368919</v>
+        <v>3228192.863368918</v>
       </c>
       <c r="D99">
-        <v>5330370.962406914</v>
+        <v>5330370.962406915</v>
       </c>
       <c r="E99">
-        <v>7114021.927991372</v>
+        <v>7114021.927991377</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,13 +2054,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4529780.692483447</v>
+        <v>4529780.692483445</v>
       </c>
       <c r="C100">
         <v>8095828.982288026</v>
       </c>
       <c r="D100">
-        <v>13054856.93392177</v>
+        <v>13054856.93392179</v>
       </c>
       <c r="E100">
         <v>17631452.47891011</v>
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2152271.489246279</v>
+        <v>2152271.489246278</v>
       </c>
       <c r="C101">
         <v>4329320.311383971</v>
       </c>
       <c r="D101">
-        <v>7778800.763735773</v>
+        <v>7778800.763735783</v>
       </c>
       <c r="E101">
         <v>11578864.31450813</v>
@@ -2088,13 +2088,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>450475.4279817793</v>
+        <v>450475.427981779</v>
       </c>
       <c r="C102">
         <v>779277.6560491149</v>
       </c>
       <c r="D102">
-        <v>1217551.423889078</v>
+        <v>1217551.423889079</v>
       </c>
       <c r="E102">
         <v>1578936.042887473</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2335315.786811031</v>
+        <v>2335315.786811032</v>
       </c>
       <c r="C103">
-        <v>4389551.446123942</v>
+        <v>4389551.446123943</v>
       </c>
       <c r="D103">
-        <v>7188423.868802804</v>
+        <v>7188423.868802807</v>
       </c>
       <c r="E103">
-        <v>9373281.741972795</v>
+        <v>9373281.741972797</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,7 +2122,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>5489195.870030052</v>
+        <v>5489195.870030054</v>
       </c>
       <c r="C104">
         <v>10844774.16101209</v>
@@ -2131,7 +2131,7 @@
         <v>18621440.87918441</v>
       </c>
       <c r="E104">
-        <v>25997592.75603775</v>
+        <v>25997592.75603776</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,16 +2139,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>567152.8826826761</v>
+        <v>567152.882682676</v>
       </c>
       <c r="C105">
-        <v>1400252.651027117</v>
+        <v>1400252.651027116</v>
       </c>
       <c r="D105">
-        <v>2592998.48477103</v>
+        <v>2592998.484771031</v>
       </c>
       <c r="E105">
-        <v>3717657.570045182</v>
+        <v>3717657.570045183</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2162,10 +2162,10 @@
         <v>1422028.478308399</v>
       </c>
       <c r="D106">
-        <v>2710429.638754181</v>
+        <v>2710429.63875418</v>
       </c>
       <c r="E106">
-        <v>3985536.232328359</v>
+        <v>3985536.23232836</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2176,10 +2176,10 @@
         <v>2800835.355513677</v>
       </c>
       <c r="C107">
-        <v>6192704.663601091</v>
+        <v>6192704.663601094</v>
       </c>
       <c r="D107">
-        <v>12696223.04469064</v>
+        <v>12696223.04469063</v>
       </c>
       <c r="E107">
         <v>21014645.58864044</v>
@@ -2193,13 +2193,13 @@
         <v>5759659.489030513</v>
       </c>
       <c r="C108">
-        <v>11087012.35095008</v>
+        <v>11087012.35095007</v>
       </c>
       <c r="D108">
-        <v>18770892.1738804</v>
+        <v>18770892.17388039</v>
       </c>
       <c r="E108">
-        <v>25837690.38131784</v>
+        <v>25837690.38131785</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>823835.129793342</v>
+        <v>823835.1297933417</v>
       </c>
       <c r="C109">
         <v>1832980.690963215</v>
       </c>
       <c r="D109">
-        <v>3546868.174030669</v>
+        <v>3546868.174030668</v>
       </c>
       <c r="E109">
-        <v>5561969.449993946</v>
+        <v>5561969.44999395</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>42015591.61946044</v>
+        <v>42015591.61946043</v>
       </c>
       <c r="C110">
         <v>61724559.08173805</v>
       </c>
       <c r="D110">
-        <v>84988418.17004257</v>
+        <v>84988418.17004254</v>
       </c>
       <c r="E110">
-        <v>89168081.6586331</v>
+        <v>89168081.65863317</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7202672.849050362</v>
+        <v>7202672.849050359</v>
       </c>
       <c r="C111">
         <v>13811296.36911818</v>
       </c>
       <c r="D111">
-        <v>24487032.20148097</v>
+        <v>24487032.20148096</v>
       </c>
       <c r="E111">
-        <v>36373514.49837311</v>
+        <v>36373514.49837314</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1459991.783867589</v>
+        <v>1459991.78386759</v>
       </c>
       <c r="C112">
-        <v>3231433.089070182</v>
+        <v>3231433.08907018</v>
       </c>
       <c r="D112">
-        <v>6625656.015136225</v>
+        <v>6625656.015136227</v>
       </c>
       <c r="E112">
-        <v>10835864.81276831</v>
+        <v>10835864.81276832</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,16 +2275,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>696825.610469277</v>
+        <v>696825.6104692772</v>
       </c>
       <c r="C113">
         <v>1171698.799576814</v>
       </c>
       <c r="D113">
-        <v>1900887.63752661</v>
+        <v>1900887.637526611</v>
       </c>
       <c r="E113">
-        <v>2299207.313541492</v>
+        <v>2299207.313541491</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,13 +2292,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1209148.544633124</v>
+        <v>1209148.544633123</v>
       </c>
       <c r="C114">
-        <v>2641571.57782099</v>
+        <v>2641571.577820989</v>
       </c>
       <c r="D114">
-        <v>5760678.73650719</v>
+        <v>5760678.736507188</v>
       </c>
       <c r="E114">
         <v>9408883.321273379</v>
@@ -2309,10 +2309,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>3138982.335315316</v>
+        <v>3138982.335315317</v>
       </c>
       <c r="C115">
-        <v>6069854.045685882</v>
+        <v>6069854.04568588</v>
       </c>
       <c r="D115">
         <v>10283570.27349268</v>
@@ -2326,13 +2326,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2360320.050585935</v>
+        <v>2360320.050585936</v>
       </c>
       <c r="C116">
-        <v>4672477.574736614</v>
+        <v>4672477.574736613</v>
       </c>
       <c r="D116">
-        <v>8282070.018920282</v>
+        <v>8282070.018920283</v>
       </c>
       <c r="E116">
         <v>12079324.7093155</v>
@@ -2343,16 +2343,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>394867.8459325903</v>
+        <v>394867.8459325904</v>
       </c>
       <c r="C117">
         <v>836927.7139834384</v>
       </c>
       <c r="D117">
-        <v>1493554.572342336</v>
+        <v>1493554.572342337</v>
       </c>
       <c r="E117">
-        <v>2210776.263020666</v>
+        <v>2210776.263020664</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2360,13 +2360,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>351976.7451995963</v>
+        <v>351976.7451995962</v>
       </c>
       <c r="C118">
-        <v>492299.5116043396</v>
+        <v>492299.5116043394</v>
       </c>
       <c r="D118">
-        <v>779602.335419833</v>
+        <v>779602.3354198325</v>
       </c>
       <c r="E118">
         <v>1088535.516262262</v>
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>129539.0453798448</v>
+        <v>129539.0453798449</v>
       </c>
       <c r="C119">
-        <v>239062.1812856314</v>
+        <v>239062.1812856313</v>
       </c>
       <c r="D119">
-        <v>397500.3606010452</v>
+        <v>397500.3606010451</v>
       </c>
       <c r="E119">
-        <v>524314.2884882409</v>
+        <v>524314.2884882413</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,13 +2394,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>9047551.600615829</v>
+        <v>9047551.600615835</v>
       </c>
       <c r="C120">
-        <v>20462049.4610202</v>
+        <v>20462049.46102018</v>
       </c>
       <c r="D120">
-        <v>37664631.95765191</v>
+        <v>37664631.9576519</v>
       </c>
       <c r="E120">
         <v>56631092.19490813</v>
@@ -2411,13 +2411,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>10697105.20735794</v>
+        <v>10697105.20735795</v>
       </c>
       <c r="C121">
-        <v>17037071.22505544</v>
+        <v>17037071.22505543</v>
       </c>
       <c r="D121">
-        <v>23924902.33244677</v>
+        <v>23924902.33244676</v>
       </c>
       <c r="E121">
         <v>27302703.85757624</v>
@@ -2428,16 +2428,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7867741.407492881</v>
+        <v>7867741.407492878</v>
       </c>
       <c r="C122">
-        <v>13710642.75011389</v>
+        <v>13710642.75011388</v>
       </c>
       <c r="D122">
-        <v>22064535.51829665</v>
+        <v>22064535.51829664</v>
       </c>
       <c r="E122">
-        <v>29403416.66992085</v>
+        <v>29403416.66992084</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3227791.346663746</v>
+        <v>3227791.346663745</v>
       </c>
       <c r="C123">
-        <v>6211941.699080724</v>
+        <v>6211941.699080723</v>
       </c>
       <c r="D123">
         <v>10375173.44120532</v>
       </c>
       <c r="E123">
-        <v>14301963.99956875</v>
+        <v>14301963.99956874</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1815632.632498357</v>
+        <v>1815632.632498356</v>
       </c>
       <c r="C124">
         <v>3150341.861676653</v>
       </c>
       <c r="D124">
-        <v>4565076.314130342</v>
+        <v>4565076.314130341</v>
       </c>
       <c r="E124">
-        <v>5418756.54642046</v>
+        <v>5418756.546420456</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,10 +2479,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>3849119.555395064</v>
+        <v>3849119.555395065</v>
       </c>
       <c r="C125">
-        <v>6752862.8115661</v>
+        <v>6752862.811566101</v>
       </c>
       <c r="D125">
         <v>11126854.10058199</v>
@@ -2496,13 +2496,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3744388.710975664</v>
+        <v>3744388.710975662</v>
       </c>
       <c r="C126">
-        <v>6196544.679039938</v>
+        <v>6196544.679039932</v>
       </c>
       <c r="D126">
-        <v>8329835.600530772</v>
+        <v>8329835.600530771</v>
       </c>
       <c r="E126">
         <v>8774737.228725212</v>
@@ -2513,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>5280055.637708879</v>
+        <v>5280055.637708875</v>
       </c>
       <c r="C127">
         <v>10238345.15306479</v>
       </c>
       <c r="D127">
-        <v>17180241.24532565</v>
+        <v>17180241.24532566</v>
       </c>
       <c r="E127">
-        <v>24184097.99591425</v>
+        <v>24184097.99591426</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2530,13 +2530,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>990758.5942242363</v>
+        <v>990758.594224236</v>
       </c>
       <c r="C128">
-        <v>1858435.615483219</v>
+        <v>1858435.615483221</v>
       </c>
       <c r="D128">
-        <v>3092900.76843502</v>
+        <v>3092900.768435019</v>
       </c>
       <c r="E128">
         <v>4300828.39202739</v>
@@ -2547,10 +2547,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>6412409.790395752</v>
+        <v>6412409.79039575</v>
       </c>
       <c r="C129">
-        <v>11197074.58328639</v>
+        <v>11197074.58328641</v>
       </c>
       <c r="D129">
         <v>17573299.82065352</v>
@@ -2567,10 +2567,10 @@
         <v>1693052.825221688</v>
       </c>
       <c r="C130">
-        <v>3787134.541798288</v>
+        <v>3787134.541798291</v>
       </c>
       <c r="D130">
-        <v>7298552.927959238</v>
+        <v>7298552.927959242</v>
       </c>
       <c r="E130">
         <v>11646182.95343377</v>
@@ -2581,10 +2581,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>5438290.893136332</v>
+        <v>5438290.893136333</v>
       </c>
       <c r="C131">
-        <v>8880177.54628564</v>
+        <v>8880177.546285648</v>
       </c>
       <c r="D131">
         <v>12588329.82070034</v>
@@ -2601,13 +2601,13 @@
         <v>11774412.82995083</v>
       </c>
       <c r="C132">
-        <v>22592216.40452082</v>
+        <v>22592216.40452084</v>
       </c>
       <c r="D132">
-        <v>36425805.43862225</v>
+        <v>36425805.43862227</v>
       </c>
       <c r="E132">
-        <v>49278998.01938022</v>
+        <v>49278998.01938023</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,10 +2615,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>5592204.786338303</v>
+        <v>5592204.786338304</v>
       </c>
       <c r="C133">
-        <v>9750783.188078351</v>
+        <v>9750783.188078359</v>
       </c>
       <c r="D133">
         <v>14931901.86178817</v>
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3755277.995972029</v>
+        <v>3755277.995972027</v>
       </c>
       <c r="C134">
         <v>10223898.34774982</v>
@@ -2649,10 +2649,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>5862129.57617721</v>
+        <v>5862129.576177212</v>
       </c>
       <c r="C135">
-        <v>9642359.032100931</v>
+        <v>9642359.032100946</v>
       </c>
       <c r="D135">
         <v>15478998.47543561</v>
@@ -2669,10 +2669,10 @@
         <v>7232774.715155018</v>
       </c>
       <c r="C136">
-        <v>15551011.66055607</v>
+        <v>15551011.66055608</v>
       </c>
       <c r="D136">
-        <v>29679317.81718812</v>
+        <v>29679317.81718814</v>
       </c>
       <c r="E136">
         <v>46873529.57726533</v>
@@ -2683,13 +2683,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1913826.986484317</v>
+        <v>1913826.986484318</v>
       </c>
       <c r="C137">
-        <v>3526595.540508617</v>
+        <v>3526595.54050862</v>
       </c>
       <c r="D137">
-        <v>5763617.522534301</v>
+        <v>5763617.522534303</v>
       </c>
       <c r="E137">
         <v>7985860.594645204</v>
@@ -2703,10 +2703,10 @@
         <v>4796994.914174978</v>
       </c>
       <c r="C138">
-        <v>8412842.373743448</v>
+        <v>8412842.373743454</v>
       </c>
       <c r="D138">
-        <v>13315943.93137235</v>
+        <v>13315943.93137236</v>
       </c>
       <c r="E138">
         <v>17707777.84030024</v>
@@ -2717,13 +2717,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>24406115.88260166</v>
+        <v>24406115.88260164</v>
       </c>
       <c r="C139">
-        <v>55178321.70202293</v>
+        <v>55178321.70202296</v>
       </c>
       <c r="D139">
-        <v>95475844.56681956</v>
+        <v>95475844.56681959</v>
       </c>
       <c r="E139">
         <v>135228588.1036216</v>
@@ -2734,13 +2734,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7960850.976449172</v>
+        <v>7960850.976449176</v>
       </c>
       <c r="C140">
-        <v>18758520.82593735</v>
+        <v>18758520.82593737</v>
       </c>
       <c r="D140">
-        <v>33000332.63598402</v>
+        <v>33000332.63598404</v>
       </c>
       <c r="E140">
         <v>47562719.22595564</v>
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>8637149.20011181</v>
+        <v>8637149.200111803</v>
       </c>
       <c r="C141">
-        <v>18746209.21775106</v>
+        <v>18746209.21775108</v>
       </c>
       <c r="D141">
-        <v>32643582.71499321</v>
+        <v>32643582.71499322</v>
       </c>
       <c r="E141">
-        <v>46926662.06803032</v>
+        <v>46926662.06803033</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,13 +2768,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1381943.87201789</v>
+        <v>1381943.872017889</v>
       </c>
       <c r="C142">
-        <v>2968856.663444738</v>
+        <v>2968856.663444741</v>
       </c>
       <c r="D142">
-        <v>6170433.318077984</v>
+        <v>6170433.318077986</v>
       </c>
       <c r="E142">
         <v>10408871.43838011</v>
@@ -2788,10 +2788,10 @@
         <v>6853528.741803</v>
       </c>
       <c r="C143">
-        <v>16267111.30579031</v>
+        <v>16267111.30579032</v>
       </c>
       <c r="D143">
-        <v>32854476.78835669</v>
+        <v>32854476.78835668</v>
       </c>
       <c r="E143">
         <v>53734978.05289638</v>
@@ -2805,10 +2805,10 @@
         <v>2566864.697304494</v>
       </c>
       <c r="C144">
-        <v>5261599.344190937</v>
+        <v>5261599.344190939</v>
       </c>
       <c r="D144">
-        <v>10681085.04642049</v>
+        <v>10681085.04642048</v>
       </c>
       <c r="E144">
         <v>17911659.35096546</v>
@@ -2822,10 +2822,10 @@
         <v>3157243.577684528</v>
       </c>
       <c r="C145">
-        <v>7936245.677487995</v>
+        <v>7936245.677488</v>
       </c>
       <c r="D145">
-        <v>20348143.03147194</v>
+        <v>20348143.03147193</v>
       </c>
       <c r="E145">
         <v>39230902.67601703</v>
@@ -2836,13 +2836,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>5339087.979986163</v>
+        <v>5339087.979986161</v>
       </c>
       <c r="C146">
-        <v>12451518.62373757</v>
+        <v>12451518.62373758</v>
       </c>
       <c r="D146">
-        <v>21228546.18334946</v>
+        <v>21228546.18334945</v>
       </c>
       <c r="E146">
         <v>29747396.37818945</v>
@@ -2853,13 +2853,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>4622502.758474655</v>
+        <v>4622502.758474654</v>
       </c>
       <c r="C147">
         <v>9347017.379821448</v>
       </c>
       <c r="D147">
-        <v>19136294.59303245</v>
+        <v>19136294.59303246</v>
       </c>
       <c r="E147">
         <v>32649282.16919054</v>
@@ -2870,10 +2870,10 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>3917946.895614599</v>
+        <v>3917946.8956146</v>
       </c>
       <c r="C148">
-        <v>7449871.25359844</v>
+        <v>7449871.253598437</v>
       </c>
       <c r="D148">
         <v>12643558.54516079</v>
@@ -2890,13 +2890,13 @@
         <v>2289841.93628736</v>
       </c>
       <c r="C149">
-        <v>4012114.651003684</v>
+        <v>4012114.651003683</v>
       </c>
       <c r="D149">
         <v>6623906.6254265</v>
       </c>
       <c r="E149">
-        <v>9155097.194791298</v>
+        <v>9155097.194791293</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>1226701.0372968</v>
       </c>
       <c r="C150">
-        <v>2334321.251493053</v>
+        <v>2334321.251493052</v>
       </c>
       <c r="D150">
         <v>4034561.308214323</v>
       </c>
       <c r="E150">
-        <v>5803677.68598377</v>
+        <v>5803677.685983766</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2921,7 +2921,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>9650048.160068162</v>
+        <v>9650048.16006816</v>
       </c>
       <c r="C151">
         <v>16267301.22134221</v>
@@ -2930,7 +2930,7 @@
         <v>23123455.85603433</v>
       </c>
       <c r="E151">
-        <v>25176517.28567607</v>
+        <v>25176517.28567605</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>2453402.0745936</v>
       </c>
       <c r="C152">
-        <v>4923958.889868158</v>
+        <v>4923958.889868157</v>
       </c>
       <c r="D152">
-        <v>8611078.613054451</v>
+        <v>8611078.613054449</v>
       </c>
       <c r="E152">
-        <v>12343032.82512041</v>
+        <v>12343032.8251204</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2958,13 +2958,13 @@
         <v>18133154.59693138</v>
       </c>
       <c r="C153">
-        <v>29605895.43479844</v>
+        <v>29605895.43479845</v>
       </c>
       <c r="D153">
-        <v>45365548.74856491</v>
+        <v>45365548.74856487</v>
       </c>
       <c r="E153">
-        <v>56917451.39596778</v>
+        <v>56917451.39596776</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2975,10 +2975,10 @@
         <v>3635663.624042283</v>
       </c>
       <c r="C154">
-        <v>6989190.168957721</v>
+        <v>6989190.168957723</v>
       </c>
       <c r="D154">
-        <v>12008527.60991424</v>
+        <v>12008527.60991423</v>
       </c>
       <c r="E154">
         <v>16990283.99879635</v>
@@ -2989,16 +2989,16 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>8554367.383127464</v>
+        <v>8554367.383127462</v>
       </c>
       <c r="C155">
-        <v>14493407.12930547</v>
+        <v>14493407.12930546</v>
       </c>
       <c r="D155">
-        <v>23820981.4256921</v>
+        <v>23820981.42569208</v>
       </c>
       <c r="E155">
-        <v>32320377.8654606</v>
+        <v>32320377.86546059</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,10 +3009,10 @@
         <v>2844824.501830761</v>
       </c>
       <c r="C156">
-        <v>5352481.289959335</v>
+        <v>5352481.289959331</v>
       </c>
       <c r="D156">
-        <v>9250866.573084312</v>
+        <v>9250866.573084302</v>
       </c>
       <c r="E156">
         <v>13214735.77750359</v>
@@ -3023,13 +3023,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2992555.061384291</v>
+        <v>2992555.06138429</v>
       </c>
       <c r="C157">
-        <v>5307345.89121607</v>
+        <v>5307345.891216069</v>
       </c>
       <c r="D157">
-        <v>8992460.389273591</v>
+        <v>8992460.389273588</v>
       </c>
       <c r="E157">
         <v>12788700.61306084</v>
@@ -3040,16 +3040,16 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>8169208.416555157</v>
+        <v>8169208.41655516</v>
       </c>
       <c r="C158">
         <v>15218972.09773743</v>
       </c>
       <c r="D158">
-        <v>25472985.71851825</v>
+        <v>25472985.71851824</v>
       </c>
       <c r="E158">
-        <v>34638171.17132244</v>
+        <v>34638171.17132245</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3057,16 +3057,16 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7095253.516978787</v>
+        <v>7095253.516978786</v>
       </c>
       <c r="C159">
         <v>14124858.0567909</v>
       </c>
       <c r="D159">
-        <v>27296626.77705667</v>
+        <v>27296626.77705668</v>
       </c>
       <c r="E159">
-        <v>43845086.79685807</v>
+        <v>43845086.79685805</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>1229625.890329495</v>
       </c>
       <c r="C160">
-        <v>2451382.193725477</v>
+        <v>2451382.193725476</v>
       </c>
       <c r="D160">
-        <v>4603995.196239886</v>
+        <v>4603995.196239881</v>
       </c>
       <c r="E160">
-        <v>7104322.139763944</v>
+        <v>7104322.139763942</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>6060595.820887289</v>
+        <v>6060595.820887287</v>
       </c>
       <c r="C161">
-        <v>12254787.46365963</v>
+        <v>12254787.46365962</v>
       </c>
       <c r="D161">
         <v>22607931.56382912</v>
       </c>
       <c r="E161">
-        <v>34217062.07659037</v>
+        <v>34217062.07659036</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3108,13 +3108,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>3616068.408577101</v>
+        <v>3616068.408577102</v>
       </c>
       <c r="C162">
         <v>9017102.054619972</v>
       </c>
       <c r="D162">
-        <v>19339953.81375032</v>
+        <v>19339953.81375031</v>
       </c>
       <c r="E162">
         <v>33214340.65384507</v>
@@ -3128,13 +3128,13 @@
         <v>4202024.708564764</v>
       </c>
       <c r="C163">
-        <v>8132416.13065228</v>
+        <v>8132416.130652282</v>
       </c>
       <c r="D163">
         <v>13966704.18450323</v>
       </c>
       <c r="E163">
-        <v>20620840.62232382</v>
+        <v>20620840.62232381</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>550966.6381958072</v>
+        <v>550966.6381958069</v>
       </c>
       <c r="C164">
-        <v>1366705.87701695</v>
+        <v>1366705.877016949</v>
       </c>
       <c r="D164">
-        <v>2843716.866377623</v>
+        <v>2843716.866377622</v>
       </c>
       <c r="E164">
-        <v>4728714.813770705</v>
+        <v>4728714.813770702</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,10 +3159,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4624139.300068074</v>
+        <v>4624139.300068075</v>
       </c>
       <c r="C165">
-        <v>8345757.289165678</v>
+        <v>8345757.289165679</v>
       </c>
       <c r="D165">
         <v>13737958.67055747</v>
@@ -3179,10 +3179,10 @@
         <v>1744192.893885326</v>
       </c>
       <c r="C166">
-        <v>3810019.632010418</v>
+        <v>3810019.632010419</v>
       </c>
       <c r="D166">
-        <v>8134317.633882713</v>
+        <v>8134317.633882714</v>
       </c>
       <c r="E166">
         <v>14052607.54448041</v>
@@ -3193,13 +3193,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>8542649.554130562</v>
+        <v>8542649.55413056</v>
       </c>
       <c r="C167">
         <v>16534334.42501205</v>
       </c>
       <c r="D167">
-        <v>30610416.32490707</v>
+        <v>30610416.32490706</v>
       </c>
       <c r="E167">
         <v>47866979.41619813</v>
@@ -3210,10 +3210,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>509507.382869792</v>
+        <v>509507.3828697921</v>
       </c>
       <c r="C168">
-        <v>758717.3005285969</v>
+        <v>758717.3005285963</v>
       </c>
       <c r="D168">
         <v>1042213.828119418</v>
@@ -3230,13 +3230,13 @@
         <v>3773822.970475426</v>
       </c>
       <c r="C169">
-        <v>7651416.649755539</v>
+        <v>7651416.649755542</v>
       </c>
       <c r="D169">
         <v>13407110.38391442</v>
       </c>
       <c r="E169">
-        <v>19794137.43848618</v>
+        <v>19794137.43848619</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3244,16 +3244,16 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>8232442.572367902</v>
+        <v>8232442.572367908</v>
       </c>
       <c r="C170">
         <v>17662762.14261771</v>
       </c>
       <c r="D170">
-        <v>32533474.63530813</v>
+        <v>32533474.63530816</v>
       </c>
       <c r="E170">
-        <v>49460262.3621547</v>
+        <v>49460262.36215466</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3264,7 +3264,7 @@
         <v>3260377.668369926</v>
       </c>
       <c r="C171">
-        <v>6112338.588023103</v>
+        <v>6112338.588023106</v>
       </c>
       <c r="D171">
         <v>11511155.38012854</v>
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2982769.047959385</v>
+        <v>2982769.047959387</v>
       </c>
       <c r="C172">
         <v>5236489.482281957</v>
       </c>
       <c r="D172">
-        <v>7936593.610629604</v>
+        <v>7936593.610629611</v>
       </c>
       <c r="E172">
-        <v>9840261.62178994</v>
+        <v>9840261.621789932</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7421129.391322949</v>
+        <v>7421129.391322954</v>
       </c>
       <c r="C173">
         <v>14462685.23677874</v>
       </c>
       <c r="D173">
-        <v>27089364.96851262</v>
+        <v>27089364.96851264</v>
       </c>
       <c r="E173">
-        <v>42554815.6100214</v>
+        <v>42554815.61002138</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3312,7 +3312,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>14967319.72144216</v>
+        <v>14967319.72144214</v>
       </c>
       <c r="C174">
         <v>29708979.03072809</v>
@@ -3321,7 +3321,7 @@
         <v>55491127.63923553</v>
       </c>
       <c r="E174">
-        <v>86675968.10275465</v>
+        <v>86675968.10275462</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3335,7 +3335,7 @@
         <v>123048907.9451557</v>
       </c>
       <c r="D175">
-        <v>174722064.1074995</v>
+        <v>174722064.1074996</v>
       </c>
       <c r="E175">
         <v>204613609.0982392</v>
@@ -3349,13 +3349,13 @@
         <v>8188301.466920258</v>
       </c>
       <c r="C176">
-        <v>14834135.76358202</v>
+        <v>14834135.76358203</v>
       </c>
       <c r="D176">
         <v>24516371.19495126</v>
       </c>
       <c r="E176">
-        <v>34073475.08505082</v>
+        <v>34073475.08505084</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>5655045.700591804</v>
       </c>
       <c r="C177">
-        <v>12865002.6976198</v>
+        <v>12865002.69761981</v>
       </c>
       <c r="D177">
         <v>26014593.87908717</v>
       </c>
       <c r="E177">
-        <v>42658220.75582986</v>
+        <v>42658220.75582989</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,13 +3380,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>2258611.307426601</v>
+        <v>2258611.307426602</v>
       </c>
       <c r="C178">
-        <v>4837394.687674155</v>
+        <v>4837394.687674153</v>
       </c>
       <c r="D178">
-        <v>9225805.953441003</v>
+        <v>9225805.953441005</v>
       </c>
       <c r="E178">
         <v>14608545.09153946</v>
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>9346762.483028127</v>
+        <v>9346762.483028132</v>
       </c>
       <c r="C179">
         <v>16674220.58588432</v>
       </c>
       <c r="D179">
-        <v>30045276.2296868</v>
+        <v>30045276.22968681</v>
       </c>
       <c r="E179">
-        <v>44612525.0412086</v>
+        <v>44612525.04120857</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3423,7 +3423,7 @@
         <v>1937585.461429402</v>
       </c>
       <c r="E180">
-        <v>2500426.04950497</v>
+        <v>2500426.049504969</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3440,7 +3440,7 @@
         <v>69199.48076533577</v>
       </c>
       <c r="E181">
-        <v>89300.9303394632</v>
+        <v>89300.93033946319</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3451,13 +3451,13 @@
         <v>36455687.84563607</v>
       </c>
       <c r="C182">
-        <v>56482053.29388837</v>
+        <v>56482053.29388842</v>
       </c>
       <c r="D182">
-        <v>85700924.12286766</v>
+        <v>85700924.12286764</v>
       </c>
       <c r="E182">
-        <v>105959145.0940953</v>
+        <v>105959145.0940954</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,16 +3465,16 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1938615.39229109</v>
+        <v>1938615.392291089</v>
       </c>
       <c r="C183">
-        <v>2604295.730447871</v>
+        <v>2604295.730447872</v>
       </c>
       <c r="D183">
         <v>3361291.236295783</v>
       </c>
       <c r="E183">
-        <v>3176700.245363284</v>
+        <v>3176700.245363285</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>457843.3120074641</v>
+        <v>457843.3120074644</v>
       </c>
       <c r="C184">
-        <v>735735.4734881812</v>
+        <v>735735.4734881815</v>
       </c>
       <c r="D184">
         <v>923784.3556474014</v>
       </c>
       <c r="E184">
-        <v>784777.1384587889</v>
+        <v>784777.1384587886</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,7 +3499,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>5906178.724896287</v>
+        <v>5906178.724896291</v>
       </c>
       <c r="C185">
         <v>11403899.83906681</v>
@@ -3508,7 +3508,7 @@
         <v>19663409.85592326</v>
       </c>
       <c r="E185">
-        <v>28600766.82383142</v>
+        <v>28600766.82383141</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3516,10 +3516,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2501574.135676402</v>
+        <v>2501574.135676401</v>
       </c>
       <c r="C186">
-        <v>5367015.27819961</v>
+        <v>5367015.278199609</v>
       </c>
       <c r="D186">
         <v>10092797.07045392</v>
@@ -3533,10 +3533,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1017096.058770733</v>
+        <v>1017096.058770732</v>
       </c>
       <c r="C187">
-        <v>2123057.672166199</v>
+        <v>2123057.672166198</v>
       </c>
       <c r="D187">
         <v>4128827.46509392</v>
@@ -3553,13 +3553,13 @@
         <v>3024420.200007049</v>
       </c>
       <c r="C188">
-        <v>4777397.493715701</v>
+        <v>4777397.493715703</v>
       </c>
       <c r="D188">
-        <v>7029292.501590879</v>
+        <v>7029292.501590881</v>
       </c>
       <c r="E188">
-        <v>8236384.287226785</v>
+        <v>8236384.287226791</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3570,13 +3570,13 @@
         <v>41754405.49506135</v>
       </c>
       <c r="C189">
-        <v>73564153.27721575</v>
+        <v>73564153.27721579</v>
       </c>
       <c r="D189">
         <v>122948716.118735</v>
       </c>
       <c r="E189">
-        <v>169360651.9061008</v>
+        <v>169360651.9061009</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3587,13 +3587,13 @@
         <v>13337910.66621814</v>
       </c>
       <c r="C190">
-        <v>27188441.02114627</v>
+        <v>27188441.02114628</v>
       </c>
       <c r="D190">
-        <v>46137719.87407831</v>
+        <v>46137719.87407833</v>
       </c>
       <c r="E190">
-        <v>65719482.95849705</v>
+        <v>65719482.9584971</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,7 +3601,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>608768.5346475641</v>
+        <v>608768.5346475643</v>
       </c>
       <c r="C191">
         <v>1243252.67128224</v>
@@ -3610,7 +3610,7 @@
         <v>2261728.92856656</v>
       </c>
       <c r="E191">
-        <v>3326167.876199251</v>
+        <v>3326167.87619925</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,10 +3618,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>2571525.884439211</v>
+        <v>2571525.88443921</v>
       </c>
       <c r="C192">
-        <v>5001779.939510197</v>
+        <v>5001779.939510196</v>
       </c>
       <c r="D192">
         <v>8750649.25437816</v>
@@ -3635,13 +3635,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7007395.546383233</v>
+        <v>7007395.54638323</v>
       </c>
       <c r="C193">
         <v>13507479.37151799</v>
       </c>
       <c r="D193">
-        <v>23945178.00315186</v>
+        <v>23945178.00315189</v>
       </c>
       <c r="E193">
         <v>34736592.9435244</v>
@@ -3652,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>4279516.565826903</v>
+        <v>4279516.565826901</v>
       </c>
       <c r="C194">
         <v>8398881.404084904</v>
       </c>
       <c r="D194">
-        <v>15692885.01901478</v>
+        <v>15692885.0190148</v>
       </c>
       <c r="E194">
         <v>24648946.00285443</v>
@@ -3672,13 +3672,13 @@
         <v>11603863.8275843</v>
       </c>
       <c r="C195">
-        <v>27395589.49883736</v>
+        <v>27395589.49883737</v>
       </c>
       <c r="D195">
-        <v>50175094.92161911</v>
+        <v>50175094.92161912</v>
       </c>
       <c r="E195">
-        <v>76023501.31241596</v>
+        <v>76023501.31241599</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>2615526.5208789</v>
       </c>
       <c r="C196">
-        <v>5393717.508467483</v>
+        <v>5393717.508467487</v>
       </c>
       <c r="D196">
         <v>10626784.16319735</v>
       </c>
       <c r="E196">
-        <v>17190213.60467678</v>
+        <v>17190213.60467677</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3723,13 +3723,13 @@
         <v>1763043.222821956</v>
       </c>
       <c r="C198">
-        <v>3400087.857902306</v>
+        <v>3400087.857902308</v>
       </c>
       <c r="D198">
-        <v>5731308.22916449</v>
+        <v>5731308.229164488</v>
       </c>
       <c r="E198">
-        <v>7810422.765996464</v>
+        <v>7810422.765996465</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3737,13 +3737,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>4458232.874242485</v>
+        <v>4458232.874242483</v>
       </c>
       <c r="C199">
-        <v>7825073.640820878</v>
+        <v>7825073.640820875</v>
       </c>
       <c r="D199">
-        <v>12385154.99328199</v>
+        <v>12385154.99328198</v>
       </c>
       <c r="E199">
         <v>15833775.55529771</v>
@@ -3754,10 +3754,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>3494290.631163029</v>
+        <v>3494290.631163027</v>
       </c>
       <c r="C200">
-        <v>7528989.773330358</v>
+        <v>7528989.773330355</v>
       </c>
       <c r="D200">
         <v>13596746.24262479</v>
@@ -3771,13 +3771,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>3929184.942135202</v>
+        <v>3929184.942135206</v>
       </c>
       <c r="C201">
         <v>8462456.445394425</v>
       </c>
       <c r="D201">
-        <v>14426557.73298041</v>
+        <v>14426557.73298042</v>
       </c>
       <c r="E201">
         <v>19806649.95784572</v>
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>30826214.4254129</v>
+        <v>30826214.42541289</v>
       </c>
       <c r="C202">
         <v>75290809.55648051</v>
       </c>
       <c r="D202">
-        <v>168488736.03126</v>
+        <v>168488736.0312601</v>
       </c>
       <c r="E202">
         <v>291627678.2349861</v>
@@ -3811,7 +3811,7 @@
         <v>19147488.74331584</v>
       </c>
       <c r="D203">
-        <v>33751677.33110724</v>
+        <v>33751677.33110725</v>
       </c>
       <c r="E203">
         <v>49459680.65012269</v>
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>3695048.426224445</v>
+        <v>3695048.426224443</v>
       </c>
       <c r="C204">
-        <v>6912013.880026399</v>
+        <v>6912013.880026402</v>
       </c>
       <c r="D204">
-        <v>11269754.18450893</v>
+        <v>11269754.18450894</v>
       </c>
       <c r="E204">
-        <v>14900743.86799221</v>
+        <v>14900743.8679922</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,10 +3839,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>468404.8779492844</v>
+        <v>468404.8779492842</v>
       </c>
       <c r="C205">
-        <v>959843.469035518</v>
+        <v>959843.4690355181</v>
       </c>
       <c r="D205">
         <v>1682562.156889842</v>
@@ -3862,7 +3862,7 @@
         <v>25707198.9715339</v>
       </c>
       <c r="D206">
-        <v>38559924.39795643</v>
+        <v>38559924.39795644</v>
       </c>
       <c r="E206">
         <v>44774973.25441141</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1931288.795510065</v>
+        <v>1931288.795510064</v>
       </c>
       <c r="C207">
-        <v>3523636.871197385</v>
+        <v>3523636.871197384</v>
       </c>
       <c r="D207">
-        <v>5541381.284006794</v>
+        <v>5541381.284006796</v>
       </c>
       <c r="E207">
-        <v>6891997.882534701</v>
+        <v>6891997.882534698</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1760378.282633068</v>
+        <v>1760378.282633067</v>
       </c>
       <c r="C208">
-        <v>3366331.653733216</v>
+        <v>3366331.653733215</v>
       </c>
       <c r="D208">
-        <v>5646931.403702162</v>
+        <v>5646931.403702163</v>
       </c>
       <c r="E208">
-        <v>7538122.684022329</v>
+        <v>7538122.684022326</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3910,10 +3910,10 @@
         <v>11727783.60396142</v>
       </c>
       <c r="C209">
-        <v>23027952.6407276</v>
+        <v>23027952.64072759</v>
       </c>
       <c r="D209">
-        <v>40084255.23067213</v>
+        <v>40084255.23067214</v>
       </c>
       <c r="E209">
         <v>56557860.95294073</v>
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1401466.205591375</v>
+        <v>1401466.205591374</v>
       </c>
       <c r="C210">
-        <v>3146104.34928338</v>
+        <v>3146104.349283379</v>
       </c>
       <c r="D210">
-        <v>5910806.70294058</v>
+        <v>5910806.702940582</v>
       </c>
       <c r="E210">
-        <v>8973955.576217059</v>
+        <v>8973955.576217055</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,16 +3941,16 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>25637149.16956419</v>
+        <v>25637149.16956418</v>
       </c>
       <c r="C211">
-        <v>40098453.84269024</v>
+        <v>40098453.84269021</v>
       </c>
       <c r="D211">
         <v>60476964.22807283</v>
       </c>
       <c r="E211">
-        <v>73551283.8535682</v>
+        <v>73551283.85356823</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3958,7 +3958,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>9309200.342364907</v>
+        <v>9309200.342364902</v>
       </c>
       <c r="C212">
         <v>16455691.61225384</v>
@@ -3967,7 +3967,7 @@
         <v>27168560.81298119</v>
       </c>
       <c r="E212">
-        <v>36575608.75024461</v>
+        <v>36575608.75024462</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3975,16 +3975,16 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1589467.769756071</v>
+        <v>1589467.76975607</v>
       </c>
       <c r="C213">
-        <v>3114643.305790546</v>
+        <v>3114643.305790545</v>
       </c>
       <c r="D213">
-        <v>5699706.463549846</v>
+        <v>5699706.463549847</v>
       </c>
       <c r="E213">
-        <v>8614997.353168376</v>
+        <v>8614997.353168372</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>1123876.460351456</v>
       </c>
       <c r="C214">
-        <v>2126413.33854977</v>
+        <v>2126413.338549769</v>
       </c>
       <c r="D214">
-        <v>3594015.110428385</v>
+        <v>3594015.110428386</v>
       </c>
       <c r="E214">
-        <v>4757199.086134408</v>
+        <v>4757199.086134406</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>936563.716959547</v>
+        <v>936563.7169595466</v>
       </c>
       <c r="C215">
-        <v>1896530.815463309</v>
+        <v>1896530.815463308</v>
       </c>
       <c r="D215">
-        <v>3692481.277837382</v>
+        <v>3692481.277837383</v>
       </c>
       <c r="E215">
-        <v>5844558.877250844</v>
+        <v>5844558.877250841</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,7 +4026,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>3523611.006460465</v>
+        <v>3523611.006460464</v>
       </c>
       <c r="C216">
         <v>6736327.498461064</v>
@@ -4035,7 +4035,7 @@
         <v>11228495.46894205</v>
       </c>
       <c r="E216">
-        <v>15044999.18752813</v>
+        <v>15044999.18752811</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4043,16 +4043,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1416873.118154789</v>
+        <v>1416873.11815479</v>
       </c>
       <c r="C217">
         <v>3490170.720557744</v>
       </c>
       <c r="D217">
-        <v>8994875.191065356</v>
+        <v>8994875.191065365</v>
       </c>
       <c r="E217">
-        <v>17524862.41745103</v>
+        <v>17524862.41745104</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,10 +4063,10 @@
         <v>2894102.601681212</v>
       </c>
       <c r="C218">
-        <v>5129619.650000477</v>
+        <v>5129619.650000478</v>
       </c>
       <c r="D218">
-        <v>8361537.099464786</v>
+        <v>8361537.099464791</v>
       </c>
       <c r="E218">
         <v>10760617.69973049</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2606385.952855426</v>
+        <v>2606385.952855425</v>
       </c>
       <c r="C219">
-        <v>5189281.904347909</v>
+        <v>5189281.904347911</v>
       </c>
       <c r="D219">
-        <v>8668988.454763705</v>
+        <v>8668988.454763701</v>
       </c>
       <c r="E219">
         <v>11229860.49010035</v>
@@ -4094,13 +4094,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2947838.900469334</v>
+        <v>2947838.900469335</v>
       </c>
       <c r="C220">
-        <v>5644295.416643638</v>
+        <v>5644295.416643635</v>
       </c>
       <c r="D220">
-        <v>9656283.942735057</v>
+        <v>9656283.94273505</v>
       </c>
       <c r="E220">
         <v>13399958.48094004</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1988377.64477293</v>
+        <v>1988377.644772929</v>
       </c>
       <c r="C221">
-        <v>3717412.409628034</v>
+        <v>3717412.409628035</v>
       </c>
       <c r="D221">
-        <v>5976842.062949466</v>
+        <v>5976842.062949467</v>
       </c>
       <c r="E221">
-        <v>7520686.620470036</v>
+        <v>7520686.620470035</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,13 +4128,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1990010.896436913</v>
+        <v>1990010.896436912</v>
       </c>
       <c r="C222">
-        <v>4375276.899744315</v>
+        <v>4375276.899744317</v>
       </c>
       <c r="D222">
-        <v>9013451.572171533</v>
+        <v>9013451.57217153</v>
       </c>
       <c r="E222">
         <v>14869884.23516736</v>
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>2511714.14829946</v>
+        <v>2511714.148299461</v>
       </c>
       <c r="C223">
         <v>4083266.877054585</v>
       </c>
       <c r="D223">
-        <v>5766686.144542995</v>
+        <v>5766686.144542993</v>
       </c>
       <c r="E223">
-        <v>6116450.057779478</v>
+        <v>6116450.057779474</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>1549712.762028859</v>
       </c>
       <c r="C224">
-        <v>2908454.737490859</v>
+        <v>2908454.737490857</v>
       </c>
       <c r="D224">
         <v>5062936.052263347</v>
       </c>
       <c r="E224">
-        <v>7090222.706386959</v>
+        <v>7090222.706386964</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,16 +4179,16 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1647569.84165345</v>
+        <v>1647569.841653449</v>
       </c>
       <c r="C225">
-        <v>2895498.830317338</v>
+        <v>2895498.830317336</v>
       </c>
       <c r="D225">
-        <v>4658475.698635171</v>
+        <v>4658475.698635173</v>
       </c>
       <c r="E225">
-        <v>5824051.938626334</v>
+        <v>5824051.938626336</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4202,10 +4202,10 @@
         <v>2792763.647884534</v>
       </c>
       <c r="D226">
-        <v>4978369.613810024</v>
+        <v>4978369.613810023</v>
       </c>
       <c r="E226">
-        <v>7110722.958780777</v>
+        <v>7110722.958780775</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1561133.280224005</v>
+        <v>1561133.280224004</v>
       </c>
       <c r="C227">
-        <v>2875579.472389701</v>
+        <v>2875579.472389699</v>
       </c>
       <c r="D227">
-        <v>5395501.073815559</v>
+        <v>5395501.073815563</v>
       </c>
       <c r="E227">
-        <v>8381633.621664433</v>
+        <v>8381633.621664436</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4233,13 +4233,13 @@
         <v>15246913.24556685</v>
       </c>
       <c r="C228">
-        <v>23747252.80100034</v>
+        <v>23747252.80100033</v>
       </c>
       <c r="D228">
-        <v>33883988.64729008</v>
+        <v>33883988.64729007</v>
       </c>
       <c r="E228">
-        <v>35638577.67352528</v>
+        <v>35638577.67352527</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,16 +4247,16 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>2851504.295878833</v>
+        <v>2851504.295878834</v>
       </c>
       <c r="C229">
-        <v>5827551.76133986</v>
+        <v>5827551.761339857</v>
       </c>
       <c r="D229">
-        <v>9776987.492019245</v>
+        <v>9776987.49201924</v>
       </c>
       <c r="E229">
-        <v>12998762.11923524</v>
+        <v>12998762.11923525</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4264,13 +4264,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1936049.343285795</v>
+        <v>1936049.343285794</v>
       </c>
       <c r="C230">
-        <v>3539121.24281195</v>
+        <v>3539121.242811952</v>
       </c>
       <c r="D230">
-        <v>5757620.728518158</v>
+        <v>5757620.728518155</v>
       </c>
       <c r="E230">
         <v>7447306.200218759</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>6506556.115386823</v>
+        <v>6506556.115386824</v>
       </c>
       <c r="C231">
         <v>16509241.06767521</v>
@@ -4290,7 +4290,7 @@
         <v>30557559.57053315</v>
       </c>
       <c r="E231">
-        <v>44657810.62378394</v>
+        <v>44657810.62378392</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>1252168.637278621</v>
       </c>
       <c r="C232">
-        <v>2697931.333257667</v>
+        <v>2697931.333257668</v>
       </c>
       <c r="D232">
-        <v>5479035.239890292</v>
+        <v>5479035.239890293</v>
       </c>
       <c r="E232">
-        <v>8905347.443786869</v>
+        <v>8905347.443786874</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>1297315.174546883</v>
       </c>
       <c r="C233">
-        <v>2792824.314056952</v>
+        <v>2792824.314056951</v>
       </c>
       <c r="D233">
         <v>5627285.366485955</v>
       </c>
       <c r="E233">
-        <v>9098618.897133691</v>
+        <v>9098618.897133678</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4332,16 +4332,16 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>8190786.671252963</v>
+        <v>8190786.671252961</v>
       </c>
       <c r="C234">
         <v>15411493.21762451</v>
       </c>
       <c r="D234">
-        <v>25388359.38504069</v>
+        <v>25388359.38504068</v>
       </c>
       <c r="E234">
-        <v>33570753.13498519</v>
+        <v>33570753.13498522</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4349,16 +4349,16 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7318619.571999175</v>
+        <v>7318619.571999174</v>
       </c>
       <c r="C235">
         <v>14589070.14568631</v>
       </c>
       <c r="D235">
-        <v>25984330.2626238</v>
+        <v>25984330.26262379</v>
       </c>
       <c r="E235">
-        <v>37478037.94166993</v>
+        <v>37478037.94166996</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4375,7 +4375,7 @@
         <v>23719640.92780796</v>
       </c>
       <c r="E236">
-        <v>24241113.90269715</v>
+        <v>24241113.90269716</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4383,16 +4383,16 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1612987.882714343</v>
+        <v>1612987.882714344</v>
       </c>
       <c r="C237">
-        <v>3158556.968431685</v>
+        <v>3158556.968431683</v>
       </c>
       <c r="D237">
-        <v>5638111.484467447</v>
+        <v>5638111.48446745</v>
       </c>
       <c r="E237">
-        <v>8077133.529327175</v>
+        <v>8077133.529327173</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>1652964.649648946</v>
       </c>
       <c r="C238">
-        <v>3012511.828217782</v>
+        <v>3012511.82821778</v>
       </c>
       <c r="D238">
-        <v>5348988.133524045</v>
+        <v>5348988.133524049</v>
       </c>
       <c r="E238">
-        <v>7801366.678626126</v>
+        <v>7801366.678626128</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,10 +4420,10 @@
         <v>2529614.51929772</v>
       </c>
       <c r="C239">
-        <v>3627935.676225246</v>
+        <v>3627935.676225245</v>
       </c>
       <c r="D239">
-        <v>5101424.347575557</v>
+        <v>5101424.347575559</v>
       </c>
       <c r="E239">
         <v>5500991.295004846</v>
@@ -4434,10 +4434,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>2294957.658404213</v>
+        <v>2294957.658404212</v>
       </c>
       <c r="C240">
-        <v>4445722.301874915</v>
+        <v>4445722.301874914</v>
       </c>
       <c r="D240">
         <v>8234338.168260768</v>
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>594034.5280623656</v>
+        <v>594034.5280623657</v>
       </c>
       <c r="C241">
         <v>1009363.640409542</v>
       </c>
       <c r="D241">
-        <v>1474972.822358348</v>
+        <v>1474972.822358349</v>
       </c>
       <c r="E241">
         <v>1713689.533879591</v>
@@ -4471,13 +4471,13 @@
         <v>1464168.992969157</v>
       </c>
       <c r="C242">
-        <v>3257161.349388372</v>
+        <v>3257161.349388374</v>
       </c>
       <c r="D242">
-        <v>6395221.007355928</v>
+        <v>6395221.007355929</v>
       </c>
       <c r="E242">
-        <v>10000913.05913569</v>
+        <v>10000913.05913568</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4488,13 +4488,13 @@
         <v>2194885.311151518</v>
       </c>
       <c r="C243">
-        <v>4693026.955982704</v>
+        <v>4693026.955982705</v>
       </c>
       <c r="D243">
-        <v>8166070.316779104</v>
+        <v>8166070.316779109</v>
       </c>
       <c r="E243">
-        <v>11265319.47452006</v>
+        <v>11265319.47452007</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1879920.68233077</v>
+        <v>1879920.682330769</v>
       </c>
       <c r="C244">
-        <v>3540392.771074318</v>
+        <v>3540392.771074319</v>
       </c>
       <c r="D244">
-        <v>6036610.48357896</v>
+        <v>6036610.483578961</v>
       </c>
       <c r="E244">
-        <v>8240752.360727806</v>
+        <v>8240752.360727804</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,13 +4519,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1898123.623819796</v>
+        <v>1898123.623819797</v>
       </c>
       <c r="C245">
-        <v>4355136.018355747</v>
+        <v>4355136.018355749</v>
       </c>
       <c r="D245">
-        <v>8697848.585389944</v>
+        <v>8697848.58538994</v>
       </c>
       <c r="E245">
         <v>13715984.15530911</v>
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>553822.0927141426</v>
+        <v>553822.0927141428</v>
       </c>
       <c r="C246">
-        <v>1594645.258165526</v>
+        <v>1594645.258165527</v>
       </c>
       <c r="D246">
-        <v>4620244.967056798</v>
+        <v>4620244.967056799</v>
       </c>
       <c r="E246">
-        <v>9266296.167656668</v>
+        <v>9266296.167656658</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>553822.0927141426</v>
+        <v>553822.0927141428</v>
       </c>
       <c r="C247">
-        <v>1594645.258165526</v>
+        <v>1594645.258165527</v>
       </c>
       <c r="D247">
-        <v>4620244.967056798</v>
+        <v>4620244.967056799</v>
       </c>
       <c r="E247">
-        <v>9266296.167656668</v>
+        <v>9266296.167656658</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>28204773.04065499</v>
       </c>
       <c r="C248">
-        <v>44204933.82809214</v>
+        <v>44204933.82809213</v>
       </c>
       <c r="D248">
-        <v>63187392.1937692</v>
+        <v>63187392.19376918</v>
       </c>
       <c r="E248">
-        <v>71068698.6080066</v>
+        <v>71068698.60800655</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4590,13 +4590,13 @@
         <v>14518746.82350761</v>
       </c>
       <c r="C249">
-        <v>22993814.69803088</v>
+        <v>22993814.69803087</v>
       </c>
       <c r="D249">
         <v>34423386.44051756</v>
       </c>
       <c r="E249">
-        <v>39437263.27826151</v>
+        <v>39437263.2782615</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4607,10 +4607,10 @@
         <v>10843775.95354087</v>
       </c>
       <c r="C250">
-        <v>21214786.71443613</v>
+        <v>21214786.71443614</v>
       </c>
       <c r="D250">
-        <v>33550368.06490182</v>
+        <v>33550368.06490183</v>
       </c>
       <c r="E250">
         <v>42493884.74411581</v>
@@ -4621,13 +4621,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>6172953.396024985</v>
+        <v>6172953.396024988</v>
       </c>
       <c r="C251">
         <v>12240678.74700932</v>
       </c>
       <c r="D251">
-        <v>20628104.27121778</v>
+        <v>20628104.2712178</v>
       </c>
       <c r="E251">
         <v>28518280.94479566</v>
@@ -4638,13 +4638,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>2471475.881451549</v>
+        <v>2471475.881451548</v>
       </c>
       <c r="C252">
-        <v>5874783.527286626</v>
+        <v>5874783.527286625</v>
       </c>
       <c r="D252">
-        <v>12511719.94537084</v>
+        <v>12511719.94537083</v>
       </c>
       <c r="E252">
         <v>20956329.73575943</v>
@@ -4655,13 +4655,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>318995.6955632589</v>
+        <v>318995.695563259</v>
       </c>
       <c r="C253">
-        <v>530626.4473115093</v>
+        <v>530626.4473115089</v>
       </c>
       <c r="D253">
-        <v>800980.6866184643</v>
+        <v>800980.6866184645</v>
       </c>
       <c r="E253">
         <v>954778.0363813547</v>
@@ -4672,7 +4672,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>6622945.571224924</v>
+        <v>6622945.571224925</v>
       </c>
       <c r="C254">
         <v>11256671.25306978</v>
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>340262.0752674761</v>
+        <v>340262.0752674763</v>
       </c>
       <c r="C255">
-        <v>571443.8663354716</v>
+        <v>571443.8663354712</v>
       </c>
       <c r="D255">
-        <v>800980.6866184643</v>
+        <v>800980.6866184645</v>
       </c>
       <c r="E255">
         <v>781182.0297665629</v>
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>1931380.473212074</v>
+        <v>1931380.473212075</v>
       </c>
       <c r="C256">
-        <v>3509273.46863411</v>
+        <v>3509273.468634113</v>
       </c>
       <c r="D256">
-        <v>5603910.104967529</v>
+        <v>5603910.104967527</v>
       </c>
       <c r="E256">
-        <v>6957292.801884892</v>
+        <v>6957292.801884891</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4723,16 +4723,16 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>701129.7376336307</v>
+        <v>701129.7376336304</v>
       </c>
       <c r="C257">
         <v>1242822.071026365</v>
       </c>
       <c r="D257">
-        <v>1972288.6891334</v>
+        <v>1972288.689133402</v>
       </c>
       <c r="E257">
-        <v>2336399.060707934</v>
+        <v>2336399.060707932</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>594975.4147380709</v>
+        <v>594975.4147380713</v>
       </c>
       <c r="C258">
         <v>1205172.673024362</v>
@@ -4749,7 +4749,7 @@
         <v>2326280.297766876</v>
       </c>
       <c r="E258">
-        <v>3397225.679198945</v>
+        <v>3397225.679198946</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>609849.8001065227</v>
+        <v>609849.8001065231</v>
       </c>
       <c r="C259">
         <v>1265431.30667558</v>
@@ -4766,7 +4766,7 @@
         <v>2270892.67162957</v>
       </c>
       <c r="E259">
-        <v>3165596.655617198</v>
+        <v>3165596.6556172</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4774,16 +4774,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>3666236.460500752</v>
+        <v>3666236.460500755</v>
       </c>
       <c r="C260">
-        <v>9253622.013431631</v>
+        <v>9253622.013431633</v>
       </c>
       <c r="D260">
         <v>22320084.74053315</v>
       </c>
       <c r="E260">
-        <v>35499681.8295016</v>
+        <v>35499681.82950159</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>726908.7545544673</v>
+        <v>726908.7545544674</v>
       </c>
       <c r="C261">
         <v>1540168.478861436</v>
       </c>
       <c r="D261">
-        <v>4134060.776807244</v>
+        <v>4134060.776807245</v>
       </c>
       <c r="E261">
-        <v>6055792.99092872</v>
+        <v>6055792.990928714</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,16 +4808,16 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>604363.8986901988</v>
+        <v>604363.898690199</v>
       </c>
       <c r="C262">
         <v>1578971.906651371</v>
       </c>
       <c r="D262">
-        <v>4489808.34234074</v>
+        <v>4489808.342340743</v>
       </c>
       <c r="E262">
-        <v>8409825.505456304</v>
+        <v>8409825.505456308</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,16 +4825,16 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>926318.7900739763</v>
+        <v>926318.7900739756</v>
       </c>
       <c r="C263">
         <v>1933172.317292248</v>
       </c>
       <c r="D263">
-        <v>4227383.082703143</v>
+        <v>4227383.082703145</v>
       </c>
       <c r="E263">
-        <v>5978768.854464658</v>
+        <v>5978768.854464661</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>379805.227113342</v>
       </c>
       <c r="C264">
-        <v>830732.1946005105</v>
+        <v>830732.1946005106</v>
       </c>
       <c r="D264">
         <v>2049023.712297939</v>
       </c>
       <c r="E264">
-        <v>3241141.065075787</v>
+        <v>3241141.065075788</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4859,16 +4859,16 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>373776.5727147176</v>
+        <v>373776.5727147175</v>
       </c>
       <c r="C265">
-        <v>830732.1946005105</v>
+        <v>830732.1946005106</v>
       </c>
       <c r="D265">
         <v>2049023.712297939</v>
       </c>
       <c r="E265">
-        <v>3304692.850665508</v>
+        <v>3304692.850665509</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,7 +4876,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>367642.3681299139</v>
+        <v>367642.368129914</v>
       </c>
       <c r="C266">
         <v>998461.0224164636</v>
@@ -4885,7 +4885,7 @@
         <v>2476515.219233503</v>
       </c>
       <c r="E266">
-        <v>4334306.389705025</v>
+        <v>4334306.389705027</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4893,16 +4893,16 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>440091.7710995868</v>
+        <v>440091.7710995867</v>
       </c>
       <c r="C267">
-        <v>916670.0078350462</v>
+        <v>916670.0078350463</v>
       </c>
       <c r="D267">
         <v>1973133.945175793</v>
       </c>
       <c r="E267">
-        <v>2478519.637999131</v>
+        <v>2478519.637999132</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,16 +4910,16 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>584869.1128599162</v>
+        <v>584869.1128599163</v>
       </c>
       <c r="C268">
         <v>1443907.948932597</v>
       </c>
       <c r="D268">
-        <v>4398640.666522908</v>
+        <v>4398640.666522909</v>
       </c>
       <c r="E268">
-        <v>7627970.01741983</v>
+        <v>7627970.017419823</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>706020.5719523274</v>
+        <v>706020.5719523275</v>
       </c>
       <c r="C269">
         <v>1540168.478861436</v>
       </c>
       <c r="D269">
-        <v>4167133.263021702</v>
+        <v>4167133.263021703</v>
       </c>
       <c r="E269">
-        <v>6172250.54844658</v>
+        <v>6172250.548446574</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>611464.9751559733</v>
+        <v>611464.9751559737</v>
       </c>
       <c r="C270">
         <v>1466638.521253671</v>
       </c>
       <c r="D270">
-        <v>3832783.158882247</v>
+        <v>3832783.158882248</v>
       </c>
       <c r="E270">
-        <v>6414356.052230422</v>
+        <v>6414356.052230421</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>215952.2236921206</v>
+        <v>215952.2236921203</v>
       </c>
       <c r="C271">
-        <v>427045.5591082361</v>
+        <v>427045.5591082362</v>
       </c>
       <c r="D271">
-        <v>918541.9233069235</v>
+        <v>918541.9233069243</v>
       </c>
       <c r="E271">
         <v>1136631.468311462</v>
@@ -4978,16 +4978,16 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>155686.4868478079</v>
+        <v>155686.4868478077</v>
       </c>
       <c r="C272">
-        <v>357794.9279014951</v>
+        <v>357794.9279014952</v>
       </c>
       <c r="D272">
-        <v>1013563.501580053</v>
+        <v>1013563.501580054</v>
       </c>
       <c r="E272">
-        <v>1786135.16448944</v>
+        <v>1786135.164489441</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -4998,13 +4998,13 @@
         <v>486408.5135424365</v>
       </c>
       <c r="C273">
-        <v>1099442.15639939</v>
+        <v>1099442.156399389</v>
       </c>
       <c r="D273">
-        <v>2674741.240580376</v>
+        <v>2674741.240580377</v>
       </c>
       <c r="E273">
-        <v>4197955.522340253</v>
+        <v>4197955.522340249</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5015,13 +5015,13 @@
         <v>589170.8755584442</v>
       </c>
       <c r="C274">
-        <v>1197899.662942619</v>
+        <v>1197899.662942618</v>
       </c>
       <c r="D274">
         <v>2551291.644861282</v>
       </c>
       <c r="E274">
-        <v>3198442.302735431</v>
+        <v>3198442.302735428</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,16 +5029,16 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1092429.460537202</v>
+        <v>1092429.460537201</v>
       </c>
       <c r="C275">
         <v>2473727.736938372</v>
       </c>
       <c r="D275">
-        <v>5847720.014932575</v>
+        <v>5847720.014932573</v>
       </c>
       <c r="E275">
-        <v>9185755.554710651</v>
+        <v>9185755.554710647</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5046,16 +5046,16 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>249956.8393174877</v>
+        <v>249956.8393174876</v>
       </c>
       <c r="C276">
-        <v>593685.1061104569</v>
+        <v>593685.1061104567</v>
       </c>
       <c r="D276">
         <v>1530388.082866447</v>
       </c>
       <c r="E276">
-        <v>2372282.489650934</v>
+        <v>2372282.489650936</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,16 +5063,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1956106.456009787</v>
+        <v>1956106.456009786</v>
       </c>
       <c r="C277">
-        <v>3420833.913106038</v>
+        <v>3420833.91310604</v>
       </c>
       <c r="D277">
-        <v>6036789.090766414</v>
+        <v>6036789.090766415</v>
       </c>
       <c r="E277">
-        <v>7372924.067166306</v>
+        <v>7372924.067166303</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>1279532.965115884</v>
       </c>
       <c r="C278">
-        <v>2519387.893341508</v>
+        <v>2519387.893341509</v>
       </c>
       <c r="D278">
-        <v>4665841.741251224</v>
+        <v>4665841.741251225</v>
       </c>
       <c r="E278">
-        <v>6565135.936793511</v>
+        <v>6565135.936793507</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,10 +5097,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>507032.212208605</v>
+        <v>507032.2122086047</v>
       </c>
       <c r="C279">
-        <v>890503.357872281</v>
+        <v>890503.3578722811</v>
       </c>
       <c r="D279">
         <v>1406509.380639979</v>
@@ -5114,10 +5114,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>521518.8468431366</v>
+        <v>521518.8468431362</v>
       </c>
       <c r="C280">
-        <v>890503.357872281</v>
+        <v>890503.3578722811</v>
       </c>
       <c r="D280">
         <v>1406509.380639979</v>
@@ -5134,7 +5134,7 @@
         <v>1676965.13134551</v>
       </c>
       <c r="C281">
-        <v>3304890.490823288</v>
+        <v>3304890.49082329</v>
       </c>
       <c r="D281">
         <v>7172053.416058864</v>
@@ -5157,7 +5157,7 @@
         <v>2134495.97107309</v>
       </c>
       <c r="E282">
-        <v>2301375.757336875</v>
+        <v>2301375.757336874</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5174,7 +5174,7 @@
         <v>2196365.419509991</v>
       </c>
       <c r="E283">
-        <v>2595168.407209667</v>
+        <v>2595168.407209666</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5191,7 +5191,7 @@
         <v>2320104.316383793</v>
       </c>
       <c r="E284">
-        <v>3329650.031891649</v>
+        <v>3329650.031891648</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5199,16 +5199,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>351003.221169238</v>
+        <v>351003.2211692379</v>
       </c>
       <c r="C285">
-        <v>654265.2189788709</v>
+        <v>654265.2189788707</v>
       </c>
       <c r="D285">
         <v>1374226.033594361</v>
       </c>
       <c r="E285">
-        <v>1581521.65976729</v>
+        <v>1581521.659767291</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,10 +5216,10 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>593952.0200157944</v>
+        <v>593952.020015794</v>
       </c>
       <c r="C286">
-        <v>918331.5878057898</v>
+        <v>918331.5878057899</v>
       </c>
       <c r="D286">
         <v>1406509.380639979</v>
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>3723451.124032652</v>
+        <v>3723451.12403265</v>
       </c>
       <c r="C287">
         <v>7914937.451122245</v>
       </c>
       <c r="D287">
-        <v>14633923.01658754</v>
+        <v>14633923.01658755</v>
       </c>
       <c r="E287">
-        <v>20923638.57735977</v>
+        <v>20923638.57735976</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5253,10 +5253,10 @@
         <v>1609675.896533794</v>
       </c>
       <c r="C288">
-        <v>3741066.523924404</v>
+        <v>3741066.523924402</v>
       </c>
       <c r="D288">
-        <v>8096667.464551496</v>
+        <v>8096667.4645515</v>
       </c>
       <c r="E288">
         <v>13284739.86055677</v>
@@ -5267,10 +5267,10 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>52493266.33573891</v>
+        <v>52493266.33573887</v>
       </c>
       <c r="C289">
-        <v>88156005.24604103</v>
+        <v>88156005.24604113</v>
       </c>
       <c r="D289">
         <v>138231857.4543979</v>
@@ -5284,7 +5284,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>3088576.969243675</v>
+        <v>3088576.969243673</v>
       </c>
       <c r="C290">
         <v>7028201.720083653</v>
@@ -5307,10 +5307,10 @@
         <v>4595480.048478702</v>
       </c>
       <c r="D291">
-        <v>7719789.659435609</v>
+        <v>7719789.659435611</v>
       </c>
       <c r="E291">
-        <v>9241216.446248671</v>
+        <v>9241216.446248673</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>384292.3251812143</v>
+        <v>384292.3251812146</v>
       </c>
       <c r="C292">
-        <v>773178.6931592232</v>
+        <v>773178.6931592234</v>
       </c>
       <c r="D292">
-        <v>1443159.975097659</v>
+        <v>1443159.975097658</v>
       </c>
       <c r="E292">
-        <v>1974874.718014288</v>
+        <v>1974874.718014287</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,7 +5335,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>1713526.331713</v>
+        <v>1713526.331713001</v>
       </c>
       <c r="C293">
         <v>3685094.240966051</v>
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>498156.7178275</v>
+        <v>498156.7178275004</v>
       </c>
       <c r="C294">
-        <v>859087.4368435813</v>
+        <v>859087.4368435816</v>
       </c>
       <c r="D294">
-        <v>1336259.236201536</v>
+        <v>1336259.236201535</v>
       </c>
       <c r="E294">
-        <v>1443177.678548903</v>
+        <v>1443177.678548902</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>3939159.216611374</v>
+        <v>3939159.216611375</v>
       </c>
       <c r="C295">
         <v>8203246.397997928</v>
       </c>
       <c r="D295">
-        <v>16828199.64415355</v>
+        <v>16828199.64415356</v>
       </c>
       <c r="E295">
-        <v>25069536.00111868</v>
+        <v>25069536.00111867</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,10 +5389,10 @@
         <v>1694388.436893499</v>
       </c>
       <c r="C296">
-        <v>3451533.427076499</v>
+        <v>3451533.427076497</v>
       </c>
       <c r="D296">
-        <v>6998142.089568446</v>
+        <v>6998142.08956845</v>
       </c>
       <c r="E296">
         <v>10471818.01751149</v>
@@ -5406,7 +5406,7 @@
         <v>1106930.374027704</v>
       </c>
       <c r="C297">
-        <v>2759495.360776878</v>
+        <v>2759495.360776879</v>
       </c>
       <c r="D297">
         <v>7812450.841640276</v>
@@ -5420,16 +5420,16 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>4111791.833013024</v>
+        <v>4111791.833013023</v>
       </c>
       <c r="C298">
-        <v>9536206.475756001</v>
+        <v>9536206.475756004</v>
       </c>
       <c r="D298">
-        <v>20971808.65023323</v>
+        <v>20971808.65023324</v>
       </c>
       <c r="E298">
-        <v>33566245.86390566</v>
+        <v>33566245.86390568</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5437,13 +5437,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>4739254.014684932</v>
+        <v>4739254.014684935</v>
       </c>
       <c r="C299">
-        <v>11947983.53844223</v>
+        <v>11947983.53844222</v>
       </c>
       <c r="D299">
-        <v>27195488.83692095</v>
+        <v>27195488.83692096</v>
       </c>
       <c r="E299">
         <v>44424498.76659608</v>
@@ -5454,13 +5454,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>4576029.269596446</v>
+        <v>4576029.269596447</v>
       </c>
       <c r="C300">
         <v>8647296.772818329</v>
       </c>
       <c r="D300">
-        <v>16160792.29282735</v>
+        <v>16160792.29282736</v>
       </c>
       <c r="E300">
         <v>21559800.96096206</v>
@@ -5474,13 +5474,13 @@
         <v>1668291.721977692</v>
       </c>
       <c r="C301">
-        <v>3500330.992588295</v>
+        <v>3500330.992588296</v>
       </c>
       <c r="D301">
-        <v>7276698.640333164</v>
+        <v>7276698.640333163</v>
       </c>
       <c r="E301">
-        <v>11175138.40357701</v>
+        <v>11175138.403577</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5488,7 +5488,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>6586056.076627239</v>
+        <v>6586056.076627237</v>
       </c>
       <c r="C302">
         <v>11636027.45817613</v>
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>6586056.076627239</v>
+        <v>6586056.076627237</v>
       </c>
       <c r="C303">
         <v>11636027.45817613</v>
@@ -5545,7 +5545,7 @@
         <v>1426017.275065026</v>
       </c>
       <c r="D305">
-        <v>3281133.675230723</v>
+        <v>3281133.675230724</v>
       </c>
       <c r="E305">
         <v>5522674.092009814</v>
@@ -5579,7 +5579,7 @@
         <v>1539193.249276536</v>
       </c>
       <c r="D307">
-        <v>3187386.998795559</v>
+        <v>3187386.99879556</v>
       </c>
       <c r="E307">
         <v>4885442.466008682</v>
@@ -5590,7 +5590,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>174311.4418178073</v>
+        <v>174311.4418178074</v>
       </c>
       <c r="C308">
         <v>470789.8677899914</v>
@@ -5599,7 +5599,7 @@
         <v>1250312.653097586</v>
       </c>
       <c r="E308">
-        <v>2321117.00450767</v>
+        <v>2321117.004507669</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>911658.5202321357</v>
+        <v>911658.5202321355</v>
       </c>
       <c r="C310">
         <v>1632405.467337969</v>
@@ -5633,7 +5633,7 @@
         <v>3149519.323600912</v>
       </c>
       <c r="E310">
-        <v>4430327.057492475</v>
+        <v>4430327.057492476</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5647,7 +5647,7 @@
         <v>414080.5179219567</v>
       </c>
       <c r="D311">
-        <v>938515.0194254061</v>
+        <v>938515.0194254058</v>
       </c>
       <c r="E311">
         <v>1399002.368491867</v>
@@ -5661,10 +5661,10 @@
         <v>254677.0172101592</v>
       </c>
       <c r="C312">
-        <v>439960.5502920789</v>
+        <v>439960.550292079</v>
       </c>
       <c r="D312">
-        <v>906152.432548668</v>
+        <v>906152.4325486677</v>
       </c>
       <c r="E312">
         <v>1129963.4514742</v>
@@ -5678,10 +5678,10 @@
         <v>248613.2787051554</v>
       </c>
       <c r="C313">
-        <v>439960.5502920789</v>
+        <v>439960.550292079</v>
       </c>
       <c r="D313">
-        <v>906152.432548668</v>
+        <v>906152.4325486677</v>
       </c>
       <c r="E313">
         <v>1129963.4514742</v>
@@ -5698,10 +5698,10 @@
         <v>414080.5179219567</v>
       </c>
       <c r="D314">
-        <v>970877.6063021444</v>
+        <v>970877.6063021439</v>
       </c>
       <c r="E314">
-        <v>1506617.935298934</v>
+        <v>1506617.935298933</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,16 +5709,16 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>11531334.13079024</v>
+        <v>11531334.13079025</v>
       </c>
       <c r="C315">
         <v>20145700.7809978</v>
       </c>
       <c r="D315">
-        <v>33037834.50035227</v>
+        <v>33037834.50035228</v>
       </c>
       <c r="E315">
-        <v>42852192.1351983</v>
+        <v>42852192.13519832</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>18432120.94241657</v>
+        <v>18432120.94241658</v>
       </c>
       <c r="C316">
         <v>32636517.44166195</v>
       </c>
       <c r="D316">
-        <v>53886376.10203013</v>
+        <v>53886376.10203014</v>
       </c>
       <c r="E316">
-        <v>72220724.83612888</v>
+        <v>72220724.83612892</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5746,13 +5746,13 @@
         <v>5034451.656295301</v>
       </c>
       <c r="C317">
-        <v>9841791.219669903</v>
+        <v>9841791.219669912</v>
       </c>
       <c r="D317">
         <v>17530592.75957095</v>
       </c>
       <c r="E317">
-        <v>25310756.45713032</v>
+        <v>25310756.45713035</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,10 +5763,10 @@
         <v>2512578.194361757</v>
       </c>
       <c r="C318">
-        <v>5156342.052401844</v>
+        <v>5156342.052401842</v>
       </c>
       <c r="D318">
-        <v>9251572.48300379</v>
+        <v>9251572.483003793</v>
       </c>
       <c r="E318">
         <v>13083025.19463217</v>
@@ -5780,7 +5780,7 @@
         <v>1793430.47195483</v>
       </c>
       <c r="C319">
-        <v>3621768.442739771</v>
+        <v>3621768.442739769</v>
       </c>
       <c r="D319">
         <v>6521187.870835915</v>
@@ -5800,10 +5800,10 @@
         <v>3541682.841820776</v>
       </c>
       <c r="D320">
-        <v>6214684.58364712</v>
+        <v>6214684.583647123</v>
       </c>
       <c r="E320">
-        <v>8492855.675494729</v>
+        <v>8492855.67549473</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>8354002.884506168</v>
+        <v>8354002.884506173</v>
       </c>
       <c r="C321">
         <v>16716649.38518389</v>
       </c>
       <c r="D321">
-        <v>28819192.57800114</v>
+        <v>28819192.57800116</v>
       </c>
       <c r="E321">
-        <v>39018877.2966236</v>
+        <v>39018877.29662362</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5828,7 +5828,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>6164078.426071901</v>
+        <v>6164078.426071905</v>
       </c>
       <c r="C322">
         <v>10036446.4722637</v>
@@ -5837,7 +5837,7 @@
         <v>15353450.57790284</v>
       </c>
       <c r="E322">
-        <v>18064086.44844202</v>
+        <v>18064086.44844203</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5848,13 +5848,13 @@
         <v>1353401.935550117</v>
       </c>
       <c r="C323">
-        <v>2956831.861576465</v>
+        <v>2956831.861576463</v>
       </c>
       <c r="D323">
-        <v>5915114.584650403</v>
+        <v>5915114.584650399</v>
       </c>
       <c r="E323">
-        <v>9210986.476665428</v>
+        <v>9210986.476665432</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5865,13 +5865,13 @@
         <v>1490455.296112154</v>
       </c>
       <c r="C324">
-        <v>3055392.923629014</v>
+        <v>3055392.923629012</v>
       </c>
       <c r="D324">
-        <v>5797983.602776137</v>
+        <v>5797983.602776133</v>
       </c>
       <c r="E324">
-        <v>8558881.23937938</v>
+        <v>8558881.239379384</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5882,13 +5882,13 @@
         <v>1250611.915128589</v>
       </c>
       <c r="C325">
-        <v>2825417.112173067</v>
+        <v>2825417.112173065</v>
       </c>
       <c r="D325">
-        <v>5973680.075587535</v>
+        <v>5973680.075587532</v>
       </c>
       <c r="E325">
-        <v>9863091.713951476</v>
+        <v>9863091.71395148</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,10 +5896,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>2958886.469241817</v>
+        <v>2958886.469241814</v>
       </c>
       <c r="C326">
-        <v>6802506.368030732</v>
+        <v>6802506.368030736</v>
       </c>
       <c r="D326">
         <v>13270264.69890547</v>
@@ -5916,10 +5916,10 @@
         <v>1558009.106738416</v>
       </c>
       <c r="C327">
-        <v>3655053.982209744</v>
+        <v>3655053.982209743</v>
       </c>
       <c r="D327">
-        <v>7096645.691200146</v>
+        <v>7096645.691200144</v>
       </c>
       <c r="E327">
         <v>10686610.91884139</v>
@@ -5930,13 +5930,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>1778162.567473192</v>
+        <v>1778162.567473193</v>
       </c>
       <c r="C328">
-        <v>3655053.982209744</v>
+        <v>3655053.982209743</v>
       </c>
       <c r="D328">
-        <v>6863968.783291943</v>
+        <v>6863968.783291942</v>
       </c>
       <c r="E328">
         <v>10200855.87707587</v>
@@ -5950,10 +5950,10 @@
         <v>15198.0202038263</v>
       </c>
       <c r="C329">
-        <v>30265.96110233678</v>
+        <v>30265.96110233679</v>
       </c>
       <c r="D329">
-        <v>55997.07154945409</v>
+        <v>55997.07154945406</v>
       </c>
       <c r="E329">
         <v>79325.42250097127</v>
@@ -5964,16 +5964,16 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>2387818.304892572</v>
+        <v>2387818.304892573</v>
       </c>
       <c r="C330">
         <v>4079301.319430517</v>
       </c>
       <c r="D330">
-        <v>6340445.740498491</v>
+        <v>6340445.740498489</v>
       </c>
       <c r="E330">
-        <v>7448243.973737939</v>
+        <v>7448243.973737936</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5984,13 +5984,13 @@
         <v>1973272.109224926</v>
       </c>
       <c r="C331">
-        <v>3729998.414150087</v>
+        <v>3729998.414150086</v>
       </c>
       <c r="D331">
-        <v>6513739.724144324</v>
+        <v>6513739.724144325</v>
       </c>
       <c r="E331">
-        <v>8665260.465792388</v>
+        <v>8665260.465792386</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4461157.674132291</v>
+        <v>4461157.67413229</v>
       </c>
       <c r="C332">
-        <v>8588802.777111277</v>
+        <v>8588802.777111279</v>
       </c>
       <c r="D332">
         <v>15633255.31500076</v>
       </c>
       <c r="E332">
-        <v>22501324.6170996</v>
+        <v>22501324.61709959</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>3522046.500249731</v>
+        <v>3522046.50024973</v>
       </c>
       <c r="C333">
-        <v>7366502.956322322</v>
+        <v>7366502.956322319</v>
       </c>
       <c r="D333">
         <v>13622842.25219025</v>
       </c>
       <c r="E333">
-        <v>19622377.94687693</v>
+        <v>19622377.94687692</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,7 +6032,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>7737873.580399713</v>
+        <v>7737873.580399715</v>
       </c>
       <c r="C334">
         <v>14798112.49381398</v>
@@ -6041,7 +6041,7 @@
         <v>25514876.77135666</v>
       </c>
       <c r="E334">
-        <v>34833307.32878268</v>
+        <v>34833307.32878267</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,13 +6049,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>3245265.613671788</v>
+        <v>3245265.613671785</v>
       </c>
       <c r="C335">
-        <v>7040339.494190492</v>
+        <v>7040339.494190487</v>
       </c>
       <c r="D335">
-        <v>14566474.91669061</v>
+        <v>14566474.9166906</v>
       </c>
       <c r="E335">
         <v>23252667.1950952</v>
@@ -6066,13 +6066,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>3118625.255303172</v>
+        <v>3118625.255303174</v>
       </c>
       <c r="C336">
-        <v>5264101.319508391</v>
+        <v>5264101.319508393</v>
       </c>
       <c r="D336">
-        <v>8639576.118456164</v>
+        <v>8639576.118456166</v>
       </c>
       <c r="E336">
         <v>11153832.05534696</v>
@@ -6100,10 +6100,10 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>2335249.670899561</v>
+        <v>2335249.67089956</v>
       </c>
       <c r="C338">
-        <v>5209591.486323949</v>
+        <v>5209591.486323946</v>
       </c>
       <c r="D338">
         <v>11724678.83122613</v>
@@ -6134,13 +6134,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1443520.905940084</v>
+        <v>1443520.905940085</v>
       </c>
       <c r="C340">
         <v>2580597.405406239</v>
       </c>
       <c r="D340">
-        <v>4566030.129702312</v>
+        <v>4566030.129702309</v>
       </c>
       <c r="E340">
         <v>5658458.191262392</v>
@@ -6154,10 +6154,10 @@
         <v>1031086.361385775</v>
       </c>
       <c r="C341">
-        <v>2281625.754779906</v>
+        <v>2281625.754779907</v>
       </c>
       <c r="D341">
-        <v>5006888.211190811</v>
+        <v>5006888.211190809</v>
       </c>
       <c r="E341">
         <v>7858969.710086656</v>
@@ -6177,7 +6177,7 @@
         <v>985821.1332137104</v>
       </c>
       <c r="E342">
-        <v>1102391.471277533</v>
+        <v>1102391.471277532</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6202,13 +6202,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>1565723.733956176</v>
+        <v>1565723.733956177</v>
       </c>
       <c r="C344">
-        <v>2690744.855636992</v>
+        <v>2690744.855636993</v>
       </c>
       <c r="D344">
-        <v>4440070.677848455</v>
+        <v>4440070.677848453</v>
       </c>
       <c r="E344">
         <v>4939923.817768754</v>
@@ -6219,13 +6219,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>428589.7497176577</v>
+        <v>428589.7497176576</v>
       </c>
       <c r="C345">
         <v>842793.7489941942</v>
       </c>
       <c r="D345">
-        <v>1592664.148081854</v>
+        <v>1592664.148081855</v>
       </c>
       <c r="E345">
         <v>1920847.59451323</v>
@@ -6236,16 +6236,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>452400.2913686387</v>
+        <v>452400.2913686386</v>
       </c>
       <c r="C346">
         <v>830214.7378151764</v>
       </c>
       <c r="D346">
-        <v>1565204.421390787</v>
+        <v>1565204.421390789</v>
       </c>
       <c r="E346">
-        <v>1880829.936294205</v>
+        <v>1880829.936294204</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,16 +6253,16 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>452400.2913686387</v>
+        <v>452400.2913686386</v>
       </c>
       <c r="C347">
         <v>830214.7378151764</v>
       </c>
       <c r="D347">
-        <v>1565204.421390787</v>
+        <v>1565204.421390789</v>
       </c>
       <c r="E347">
-        <v>1880829.936294205</v>
+        <v>1880829.936294204</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6273,13 +6273,13 @@
         <v>391538.1951634181</v>
       </c>
       <c r="C348">
-        <v>713938.1128107724</v>
+        <v>713938.1128107723</v>
       </c>
       <c r="D348">
         <v>1275997.271712911</v>
       </c>
       <c r="E348">
-        <v>1626997.314366462</v>
+        <v>1626997.314366461</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6290,13 +6290,13 @@
         <v>460057.3793170163</v>
       </c>
       <c r="C349">
-        <v>770301.6480326755</v>
+        <v>770301.6480326754</v>
       </c>
       <c r="D349">
-        <v>1207024.446214915</v>
+        <v>1207024.446214916</v>
       </c>
       <c r="E349">
-        <v>1339880.141242969</v>
+        <v>1339880.141242967</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6307,13 +6307,13 @@
         <v>460057.3793170163</v>
       </c>
       <c r="C350">
-        <v>770301.6480326755</v>
+        <v>770301.6480326754</v>
       </c>
       <c r="D350">
-        <v>1207024.446214915</v>
+        <v>1207024.446214916</v>
       </c>
       <c r="E350">
-        <v>1339880.141242969</v>
+        <v>1339880.141242967</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,16 +6321,16 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>601215.3943401569</v>
+        <v>601215.3943401572</v>
       </c>
       <c r="C351">
-        <v>1227435.670039266</v>
+        <v>1227435.670039267</v>
       </c>
       <c r="D351">
         <v>2513974.513901005</v>
       </c>
       <c r="E351">
-        <v>3261922.93164379</v>
+        <v>3261922.931643791</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>719311.2753712592</v>
+        <v>719311.2753712594</v>
       </c>
       <c r="C352">
-        <v>1310051.532445755</v>
+        <v>1310051.532445756</v>
       </c>
       <c r="D352">
         <v>2383038.341301994</v>
       </c>
       <c r="E352">
-        <v>2549548.958066411</v>
+        <v>2549548.958066412</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,7 +6355,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>2857419.967017327</v>
+        <v>2857419.967017326</v>
       </c>
       <c r="C353">
         <v>5206800.537902203</v>
@@ -6375,10 +6375,10 @@
         <v>3228347.060745102</v>
       </c>
       <c r="C354">
-        <v>5222458.390745759</v>
+        <v>5222458.390745756</v>
       </c>
       <c r="D354">
-        <v>7780871.735980856</v>
+        <v>7780871.735980854</v>
       </c>
       <c r="E354">
         <v>8404245.340015598</v>
@@ -6389,7 +6389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>3795677.269620031</v>
+        <v>3795677.26962003</v>
       </c>
       <c r="C355">
         <v>5707454.435777415</v>
@@ -6398,7 +6398,7 @@
         <v>8094272.845494105</v>
       </c>
       <c r="E355">
-        <v>8789237.049172208</v>
+        <v>8789237.049172206</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6429,7 +6429,7 @@
         <v>1270505.361882139</v>
       </c>
       <c r="D357">
-        <v>1921842.171541715</v>
+        <v>1921842.171541714</v>
       </c>
       <c r="E357">
         <v>2046843.17240949</v>
@@ -6446,7 +6446,7 @@
         <v>1270505.361882139</v>
       </c>
       <c r="D358">
-        <v>1921842.171541715</v>
+        <v>1921842.171541714</v>
       </c>
       <c r="E358">
         <v>2094444.176419013</v>
@@ -6460,7 +6460,7 @@
         <v>291881.7446828993</v>
       </c>
       <c r="C359">
-        <v>624128.9881286442</v>
+        <v>624128.9881286445</v>
       </c>
       <c r="D359">
         <v>1326595.261123158</v>
@@ -6477,7 +6477,7 @@
         <v>381691.5122776375</v>
       </c>
       <c r="C360">
-        <v>673080.2813152045</v>
+        <v>673080.2813152048</v>
       </c>
       <c r="D360">
         <v>1218301.770419226</v>
@@ -6491,16 +6491,16 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>4794658.792170408</v>
+        <v>4794658.792170405</v>
       </c>
       <c r="C361">
         <v>11616805.4642563</v>
       </c>
       <c r="D361">
-        <v>25966574.16302375</v>
+        <v>25966574.16302377</v>
       </c>
       <c r="E361">
-        <v>39256146.95561858</v>
+        <v>39256146.95561857</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6508,16 +6508,16 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>7086683.996445917</v>
+        <v>7086683.996445919</v>
       </c>
       <c r="C362">
-        <v>13495167.57170069</v>
+        <v>13495167.57170071</v>
       </c>
       <c r="D362">
-        <v>25533985.32953802</v>
+        <v>25533985.32953801</v>
       </c>
       <c r="E362">
-        <v>31835326.43956116</v>
+        <v>31835326.43956115</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6525,7 +6525,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>335706.7039891539</v>
+        <v>335706.7039891541</v>
       </c>
       <c r="C363">
         <v>826200.6926623624</v>
@@ -6534,7 +6534,7 @@
         <v>2088729.464274575</v>
       </c>
       <c r="E363">
-        <v>3333097.604756367</v>
+        <v>3333097.604756366</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>1226521.500754949</v>
       </c>
       <c r="C364">
-        <v>2688409.779326964</v>
+        <v>2688409.779326962</v>
       </c>
       <c r="D364">
-        <v>5802741.567063441</v>
+        <v>5802741.567063442</v>
       </c>
       <c r="E364">
-        <v>8582442.487284239</v>
+        <v>8582442.487284236</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>1174106.052004737</v>
       </c>
       <c r="C365">
-        <v>2596498.333879888</v>
+        <v>2596498.333879887</v>
       </c>
       <c r="D365">
-        <v>5853200.189385731</v>
+        <v>5853200.189385732</v>
       </c>
       <c r="E365">
-        <v>9118845.142739505</v>
+        <v>9118845.142739499</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6579,13 +6579,13 @@
         <v>370581.2851199724</v>
       </c>
       <c r="C366">
-        <v>765476.0027202253</v>
+        <v>765476.0027202249</v>
       </c>
       <c r="D366">
         <v>1608606.156844242</v>
       </c>
       <c r="E366">
-        <v>2129952.791775572</v>
+        <v>2129952.791775571</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>411756.9834666359</v>
+        <v>411756.983466636</v>
       </c>
       <c r="C367">
-        <v>784146.1491280355</v>
+        <v>784146.1491280353</v>
       </c>
       <c r="D367">
         <v>1563922.652487457</v>
       </c>
       <c r="E367">
-        <v>1916957.512598015</v>
+        <v>1916957.512598014</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,7 +6610,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>387558.7061491698</v>
+        <v>387558.7061491699</v>
       </c>
       <c r="C368">
         <v>782937.5727643417</v>
@@ -6619,7 +6619,7 @@
         <v>1715317.883499838</v>
       </c>
       <c r="E368">
-        <v>2358994.443249461</v>
+        <v>2358994.44324946</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6627,10 +6627,10 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>452932.6818132995</v>
+        <v>452932.6818132997</v>
       </c>
       <c r="C369">
-        <v>802816.2955358459</v>
+        <v>802816.2955358457</v>
       </c>
       <c r="D369">
         <v>1519239.148130673</v>
@@ -6647,7 +6647,7 @@
         <v>223722.4539454591</v>
       </c>
       <c r="C370">
-        <v>501351.7797202789</v>
+        <v>501351.7797202792</v>
       </c>
       <c r="D370">
         <v>1183612.034773042</v>
@@ -6664,7 +6664,7 @@
         <v>279653.0674318239</v>
       </c>
       <c r="C371">
-        <v>533697.0558312646</v>
+        <v>533697.0558312649</v>
       </c>
       <c r="D371">
         <v>1101983.618581798</v>
@@ -6681,13 +6681,13 @@
         <v>258679.0873744371</v>
       </c>
       <c r="C372">
-        <v>517524.4177757718</v>
+        <v>517524.417775772</v>
       </c>
       <c r="D372">
         <v>1142797.82667742</v>
       </c>
       <c r="E372">
-        <v>1455702.214184685</v>
+        <v>1455702.214184684</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,10 +6698,10 @@
         <v>2499268.149873308</v>
       </c>
       <c r="C373">
-        <v>4962988.414294611</v>
+        <v>4962988.414294613</v>
       </c>
       <c r="D373">
-        <v>9498288.698414557</v>
+        <v>9498288.698414553</v>
       </c>
       <c r="E373">
         <v>14013606.00336789</v>
@@ -6718,7 +6718,7 @@
         <v>3720586.837411858</v>
       </c>
       <c r="D374">
-        <v>7458623.497882779</v>
+        <v>7458623.497882778</v>
       </c>
       <c r="E374">
         <v>11368041.72119672</v>
@@ -6729,13 +6729,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>3453289.86299699</v>
+        <v>3453289.862996991</v>
       </c>
       <c r="C375">
-        <v>5697308.128654527</v>
+        <v>5697308.12865453</v>
       </c>
       <c r="D375">
-        <v>8672350.550726335</v>
+        <v>8672350.55072633</v>
       </c>
       <c r="E375">
         <v>9622245.59678256</v>
@@ -6746,16 +6746,16 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>2386406.888030191</v>
+        <v>2386406.88803019</v>
       </c>
       <c r="C376">
         <v>3886426.467817299</v>
       </c>
       <c r="D376">
-        <v>6260612.650314102</v>
+        <v>6260612.650314104</v>
       </c>
       <c r="E376">
-        <v>7443814.206684282</v>
+        <v>7443814.206684279</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,16 +6763,16 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>2386406.888030191</v>
+        <v>2386406.88803019</v>
       </c>
       <c r="C377">
         <v>3886426.467817299</v>
       </c>
       <c r="D377">
-        <v>6260612.650314102</v>
+        <v>6260612.650314104</v>
       </c>
       <c r="E377">
-        <v>7443814.206684282</v>
+        <v>7443814.206684279</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6780,16 +6780,16 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>1529816.662781178</v>
+        <v>1529816.662781177</v>
       </c>
       <c r="C378">
-        <v>2884792.62789004</v>
+        <v>2884792.627890039</v>
       </c>
       <c r="D378">
-        <v>5093993.384755986</v>
+        <v>5093993.384755988</v>
       </c>
       <c r="E378">
-        <v>7098789.818553128</v>
+        <v>7098789.818553126</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6797,16 +6797,16 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>1482009.892069266</v>
+        <v>1482009.892069265</v>
       </c>
       <c r="C379">
-        <v>2973102.606294837</v>
+        <v>2973102.606294836</v>
       </c>
       <c r="D379">
-        <v>5144933.318603545</v>
+        <v>5144933.318603547</v>
       </c>
       <c r="E379">
-        <v>7028504.770844681</v>
+        <v>7028504.77084468</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6814,16 +6814,16 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>2055691.140612207</v>
+        <v>2055691.140612206</v>
       </c>
       <c r="C380">
         <v>3120285.903636165</v>
       </c>
       <c r="D380">
-        <v>4635533.980127946</v>
+        <v>4635533.980127949</v>
       </c>
       <c r="E380">
-        <v>5271378.578133511</v>
+        <v>5271378.57813351</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6831,16 +6831,16 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>1529816.662781178</v>
+        <v>1529816.662781177</v>
       </c>
       <c r="C381">
-        <v>2884792.62789004</v>
+        <v>2884792.627890039</v>
       </c>
       <c r="D381">
-        <v>5093993.384755986</v>
+        <v>5093993.384755988</v>
       </c>
       <c r="E381">
-        <v>7098789.818553128</v>
+        <v>7098789.818553126</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6851,13 +6851,13 @@
         <v>1037857.371651156</v>
       </c>
       <c r="C382">
-        <v>1691925.177167005</v>
+        <v>1691925.177167006</v>
       </c>
       <c r="D382">
         <v>2553707.272623868</v>
       </c>
       <c r="E382">
-        <v>2915270.940512034</v>
+        <v>2915270.940512032</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6868,7 +6868,7 @@
         <v>2526394.321334149</v>
       </c>
       <c r="C383">
-        <v>5256884.080283446</v>
+        <v>5256884.08028345</v>
       </c>
       <c r="D383">
         <v>10063840.78473591</v>
@@ -6885,13 +6885,13 @@
         <v>3822945.88636098</v>
       </c>
       <c r="C384">
-        <v>6393713.132799029</v>
+        <v>6393713.132799033</v>
       </c>
       <c r="D384">
-        <v>10531687.77468352</v>
+        <v>10531687.77468353</v>
       </c>
       <c r="E384">
-        <v>12537497.35437769</v>
+        <v>12537497.35437768</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,7 +6899,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>595006.6859798895</v>
+        <v>595006.6859798894</v>
       </c>
       <c r="C385">
         <v>1234330.616099574</v>
@@ -6916,16 +6916,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>809804.3878736169</v>
+        <v>809804.3878736167</v>
       </c>
       <c r="C386">
-        <v>1678152.338533026</v>
+        <v>1678152.338533027</v>
       </c>
       <c r="D386">
-        <v>3266925.438329486</v>
+        <v>3266925.438329489</v>
       </c>
       <c r="E386">
-        <v>4456684.437432142</v>
+        <v>4456684.437432146</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6933,16 +6933,16 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>928312.347074634</v>
+        <v>928312.3470746337</v>
       </c>
       <c r="C387">
         <v>1741083.051228015</v>
       </c>
       <c r="D387">
-        <v>3179807.426640699</v>
+        <v>3179807.426640702</v>
       </c>
       <c r="E387">
-        <v>3875377.771680124</v>
+        <v>3875377.771680127</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6973,10 +6973,10 @@
         <v>251066.5933728316</v>
       </c>
       <c r="D389">
-        <v>691295.3723034668</v>
+        <v>691295.372303467</v>
       </c>
       <c r="E389">
-        <v>989195.5039415479</v>
+        <v>989195.503941549</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6990,10 +6990,10 @@
         <v>258912.4244157325</v>
       </c>
       <c r="D390">
-        <v>691295.3723034668</v>
+        <v>691295.372303467</v>
       </c>
       <c r="E390">
-        <v>944232.0719442049</v>
+        <v>944232.0719442058</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7024,10 +7024,10 @@
         <v>266758.2554586335</v>
       </c>
       <c r="D392">
-        <v>666606.2518640572</v>
+        <v>666606.2518640575</v>
       </c>
       <c r="E392">
-        <v>809341.7759521756</v>
+        <v>809341.7759521764</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,7 +7035,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>335797.5649754676</v>
+        <v>335797.5649754677</v>
       </c>
       <c r="C393">
         <v>572989.9455864509</v>
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>319336.9000256898</v>
+        <v>319336.9000256899</v>
       </c>
       <c r="C394">
         <v>559817.7629292911</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>245442.8220989147</v>
+        <v>245442.8220989148</v>
       </c>
       <c r="C395">
-        <v>484938.2758878446</v>
+        <v>484938.2758878444</v>
       </c>
       <c r="D395">
         <v>1307462.463819377</v>
       </c>
       <c r="E395">
-        <v>2213057.561560008</v>
+        <v>2213057.561560009</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,16 +7086,16 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>308662.9429425745</v>
+        <v>308662.9429425747</v>
       </c>
       <c r="C396">
-        <v>529023.5736958305</v>
+        <v>529023.5736958303</v>
       </c>
       <c r="D396">
         <v>1227003.235276646</v>
       </c>
       <c r="E396">
-        <v>1694372.195569381</v>
+        <v>1694372.195569382</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7106,13 +7106,13 @@
         <v>111444.4717459235</v>
       </c>
       <c r="C397">
-        <v>187573.0365680988</v>
+        <v>187573.0365680986</v>
       </c>
       <c r="D397">
-        <v>464845.6572003048</v>
+        <v>464845.6572003047</v>
       </c>
       <c r="E397">
-        <v>732737.0517126455</v>
+        <v>732737.0517126449</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7123,13 +7123,13 @@
         <v>111444.4717459235</v>
       </c>
       <c r="C398">
-        <v>187573.0365680988</v>
+        <v>187573.0365680986</v>
       </c>
       <c r="D398">
-        <v>464845.6572003048</v>
+        <v>464845.6572003047</v>
       </c>
       <c r="E398">
-        <v>732737.0517126455</v>
+        <v>732737.0517126449</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,13 +7137,13 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>752758.7837094937</v>
+        <v>752758.7837094939</v>
       </c>
       <c r="C399">
-        <v>1808704.741219335</v>
+        <v>1808704.741219336</v>
       </c>
       <c r="D399">
-        <v>6280057.510396508</v>
+        <v>6280057.510396503</v>
       </c>
       <c r="E399">
         <v>11179370.35308778</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>821996.3796644644</v>
+        <v>821996.379664464</v>
       </c>
       <c r="C400">
-        <v>1658128.973991584</v>
+        <v>1658128.973991585</v>
       </c>
       <c r="D400">
-        <v>5112530.395731515</v>
+        <v>5112530.395731512</v>
       </c>
       <c r="E400">
-        <v>7631604.520418285</v>
+        <v>7631604.520418283</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,16 +7171,16 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>846487.5038600921</v>
+        <v>846487.5038600925</v>
       </c>
       <c r="C401">
-        <v>1879634.338914211</v>
+        <v>1879634.338914212</v>
       </c>
       <c r="D401">
-        <v>6075827.997863288</v>
+        <v>6075827.997863283</v>
       </c>
       <c r="E401">
-        <v>9889443.004654571</v>
+        <v>9889443.004654573</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7188,16 +7188,16 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>69717.06265827506</v>
+        <v>69717.06265827504</v>
       </c>
       <c r="C402">
         <v>145161.5147423653</v>
       </c>
       <c r="D402">
-        <v>489566.5643618726</v>
+        <v>489566.5643618728</v>
       </c>
       <c r="E402">
-        <v>834263.8072071879</v>
+        <v>834263.807207188</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>781898.9952905881</v>
+        <v>781898.9952905878</v>
       </c>
       <c r="C403">
-        <v>1637402.361816689</v>
+        <v>1637402.36181669</v>
       </c>
       <c r="D403">
-        <v>5213768.621389565</v>
+        <v>5213768.621389562</v>
       </c>
       <c r="E403">
-        <v>8156277.331197043</v>
+        <v>8156277.33119704</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7228,10 +7228,10 @@
         <v>361487.2706393438</v>
       </c>
       <c r="D404">
-        <v>1273013.997239036</v>
+        <v>1273013.997239037</v>
       </c>
       <c r="E404">
-        <v>2112377.927278891</v>
+        <v>2112377.927278892</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7242,13 +7242,13 @@
         <v>180712.4769127009</v>
       </c>
       <c r="C405">
-        <v>373339.3122996502</v>
+        <v>373339.3122996501</v>
       </c>
       <c r="D405">
-        <v>1227549.211623356</v>
+        <v>1227549.211623357</v>
       </c>
       <c r="E405">
-        <v>1896829.159189208</v>
+        <v>1896829.159189209</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7262,10 +7262,10 @@
         <v>361487.2706393438</v>
       </c>
       <c r="D406">
-        <v>1273013.997239036</v>
+        <v>1273013.997239037</v>
       </c>
       <c r="E406">
-        <v>2112377.927278891</v>
+        <v>2112377.927278892</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>143975.8939845914</v>
+        <v>143975.8939845913</v>
       </c>
       <c r="C407">
-        <v>329229.034219465</v>
+        <v>329229.0342194649</v>
       </c>
       <c r="D407">
         <v>1307670.384411612</v>
       </c>
       <c r="E407">
-        <v>2538865.557340806</v>
+        <v>2538865.557340805</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,16 +7290,16 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>187397.1953450237</v>
+        <v>187397.1953450236</v>
       </c>
       <c r="C408">
-        <v>361089.9084987681</v>
+        <v>361089.908498768</v>
       </c>
       <c r="D408">
         <v>1223304.553159249</v>
       </c>
       <c r="E408">
-        <v>1934373.757973948</v>
+        <v>1934373.757973947</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>155402.5522373367</v>
+        <v>155402.5522373366</v>
       </c>
       <c r="C409">
-        <v>334539.1799326822</v>
+        <v>334539.1799326821</v>
       </c>
       <c r="D409">
         <v>1286578.926598521</v>
       </c>
       <c r="E409">
-        <v>2417967.197467434</v>
+        <v>2417967.197467433</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7330,10 +7330,10 @@
         <v>2781511.651220385</v>
       </c>
       <c r="D410">
-        <v>7111285.69953307</v>
+        <v>7111285.699533075</v>
       </c>
       <c r="E410">
-        <v>11605988.82030999</v>
+        <v>11605988.82031</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,13 +7341,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>229487.4337880575</v>
+        <v>229487.4337880576</v>
       </c>
       <c r="C411">
-        <v>661893.4287848872</v>
+        <v>661893.4287848868</v>
       </c>
       <c r="D411">
-        <v>2357005.584068565</v>
+        <v>2357005.584068563</v>
       </c>
       <c r="E411">
         <v>5068242.924901132</v>
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>393407.0293509557</v>
+        <v>393407.029350956</v>
       </c>
       <c r="C412">
-        <v>811756.0919059938</v>
+        <v>811756.0919059933</v>
       </c>
       <c r="D412">
-        <v>2110751.269315132</v>
+        <v>2110751.269315131</v>
       </c>
       <c r="E412">
         <v>3297411.059574231</v>
@@ -7381,10 +7381,10 @@
         <v>2041441.535825972</v>
       </c>
       <c r="D413">
-        <v>4833500.591676763</v>
+        <v>4833500.591676764</v>
       </c>
       <c r="E413">
-        <v>6685995.582733851</v>
+        <v>6685995.582733844</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7398,10 +7398,10 @@
         <v>2781511.651220385</v>
       </c>
       <c r="D414">
-        <v>7111285.69953307</v>
+        <v>7111285.699533075</v>
       </c>
       <c r="E414">
-        <v>11605988.82030999</v>
+        <v>11605988.82031</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>432540.8490537239</v>
+        <v>432540.849053724</v>
       </c>
       <c r="C415">
-        <v>932034.2163955914</v>
+        <v>932034.2163955913</v>
       </c>
       <c r="D415">
-        <v>2378432.487208149</v>
+        <v>2378432.48720815</v>
       </c>
       <c r="E415">
-        <v>3654119.973517303</v>
+        <v>3654119.973517302</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>488714.9852944672</v>
+        <v>488714.9852944674</v>
       </c>
       <c r="C416">
-        <v>997670.4288178161</v>
+        <v>997670.428817816</v>
       </c>
       <c r="D416">
         <v>2304106.471982895</v>
       </c>
       <c r="E416">
-        <v>3013046.293952864</v>
+        <v>3013046.293952863</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,13 +7446,13 @@
         <v>97270.74071367556</v>
       </c>
       <c r="C417">
-        <v>204981.9435444133</v>
+        <v>204981.9435444134</v>
       </c>
       <c r="D417">
-        <v>601389.7015514638</v>
+        <v>601389.7015514636</v>
       </c>
       <c r="E417">
-        <v>1038228.880037786</v>
+        <v>1038228.880037785</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,13 +7463,13 @@
         <v>116724.8888564107</v>
       </c>
       <c r="C418">
-        <v>223616.6656848145</v>
+        <v>223616.6656848146</v>
       </c>
       <c r="D418">
-        <v>571320.2164738906</v>
+        <v>571320.2164738904</v>
       </c>
       <c r="E418">
-        <v>765010.7537120526</v>
+        <v>765010.7537120524</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7480,13 +7480,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C419">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D419">
         <v>1352493.141699577</v>
       </c>
       <c r="E419">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7497,13 +7497,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C420">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D420">
         <v>1352493.141699577</v>
       </c>
       <c r="E420">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7511,16 +7511,16 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C421">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D421">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E421">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7528,16 +7528,16 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C422">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D422">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E422">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7548,13 +7548,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C423">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D423">
         <v>1352493.141699577</v>
       </c>
       <c r="E423">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7565,13 +7565,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C424">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D424">
         <v>1352493.141699577</v>
       </c>
       <c r="E424">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,16 +7579,16 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C425">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D425">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E425">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7599,13 +7599,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C426">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D426">
         <v>1352493.141699577</v>
       </c>
       <c r="E426">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,13 +7616,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C427">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D427">
         <v>1352493.141699577</v>
       </c>
       <c r="E427">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7633,13 +7633,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C428">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D428">
         <v>1352493.141699577</v>
       </c>
       <c r="E428">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7650,13 +7650,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C429">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D429">
         <v>1352493.141699577</v>
       </c>
       <c r="E429">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7667,13 +7667,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C430">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D430">
         <v>1352493.141699577</v>
       </c>
       <c r="E430">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7681,16 +7681,16 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>270401.4544193256</v>
+        <v>270401.4544193257</v>
       </c>
       <c r="C431">
-        <v>556460.1393844367</v>
+        <v>556460.139384437</v>
       </c>
       <c r="D431">
-        <v>1306969.080672838</v>
+        <v>1306969.080672839</v>
       </c>
       <c r="E431">
-        <v>2183751.478642382</v>
+        <v>2183751.478642381</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7701,13 +7701,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C432">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D432">
         <v>1352493.141699577</v>
       </c>
       <c r="E432">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7718,13 +7718,13 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C433">
-        <v>578628.3393902921</v>
+        <v>578628.3393902919</v>
       </c>
       <c r="D433">
         <v>1352493.141699577</v>
       </c>
       <c r="E433">
-        <v>2254628.963769642</v>
+        <v>2254628.963769643</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7735,13 +7735,13 @@
         <v>306162.438110587</v>
       </c>
       <c r="C434">
-        <v>662045.72581736</v>
+        <v>662045.7258173599</v>
       </c>
       <c r="D434">
         <v>1753681.603496708</v>
       </c>
       <c r="E434">
-        <v>2900912.050048982</v>
+        <v>2900912.05004898</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7752,10 +7752,10 @@
         <v>363142.9868457401</v>
       </c>
       <c r="C435">
-        <v>606182.0698374488</v>
+        <v>606182.0698374487</v>
       </c>
       <c r="D435">
-        <v>1284868.484614598</v>
+        <v>1284868.484614599</v>
       </c>
       <c r="E435">
         <v>1634605.998732991</v>
@@ -7769,10 +7769,10 @@
         <v>142522.2029102131</v>
       </c>
       <c r="C436">
-        <v>278838.1275019002</v>
+        <v>278838.1275019001</v>
       </c>
       <c r="D436">
-        <v>668696.5660800579</v>
+        <v>668696.5660800586</v>
       </c>
       <c r="E436">
         <v>1000788.295603645</v>
@@ -7792,7 +7792,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E437">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7809,7 +7809,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E438">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7826,7 +7826,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E439">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7843,7 +7843,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E440">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7860,7 +7860,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E441">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7877,7 +7877,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E442">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7894,7 +7894,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E443">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7911,7 +7911,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E444">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7928,7 +7928,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E445">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7945,7 +7945,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E446">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7962,7 +7962,7 @@
         <v>478981.0865264023</v>
       </c>
       <c r="E447">
-        <v>743001.9901264267</v>
+        <v>743001.9901264268</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7970,13 +7970,13 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C448">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D448">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E448">
         <v>1060905.214888023</v>
@@ -7987,13 +7987,13 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C449">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D449">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E449">
         <v>1060905.214888023</v>
@@ -8004,13 +8004,13 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C450">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D450">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E450">
         <v>1060905.214888023</v>
@@ -8021,13 +8021,13 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C451">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D451">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E451">
         <v>1060905.214888023</v>
@@ -8038,13 +8038,13 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>191771.7645096898</v>
+        <v>191771.7645096896</v>
       </c>
       <c r="C452">
-        <v>320379.043406469</v>
+        <v>320379.0434064692</v>
       </c>
       <c r="D452">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E452">
         <v>1060905.214888023</v>
@@ -8058,13 +8058,13 @@
         <v>115063.0587058138</v>
       </c>
       <c r="C453">
-        <v>284781.3719168614</v>
+        <v>284781.3719168615</v>
       </c>
       <c r="D453">
-        <v>741826.6242098975</v>
+        <v>741826.6242098979</v>
       </c>
       <c r="E453">
-        <v>1497748.538665443</v>
+        <v>1497748.538665444</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,10 +8072,10 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C454">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D454">
         <v>1344982.285701753</v>
@@ -8089,10 +8089,10 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C455">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D455">
         <v>1344982.285701753</v>
@@ -8106,10 +8106,10 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C456">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D456">
         <v>1344982.285701753</v>
@@ -8123,10 +8123,10 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C457">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D457">
         <v>1344982.285701753</v>
@@ -8140,10 +8140,10 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C458">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D458">
         <v>1344982.285701753</v>
@@ -8157,10 +8157,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>381565.0893918444</v>
+        <v>381565.0893918443</v>
       </c>
       <c r="C459">
-        <v>641962.3410017195</v>
+        <v>641962.3410017196</v>
       </c>
       <c r="D459">
         <v>1272280.540528686</v>
@@ -8174,10 +8174,10 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C460">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D460">
         <v>1344982.285701753</v>
@@ -8191,10 +8191,10 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>331795.7299059517</v>
+        <v>331795.7299059516</v>
       </c>
       <c r="C461">
-        <v>594989.4867820814</v>
+        <v>594989.4867820815</v>
       </c>
       <c r="D461">
         <v>1344982.285701753</v>
@@ -8208,10 +8208,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>381565.0893918444</v>
+        <v>381565.0893918443</v>
       </c>
       <c r="C462">
-        <v>641962.3410017195</v>
+        <v>641962.3410017196</v>
       </c>
       <c r="D462">
         <v>1272280.540528686</v>
@@ -8228,7 +8228,7 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C463">
-        <v>564851.4741667137</v>
+        <v>564851.4741667135</v>
       </c>
       <c r="D463">
         <v>1352493.141699577</v>
@@ -8245,7 +8245,7 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C464">
-        <v>564851.4741667137</v>
+        <v>564851.4741667135</v>
       </c>
       <c r="D464">
         <v>1352493.141699577</v>
@@ -8262,13 +8262,13 @@
         <v>395656.0738659893</v>
       </c>
       <c r="C465">
-        <v>712972.320111003</v>
+        <v>712972.3201110029</v>
       </c>
       <c r="D465">
         <v>1616675.228223528</v>
       </c>
       <c r="E465">
-        <v>2199078.489553261</v>
+        <v>2199078.489553259</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8279,13 +8279,13 @@
         <v>306162.438110587</v>
       </c>
       <c r="C466">
-        <v>641675.0880999027</v>
+        <v>641675.0880999026</v>
       </c>
       <c r="D466">
         <v>1726280.328442072</v>
       </c>
       <c r="E466">
-        <v>2994489.858115078</v>
+        <v>2994489.858115077</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8296,7 +8296,7 @@
         <v>280921.9332202895</v>
       </c>
       <c r="C467">
-        <v>564851.4741667137</v>
+        <v>564851.4741667135</v>
       </c>
       <c r="D467">
         <v>1352493.141699577</v>
@@ -8313,13 +8313,13 @@
         <v>115063.0587058138</v>
       </c>
       <c r="C468">
-        <v>284781.3719168614</v>
+        <v>284781.3719168615</v>
       </c>
       <c r="D468">
-        <v>741826.6242098975</v>
+        <v>741826.6242098979</v>
       </c>
       <c r="E468">
-        <v>1497748.538665443</v>
+        <v>1497748.538665444</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>210948.9409606587</v>
+        <v>210948.9409606586</v>
       </c>
       <c r="C469">
-        <v>338177.8791512729</v>
+        <v>338177.8791512731</v>
       </c>
       <c r="D469">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E469">
-        <v>936092.8366659022</v>
+        <v>936092.8366659023</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>210948.9409606587</v>
+        <v>210948.9409606586</v>
       </c>
       <c r="C470">
-        <v>338177.8791512729</v>
+        <v>338177.8791512731</v>
       </c>
       <c r="D470">
-        <v>663739.6111351715</v>
+        <v>663739.6111351718</v>
       </c>
       <c r="E470">
-        <v>936092.8366659022</v>
+        <v>936092.8366659023</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8364,10 +8364,10 @@
         <v>363142.9868457401</v>
       </c>
       <c r="C471">
-        <v>619958.9350610272</v>
+        <v>619958.9350610271</v>
       </c>
       <c r="D471">
-        <v>1284868.484614598</v>
+        <v>1284868.484614599</v>
       </c>
       <c r="E471">
         <v>1634605.998732991</v>
@@ -8378,10 +8378,10 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>398154.875887142</v>
+        <v>398154.8758871419</v>
       </c>
       <c r="C472">
-        <v>673277.5771481447</v>
+        <v>673277.5771481449</v>
       </c>
       <c r="D472">
         <v>1272280.540528686</v>
@@ -8398,13 +8398,13 @@
         <v>395656.0738659893</v>
       </c>
       <c r="C473">
-        <v>723157.6389697316</v>
+        <v>723157.6389697315</v>
       </c>
       <c r="D473">
         <v>1616675.228223528</v>
       </c>
       <c r="E473">
-        <v>2152289.585520213</v>
+        <v>2152289.585520211</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8415,13 +8415,13 @@
         <v>395656.0738659893</v>
       </c>
       <c r="C474">
-        <v>723157.6389697316</v>
+        <v>723157.6389697315</v>
       </c>
       <c r="D474">
         <v>1616675.228223528</v>
       </c>
       <c r="E474">
-        <v>2152289.585520213</v>
+        <v>2152289.585520211</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8432,13 +8432,13 @@
         <v>152023.6831042273</v>
       </c>
       <c r="C475">
-        <v>289165.4655575262</v>
+        <v>289165.465557526</v>
       </c>
       <c r="D475">
-        <v>668696.5660800579</v>
+        <v>668696.5660800586</v>
       </c>
       <c r="E475">
-        <v>905475.1245937737</v>
+        <v>905475.1245937741</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>209589.9422376612</v>
+        <v>209589.9422376611</v>
       </c>
       <c r="C476">
-        <v>397692.0046306763</v>
+        <v>397692.0046306764</v>
       </c>
       <c r="D476">
-        <v>893522.2754120046</v>
+        <v>893522.2754120041</v>
       </c>
       <c r="E476">
-        <v>1159802.627447714</v>
+        <v>1159802.627447713</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8466,13 +8466,13 @@
         <v>205223.4851077099</v>
       </c>
       <c r="C477">
-        <v>387992.1996396842</v>
+        <v>387992.1996396843</v>
       </c>
       <c r="D477">
-        <v>920598.7080002471</v>
+        <v>920598.7080002467</v>
       </c>
       <c r="E477">
-        <v>1206194.732545623</v>
+        <v>1206194.732545622</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,16 +8480,16 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C478">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D478">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E478">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,13 +8497,13 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>3393749.871945856</v>
+        <v>3393749.871945858</v>
       </c>
       <c r="C479">
-        <v>5890995.712987311</v>
+        <v>5890995.712987309</v>
       </c>
       <c r="D479">
-        <v>14026616.8275017</v>
+        <v>14026616.82750171</v>
       </c>
       <c r="E479">
         <v>20827931.17433538</v>
@@ -8514,16 +8514,16 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>917066.1172255231</v>
+        <v>917066.117225523</v>
       </c>
       <c r="C480">
-        <v>1900171.704219322</v>
+        <v>1900171.704219323</v>
       </c>
       <c r="D480">
-        <v>5105991.19055348</v>
+        <v>5105991.190553482</v>
       </c>
       <c r="E480">
-        <v>9002339.907824267</v>
+        <v>9002339.907824263</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,16 +8531,16 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C481">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D481">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E481">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,16 +8548,16 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C482">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D482">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E482">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,16 +8565,16 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C483">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D483">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E483">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,16 +8582,16 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>891040.7659685602</v>
+        <v>891040.7659685605</v>
       </c>
       <c r="C484">
-        <v>1835011.381432824</v>
+        <v>1835011.381432825</v>
       </c>
       <c r="D484">
-        <v>4933145.652446674</v>
+        <v>4933145.652446673</v>
       </c>
       <c r="E484">
-        <v>8707115.793828188</v>
+        <v>8707115.793828193</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,16 +8599,16 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>917066.1172255231</v>
+        <v>917066.117225523</v>
       </c>
       <c r="C485">
-        <v>1900171.704219322</v>
+        <v>1900171.704219323</v>
       </c>
       <c r="D485">
-        <v>5105991.19055348</v>
+        <v>5105991.190553482</v>
       </c>
       <c r="E485">
-        <v>9002339.907824267</v>
+        <v>9002339.907824263</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>1601114.850792737</v>
+        <v>1601114.850792738</v>
       </c>
       <c r="C486">
-        <v>3350848.421990065</v>
+        <v>3350848.421990066</v>
       </c>
       <c r="D486">
-        <v>9138095.552128764</v>
+        <v>9138095.552128766</v>
       </c>
       <c r="E486">
         <v>16195718.65760495</v>
@@ -8642,7 +8642,7 @@
         <v>1763038.299326172</v>
       </c>
       <c r="E487">
-        <v>2221215.272318628</v>
+        <v>2221215.272318626</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8656,10 +8656,10 @@
         <v>261568.0373566322</v>
       </c>
       <c r="D488">
-        <v>696118.2477572788</v>
+        <v>696118.2477572791</v>
       </c>
       <c r="E488">
-        <v>1135359.458929319</v>
+        <v>1135359.458929318</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8670,13 +8670,13 @@
         <v>175010.0629827832</v>
       </c>
       <c r="C489">
-        <v>295685.6074466277</v>
+        <v>295685.6074466276</v>
       </c>
       <c r="D489">
-        <v>638108.3937775056</v>
+        <v>638108.3937775057</v>
       </c>
       <c r="E489">
-        <v>937905.6399850893</v>
+        <v>937905.6399850891</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,10 +8684,10 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C490">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D490">
         <v>7006048.26932108</v>
@@ -8701,10 +8701,10 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>1818232.901941763</v>
+        <v>1818232.901941764</v>
       </c>
       <c r="C491">
-        <v>3169445.416218187</v>
+        <v>3169445.416218186</v>
       </c>
       <c r="D491">
         <v>6696388.677306889</v>
@@ -8718,10 +8718,10 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C492">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D492">
         <v>7006048.26932108</v>
@@ -8735,10 +8735,10 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C493">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D493">
         <v>7006048.26932108</v>
@@ -8752,10 +8752,10 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>1583116.578414811</v>
+        <v>1583116.578414812</v>
       </c>
       <c r="C494">
-        <v>3057957.38650197</v>
+        <v>3057957.386501968</v>
       </c>
       <c r="D494">
         <v>7006048.26932108</v>
@@ -8769,10 +8769,10 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>320868.3055894009</v>
+        <v>320868.3055894011</v>
       </c>
       <c r="C495">
-        <v>609157.4022898591</v>
+        <v>609157.402289859</v>
       </c>
       <c r="D495">
         <v>1335604.090875134</v>
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>2127936.665436226</v>
+        <v>2127936.665436227</v>
       </c>
       <c r="C496">
-        <v>3970126.428435505</v>
+        <v>3970126.428435504</v>
       </c>
       <c r="D496">
-        <v>8359433.199133501</v>
+        <v>8359433.199133504</v>
       </c>
       <c r="E496">
-        <v>11617606.90338837</v>
+        <v>11617606.90338836</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,10 +8803,10 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>320868.3055894009</v>
+        <v>320868.3055894011</v>
       </c>
       <c r="C497">
-        <v>609157.4022898591</v>
+        <v>609157.402289859</v>
       </c>
       <c r="D497">
         <v>1335604.090875134</v>
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>622662.9363085836</v>
+        <v>622662.9363085835</v>
       </c>
       <c r="C498">
         <v>1173292.602524396</v>
@@ -8829,7 +8829,7 @@
         <v>2413378.327233986</v>
       </c>
       <c r="E498">
-        <v>3488008.627855971</v>
+        <v>3488008.627855972</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>733548.1167470985</v>
+        <v>733548.1167470984</v>
       </c>
       <c r="C499">
         <v>1242309.814437596</v>
@@ -8846,7 +8846,7 @@
         <v>2296601.956561374</v>
       </c>
       <c r="E499">
-        <v>2740578.20760112</v>
+        <v>2740578.207601121</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,7 +8854,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>742077.7460115997</v>
+        <v>742077.7460115994</v>
       </c>
       <c r="C500">
         <v>1242309.814437596</v>
@@ -8863,7 +8863,7 @@
         <v>2296601.956561374</v>
       </c>
       <c r="E500">
-        <v>2678292.339246549</v>
+        <v>2678292.33924655</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>222432.2229956417</v>
+        <v>222432.2229956418</v>
       </c>
       <c r="C501">
-        <v>442347.0282579177</v>
+        <v>442347.0282579176</v>
       </c>
       <c r="D501">
         <v>1184253.630968338</v>
       </c>
       <c r="E501">
-        <v>2197794.320698332</v>
+        <v>2197794.320698331</v>
       </c>
     </row>
   </sheetData>
